--- a/data/szekelyhon_medve.xlsx
+++ b/data/szekelyhon_medve.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>date</t>
   </si>
@@ -43,33 +43,6 @@
     <t>content</t>
   </si>
   <si>
-    <t>2019. március 06.</t>
-  </si>
-  <si>
-    <t>2019. március 16.</t>
-  </si>
-  <si>
-    <t>2019. március 20.</t>
-  </si>
-  <si>
-    <t>2019. március 22.</t>
-  </si>
-  <si>
-    <t>2019. március 23.</t>
-  </si>
-  <si>
-    <t>2019. március 25.</t>
-  </si>
-  <si>
-    <t>2019. március 26.</t>
-  </si>
-  <si>
-    <t>2019. március 27.</t>
-  </si>
-  <si>
-    <t>2019. március 30.</t>
-  </si>
-  <si>
     <t>2019. április 06.</t>
   </si>
   <si>
@@ -79,49 +52,22 @@
     <t>2019. április 17.</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/meg-a-rokak-is-kerulik-az-udvarhelyhez-kozeli-uregbe-huzodott-bocsos-anyamedvet</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/elpusztult-az-ujszekely-hataraban-elgazolt-medvebocs</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/ujabb-bocsot-szabaditottak-ki-az-egyik-tusnadfurdoi-szemettarolobol</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/elesben-a-ro-alert-medve-miatt-riasztottak-a-lakossagot</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/nem-elte-tul-a-korispataki-medvetamadast-az-aldozat</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/engedelyezik-a-korispataki-ferfit-halalosan-megsebesito-medve-kiloveset</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/nyomozas-indult-a-halalos-medvetamadas-miatt</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/ha-blecsillapodikr-a-korispataki-medve-nem-lesz-indokolt-a-kilovese</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/a-medvehelyzet-visszassagaira-hivjak-fel-a-figyelmet-minden-termeszetjaro-potencialis-aldozat</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/adomanygyujtes-a-korispataki-medvetamadasban-arvan-maradt-gyerekek-eletkorulmenyeinek-jobba-teteleert</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/villanypasztort-szereltek-a-csikszeredai-megyei-surgossegi-korhaz-kore</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/neveloszulot-keresnek-a-medvetamadas-miatt-felarvan-maradt-ket-kiskoru-felnevelesere</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/video-a-medverol-es-a-tamadas-helyszinerol</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/sokamedve</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/szekelyfoldi-medveradar-n-terkepen-osszegzik-a-nagyvad-eszlelesenek-helyeit</t>
+    <t>2019. május 02.</t>
+  </si>
+  <si>
+    <t>2019. május 14.</t>
+  </si>
+  <si>
+    <t>2019. május 15.</t>
+  </si>
+  <si>
+    <t>2019. május 24.</t>
+  </si>
+  <si>
+    <t>2019. május 25.</t>
+  </si>
+  <si>
+    <t>2019. május 28.</t>
   </si>
   <si>
     <t>https://szekelyhon.ro/aktualis/medvetamadasok-utan-helyszini-terepszemlet-tart-a-prefektus</t>
@@ -133,144 +79,108 @@
     <t>https://szekelyhon.ro/aktualis/legalabb-tizenot-medve-jar-be-szekelyudvarhelyre</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/12_januar/sm_medveveszely-budvar-ba-13.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/10_marcius/sm_medvebocs-ujszekely-hmt02.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/01_kiemelesek/sm_medve_tusnadfurdo_mti_veres-2.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/04_szeptember/02/sm_ro-alert-gn_-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/05_augusztus/sm_mentoauto-ba-1.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2013/09_aprilis/sm_fegyver-vn-009.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-60.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/10_marcius/01/sm_medve-korispatak-ba-3.jpg</t>
+    <t>https://szekelyhon.ro/aktualis/celkeresztbe-kerulhet-a-szentabrahamon-juhokat-elpusztito-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/fenykeppel-nyomatekositjak-csak-ovatosan-mert-medvek-vannak</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/korabbi-elohelyen-engedtek-szabadon-a-tavaly-elutott-medvebocsot</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medve-tamadt-egy-madarasi-juhaszra</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/szurkulettel-jovo-felelem-harombocsos-medvetol-rettegnek-a-bardosiak</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/faklyaval-igyekeznek-elriasztani-a-medvet-amig-ki-nem-lohetik</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tovabballt-az-agyagdombi-medvecsalad</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kamerafelvetelek-nyomok-barlangok-n-igy-szamoljak-a-vadakat</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/gyerekek-kozelebol-kergettek-el-a-medveket-1</t>
   </si>
   <si>
     <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medvek-pixabay.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/10_marcius/01/sm_medve-korispatak-ba-6.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/10_marcius/sm_villanypasztor-korhaz-01.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/10_marcius/01/sm_medve-korisp-ba-6.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-90.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-56.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/2018-kepvalogatas/sm_or_medve-kiloves-remete-ba-17.jpg</t>
-  </si>
-  <si>
     <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medvekar-szentabraham-2k19_aprilis_05.jpg</t>
   </si>
   <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/06_julius/sm_medvecsapda-3-ba-3.jpg</t>
   </si>
   <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-9.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medve1-kamera-koronka.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-66.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/09_aprilis/sm_mentoauto-illusztracionak-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/07_junius/02/sm_medveles-bogoz-ba-29.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2016/10_marcius/sm_faklyas-felvo-marc15-ab-19.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/08_majus/01/sm_budvari-medve-ba-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/123rf/2019/sm_hiuz-123rf-1.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/08_majus/02/sm_sanyi-a-medve-elszallitasa-pnt-8.jpg</t>
+  </si>
+  <si>
     <t>aktualis</t>
   </si>
   <si>
+    <t>agerpres</t>
+  </si>
+  <si>
     <t>udvarhely</t>
   </si>
   <si>
-    <t>agerpres</t>
-  </si>
-  <si>
     <t>csik</t>
   </si>
   <si>
+    <t>123rf</t>
+  </si>
+  <si>
+    <t>['Maros megye', 'medve']</t>
+  </si>
+  <si>
+    <t>['medve', 'Udvarhelyszék']</t>
+  </si>
+  <si>
     <t>['medve', 'Székelyudvarhely']</t>
   </si>
   <si>
-    <t>['medve', 'Udvarhelyszék']</t>
+    <t>['Marosszék', 'medve']</t>
+  </si>
+  <si>
+    <t>['Háromszék']</t>
+  </si>
+  <si>
+    <t>['Csíkszék', 'medve']</t>
+  </si>
+  <si>
+    <t>['Hargita megye', 'Környezetvédelem', 'Maros megye', 'medve']</t>
   </si>
   <si>
     <t>['medve', 'Tusnádfürdő']</t>
   </si>
   <si>
-    <t>['medve', 'Sepsiszentgyörgy']</t>
-  </si>
-  <si>
-    <t>['medve', 'Rendőrség', 'Udvarhelyszék']</t>
-  </si>
-  <si>
-    <t>['Hargita megye', 'medve']</t>
-  </si>
-  <si>
-    <t>['Csíkszereda', 'Kórház', 'medve']</t>
-  </si>
-  <si>
-    <t>['Publicisztika']</t>
-  </si>
-  <si>
-    <t>['medve', 'Székelyföld']</t>
-  </si>
-  <si>
-    <t>['Maros megye', 'medve']</t>
-  </si>
-  <si>
-    <t>Még a rókák is kerülik az Udvarhelyhez közeli üregbe húzódott bocsos anyamedvét</t>
-  </si>
-  <si>
-    <t>Elpusztult az Újszékely határában elgázolt medvebocs</t>
-  </si>
-  <si>
-    <t>Újabb bocsot szabadítottak ki az egyik tusnádfürdői szeméttárolóból</t>
-  </si>
-  <si>
-    <t>Élesben a Ro-Alert: medve miatt riasztották a lakosságot</t>
-  </si>
-  <si>
-    <t>Nem élte túl a kőrispataki medvetámadást az áldozat</t>
-  </si>
-  <si>
-    <t>Engedélyezik a kőrispataki férfit halálosan megsebesítő medve kilövését</t>
-  </si>
-  <si>
-    <t>Nyomozás indult a halálos medvetámadás miatt</t>
-  </si>
-  <si>
-    <t>Ha „lecsillapodik” a kőrispataki medve, nem lesz indokolt a kilövése</t>
-  </si>
-  <si>
-    <t>A medvehelyzet visszásságaira hívják fel a figyelmet: minden természetjáró potenciális áldozat</t>
-  </si>
-  <si>
-    <t>Adománygyűjtés a kőrispataki medvetámadásban árván maradt gyerekek életkörülményeinek jobbá tételéért</t>
-  </si>
-  <si>
-    <t>Villanypásztort szereltek a Csíkszeredai Megyei Sürgősségi Kórház köré</t>
-  </si>
-  <si>
-    <t>Nevelőszülőt keresnek a medvetámadás miatt félárván maradt két kiskorú felnevelésére</t>
-  </si>
-  <si>
-    <t>Videó a kőrispataki medvéről és a támadás helyszínéről</t>
-  </si>
-  <si>
-    <t>#Sokamedve</t>
-  </si>
-  <si>
-    <t>Székelyföldi medveradar – térképen összegzik a nagyvad észlelésének helyeit</t>
-  </si>
-  <si>
     <t>Medvetámadások után helyszíni terepszemlét tart a prefektus</t>
   </si>
   <si>
@@ -280,49 +190,31 @@
     <t>Legalább tizenöt medve jár be Székelyudvarhelyre</t>
   </si>
   <si>
-    <t>A későbbiekben is érdemes elkerülni a Székelyudvarhely határában lévő Agyagdomb környékét, hiszen jó eséllyel még az üregében van a veszélyesnek számító bocsos anyamedve. A vadászok a megfelelő időpontot várják az elköltöztetésre.</t>
-  </si>
-  <si>
-    <t>Egyedül bóklászó egyéves medvebocsot gázolt el egy autó péntekre virradóan Újszékely határában. A vadállat az ütközést követően elpusztult – számol be a Hargita megyei önkormányzat sajtóirodája.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ismét medvebiztos szeméttárolóba rekedt egy bocs szerdára virradóan a tusnádfürdői vasútállomás közelében. A vadállatot a Hargita megyei csendőrök szabadították ki, miután az anyamedvét többször is elriasztották a helyszínről. </t>
-  </si>
-  <si>
-    <t>A Ro-Alert riasztórendszeren keresztül figyelmeztették szerdán reggel a hatóságok a sepsiszentgyörgyieket, hogy medve kószál a városban.</t>
-  </si>
-  <si>
-    <t>Rárontott és súlyosan megsebesített egy medve egy kőrispataki férfit a település határában pénteken délben. Az áldozat mentőbe került, de a kórházba szállítás közben életét vesztette.</t>
-  </si>
-  <si>
-    <t>Ha a környezetvédelmi minisztérium megkapja a Hubertus Vadásztársaság kérését, engedélyezik annak a veszélyes medvének a kilövését, amely pénteken halálosan megsebesített egy 35 éves családapát.</t>
-  </si>
-  <si>
-    <t>A rendőrségi vizsgálatok szerint a Kőrispatakon halálos sérüléseket szenvedett férfit nem váratlanul támadta meg egy bocsos medve, az áldozat maga ment a vadállat rejtekhelyéhez, amit meg is dobált. A rendőrség azt is közölte, hogy az áldozat alkoholos befolyásoltság alatt állt.</t>
-  </si>
-  <si>
-    <t>Még várni kell a kőrispataki halálos kimenetelű medvetámadás kapcsán kért kilövési engedély elbírálására. A Hargita Megyei Környezetvédelmi Ügynökség keddi szakvéleményezésében ugyanis türelmi időt kért a minisztériumtól, hogy megfigyelhessék a medve viselkedését.</t>
-  </si>
-  <si>
-    <t>Egyre több lesz a vadkár és az áldozat a háromszéki vadásztársaságok vezetői szerint, ha a hatóságok nem alkalmazzák a törvényt a medvék jelentette veszély elhárítására. Közölték, az elszaporodott ragadozók egyre szokatlanabbul viselkednek, a bukaresti illetékesek pedig gúnyt űznek a lakosok panaszaiból.</t>
-  </si>
-  <si>
-    <t>Két gyerek maradt árván a pénteki kőrispataki medvetámadást követően. Megsegítésükre széleskörű adománygyűjtést szerveztek, hogy megfelelő életkörülményeket lehessen biztosítani számukra.</t>
-  </si>
-  <si>
-    <t>Villanypásztort szereltek fel a Csíkszeredai Megyei Sürgősségi Kórház körül húzódó kerítésre kedden. Az eszköz az intézmény területére korábban több alkalommal behatoló medvéket hivatott távol tartani.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A napokban hoz döntést a kőrispataki medvetámadás miatt félárván maradt két kiskorú elhelyezéséről a Hargita Megyei Szociális és Gyermekvédelmi Igazgatóság. </t>
-  </si>
-  <si>
-    <t>Videót készített a kőrispataki medvéről, a barlangjáról és a pénteki medvetámadás helyszínéről a Hubertus Vadásztársaság igazgatója. A felvétel azonban hamar megszakad, ugyanis az állat a köztük lévő mély árkot megkerülve a vadászok felé rohan.</t>
-  </si>
-  <si>
-    <t>Teljesen értelmetlen médiaháborúba fordult a kőrispataki medvetámadás ügye. A tragikus esetet, mint minden medvés hírt Borboly Csaba adta közre a Facebook-oldalán.</t>
-  </si>
-  <si>
-    <t>Az egyre szaporodó medvekárok ihlették meg Csala Dénes adatbloggert, hogy elkészítse a Székelydata oldalán működő medveészlelőt. Egy olyan térkép készül, amelyből majd kiderül, hol van nagy esélyük az embereknek a nagyvaddal való találkozásra.</t>
+    <t>Célkeresztbe kerülhet a Szentábrahámon juhokat elpusztító medve</t>
+  </si>
+  <si>
+    <t>Fényképpel nyomatékosítják, csak óvatosan, mert medvék vannak</t>
+  </si>
+  <si>
+    <t>Korábbi élőhelyén engedték szabadon a tavaly elütött medvebocsot</t>
+  </si>
+  <si>
+    <t>Medve támadt egy madarasi juhászra</t>
+  </si>
+  <si>
+    <t>Szürkülettel jövő félelem: hárombocsos medvétől rettegnek a bárdosiak</t>
+  </si>
+  <si>
+    <t>Fáklyával igyekeznek elriasztani a medvét, amíg ki nem lőhetik</t>
+  </si>
+  <si>
+    <t>Továbbállt az agyagdombi medvecsalád</t>
+  </si>
+  <si>
+    <t>Kamerafelvételek, nyomok, barlangok – így számolják a vadakat</t>
+  </si>
+  <si>
+    <t>Gyerekek közeléből kergették el a medvéket</t>
   </si>
   <si>
     <t>Két medvetámadás történt tíz nap alatt Maros megyében. A Szászrégen melletti Idecsen egy pásztorfiút sebesítette meg a nagyvad, a Görgény völgyében pedig két erdészeti szakmunkásra támadott a medve: az egyiknek a combjába harapott bele a medve, majd el akarta vonszolni, a másikat a hátán karmolta meg.</t>
@@ -332,6 +224,33 @@
   </si>
   <si>
     <t>Idén már tizenöt olyan medvét azonosított be a Nagy-Küküllő Vadász- és Sporthorgász-egyesület, amelyek bejártak Székelyudvarhelyre, ezért óvatosságra intik a lakókat. Az Agyagdomb közelében lebocsozott nagyvad pedig még jó eséllyel az üregében van.</t>
+  </si>
+  <si>
+    <t>A Szentábrahámon juhokat elpusztító medve is kilövésre kerülhet rövidesen, ugyanis az illetékes vadásztársaság szóban már ígéretet kapott a környezetvédelmi tárcától a garázdálkodó egyed ártalmatlanításának jóváhagyására.</t>
+  </si>
+  <si>
+    <t>Marosvásárhely szomszédságában, a jeddi, koronkai és székelybósi erdőkben kaptak lencsevégre több medvét az elmúlt napokban.</t>
+  </si>
+  <si>
+    <t>Szabadon engedték azt a medvebocsot, amelyet tavaly ősszel a háromszéki Sepsibükszád közelében ütött el a vonat. A bocs súlyosan megsérült, ám a sürgős beavatkozásnak köszönhetően sikerült az életét megmenteni.</t>
+  </si>
+  <si>
+    <t>Legeltetés közben támadt egy 52 éves csíkmadarasi juhászra egy medve szerda délután egy esztena közelében.</t>
+  </si>
+  <si>
+    <t>Elkergették, de visszajött a Marosszentannához tartozó Bárdosra egy anyamedve három kis boccsal. A lakók félnek, a vadásztársaság sötétedéskor járőrözik, hogy védje az embereket.</t>
+  </si>
+  <si>
+    <t>A minisztérium illetékeseinek szóbeli ígéretei ellenére nem kapott még kilövési engedélyt a Szentábrahámon garázdálkodó medvére a Hubertus Vadásztársaság.</t>
+  </si>
+  <si>
+    <t>Üresen találták a vadászok nemrég a székelyudvarhelyi Agyagdombon lebocsozó anyamedve üregét. A nyomokból és a szemtanúk beszámolójából úgy ítélték meg, hogy jelenleg a Szejkefürdő határában lévő erdőben lehetnek a nagyvadak.</t>
+  </si>
+  <si>
+    <t>Vadszámlálást végeznek a medvék, hiúzok és vadmacskák esetében. Azt már most tudni, hogy az országban Maros megyében van a legtöbb hiúz, az általunk megkérdezett szakértő azt is elmondta, hogy miért.</t>
+  </si>
+  <si>
+    <t>Egy kétbocsos anyamedve miatt riasztották kedd délután a Szent Anna-tóhoz a csendőröket: a vadállatok egy csoport gyereket közelítettek meg. Két órával később egy másik medve is felbukkant Tusnádfürdő határában.</t>
   </si>
 </sst>
 </file>
@@ -706,7 +625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -746,31 +665,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43530</v>
+        <v>43561</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -778,31 +697,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43540</v>
+        <v>43562</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" t="s">
-        <v>71</v>
-      </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -810,31 +729,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43544</v>
+        <v>43572</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -842,31 +761,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43544</v>
+        <v>43587</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -874,31 +793,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43546</v>
+        <v>43587</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -906,31 +825,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43547</v>
+        <v>43599</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -938,31 +857,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43549</v>
+        <v>43600</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -970,31 +889,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43550</v>
+        <v>43600</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1002,31 +921,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43550</v>
+        <v>43600</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
         <v>63</v>
       </c>
-      <c r="I10" t="s">
-        <v>78</v>
-      </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1034,31 +953,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>43551</v>
+        <v>43609</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" t="s">
-        <v>65</v>
-      </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1066,31 +985,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>43551</v>
+        <v>43610</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1098,223 +1017,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>43551</v>
+        <v>43613</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43551</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>43551</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>43554</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>43561</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>43562</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>43572</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1343,18 +1070,6 @@
     <hyperlink ref="E12" r:id="rId22"/>
     <hyperlink ref="D13" r:id="rId23"/>
     <hyperlink ref="E13" r:id="rId24"/>
-    <hyperlink ref="D14" r:id="rId25"/>
-    <hyperlink ref="E14" r:id="rId26"/>
-    <hyperlink ref="D15" r:id="rId27"/>
-    <hyperlink ref="E15" r:id="rId28"/>
-    <hyperlink ref="D16" r:id="rId29"/>
-    <hyperlink ref="E16" r:id="rId30"/>
-    <hyperlink ref="D17" r:id="rId31"/>
-    <hyperlink ref="E17" r:id="rId32"/>
-    <hyperlink ref="D18" r:id="rId33"/>
-    <hyperlink ref="E18" r:id="rId34"/>
-    <hyperlink ref="D19" r:id="rId35"/>
-    <hyperlink ref="E19" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/szekelyhon_medve.xlsx
+++ b/data/szekelyhon_medve.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="113">
   <si>
     <t>date</t>
   </si>
@@ -43,15 +43,6 @@
     <t>content</t>
   </si>
   <si>
-    <t>2019. április 06.</t>
-  </si>
-  <si>
-    <t>2019. április 07.</t>
-  </si>
-  <si>
-    <t>2019. április 17.</t>
-  </si>
-  <si>
     <t>2019. május 02.</t>
   </si>
   <si>
@@ -64,27 +55,42 @@
     <t>2019. május 24.</t>
   </si>
   <si>
-    <t>2019. május 25.</t>
-  </si>
-  <si>
     <t>2019. május 28.</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/medvetamadasok-utan-helyszini-terepszemlet-tart-a-prefektus</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/halomra-olte-a-birkakat-a-medve</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/legalabb-tizenot-medve-jar-be-szekelyudvarhelyre</t>
+    <t>2019. május 30.</t>
+  </si>
+  <si>
+    <t>2019. június 07.</t>
+  </si>
+  <si>
+    <t>2019. június 09.</t>
+  </si>
+  <si>
+    <t>2019. június 12.</t>
+  </si>
+  <si>
+    <t>2019. június 28.</t>
+  </si>
+  <si>
+    <t>2019. június 30.</t>
+  </si>
+  <si>
+    <t>2019. július 01.</t>
+  </si>
+  <si>
+    <t>2019. július 02.</t>
+  </si>
+  <si>
+    <t>2019. július 03.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/fenykeppel-nyomatekositjak-csak-ovatosan-mert-medvek-vannak</t>
   </si>
   <si>
     <t>https://szekelyhon.ro/aktualis/celkeresztbe-kerulhet-a-szentabrahamon-juhokat-elpusztito-medve</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/fenykeppel-nyomatekositjak-csak-ovatosan-mert-medvek-vannak</t>
-  </si>
-  <si>
     <t>https://szekelyhon.ro/aktualis/korabbi-elohelyen-engedtek-szabadon-a-tavaly-elutott-medvebocsot</t>
   </si>
   <si>
@@ -100,27 +106,45 @@
     <t>https://szekelyhon.ro/aktualis/tovabballt-az-agyagdombi-medvecsalad</t>
   </si>
   <si>
+    <t>https://szekelyhon.ro/aktualis/gyerekek-kozelebol-kergettek-el-a-medveket-1</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/turistakra-tamadt-a-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medve-szentegyhaza-hataraban</t>
+  </si>
+  <si>
     <t>https://szekelyhon.ro/aktualis/kamerafelvetelek-nyomok-barlangok-n-igy-szamoljak-a-vadakat</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/gyerekek-kozelebol-kergettek-el-a-medveket-1</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medvek-pixabay.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medvekar-szentabraham-2k19_aprilis_05.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/06_julius/sm_medvecsapda-3-ba-3.jpg</t>
+    <t>https://szekelyhon.ro/aktualis/anyjuk-neveli-fel-a-felarvan-maradt-korispataki-testvarpart-az-apai-nagyszulok-nem-igy-szerettek-volna</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tulelte-a-gazolast-a-brasso-hataraban-elutott-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ahol-az-emberek-a-medveket-a-medvek-pedig-egymast-kergetik</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ha-medvevel-talalkozna-n-tanacsok-a-csendorsegtol</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/140-medve-kiloveset-hagyjak-jova-ennek-triplajat-szeretne-hargita-megye-tanacsanak-elnoke</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/hiaba-adnak-le-figyelmezteto-loveseket-a-medve-kozeleben-az-csak-felall-ket-labra-es-tovabbmegy</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ime-a-vitatema-megszamoltak-a-medveket</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medve1-kamera-koronka.jpg</t>
   </si>
   <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-9.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medve1-kamera-koronka.jpg</t>
-  </si>
-  <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-66.jpg</t>
   </si>
   <si>
@@ -136,10 +160,37 @@
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/08_majus/01/sm_budvari-medve-ba-5.jpg</t>
   </si>
   <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/08_majus/02/sm_sanyi-a-medve-elszallitasa-pnt-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/08_majus/02/sm_sanyi-a-medve-elszallitasa-pnt-6.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medve-szentegyhaza.jpg</t>
+  </si>
+  <si>
     <t>https://media.szekelyhon.ro/pictures/123rf/2019/sm_hiuz-123rf-1.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/08_majus/02/sm_sanyi-a-medve-elszallitasa-pnt-8.jpg</t>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/07_junius/sm_korispataki-csalad-ba-6.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/123rf/2018/sm_rendorseg-szirena-baleset-123rf.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-6.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-13.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2013/09_aprilis/sm_fegyver-vn-002.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-7.jpg</t>
   </si>
   <si>
     <t>aktualis</t>
@@ -157,45 +208,51 @@
     <t>123rf</t>
   </si>
   <si>
+    <t>['Marosszék', 'medve']</t>
+  </si>
+  <si>
+    <t>['medve', 'Udvarhelyszék']</t>
+  </si>
+  <si>
+    <t>['Háromszék']</t>
+  </si>
+  <si>
+    <t>['Csíkszék', 'medve']</t>
+  </si>
+  <si>
+    <t>['medve', 'Tusnádfürdő']</t>
+  </si>
+  <si>
+    <t>['Belföld', 'medve']</t>
+  </si>
+  <si>
+    <t>['medve', 'Szentegyháza']</t>
+  </si>
+  <si>
+    <t>['Hargita megye', 'Környezetvédelem', 'Maros megye', 'medve']</t>
+  </si>
+  <si>
+    <t>['Brassó', 'medve']</t>
+  </si>
+  <si>
+    <t>['Háromszék', 'medve']</t>
+  </si>
+  <si>
+    <t>['Hargita megye', 'medve']</t>
+  </si>
+  <si>
     <t>['Maros megye', 'medve']</t>
   </si>
   <si>
-    <t>['medve', 'Udvarhelyszék']</t>
-  </si>
-  <si>
-    <t>['medve', 'Székelyudvarhely']</t>
-  </si>
-  <si>
-    <t>['Marosszék', 'medve']</t>
-  </si>
-  <si>
-    <t>['Háromszék']</t>
-  </si>
-  <si>
-    <t>['Csíkszék', 'medve']</t>
-  </si>
-  <si>
-    <t>['Hargita megye', 'Környezetvédelem', 'Maros megye', 'medve']</t>
-  </si>
-  <si>
-    <t>['medve', 'Tusnádfürdő']</t>
-  </si>
-  <si>
-    <t>Medvetámadások után helyszíni terepszemlét tart a prefektus</t>
-  </si>
-  <si>
-    <t>Halomra ölte a birkákat a medve</t>
-  </si>
-  <si>
-    <t>Legalább tizenöt medve jár be Székelyudvarhelyre</t>
+    <t>['Hargita megye', 'Maros megye', 'medve']</t>
+  </si>
+  <si>
+    <t>Fényképpel nyomatékosítják, csak óvatosan, mert medvék vannak</t>
   </si>
   <si>
     <t>Célkeresztbe kerülhet a Szentábrahámon juhokat elpusztító medve</t>
   </si>
   <si>
-    <t>Fényképpel nyomatékosítják, csak óvatosan, mert medvék vannak</t>
-  </si>
-  <si>
     <t>Korábbi élőhelyén engedték szabadon a tavaly elütött medvebocsot</t>
   </si>
   <si>
@@ -211,27 +268,45 @@
     <t>Továbbállt az agyagdombi medvecsalád</t>
   </si>
   <si>
+    <t>Gyerekek közeléből kergették el a medvéket</t>
+  </si>
+  <si>
+    <t>Turistákra támadt a medve</t>
+  </si>
+  <si>
+    <t>Medve Szentegyháza határában</t>
+  </si>
+  <si>
     <t>Kamerafelvételek, nyomok, barlangok – így számolják a vadakat</t>
   </si>
   <si>
-    <t>Gyerekek közeléből kergették el a medvéket</t>
-  </si>
-  <si>
-    <t>Két medvetámadás történt tíz nap alatt Maros megyében. A Szászrégen melletti Idecsen egy pásztorfiút sebesítette meg a nagyvad, a Görgény völgyében pedig két erdészeti szakmunkásra támadott a medve: az egyiknek a combjába harapott bele a medve, majd el akarta vonszolni, a másikat a hátán karmolta meg.</t>
-  </si>
-  <si>
-    <t>Tizennégy juhot pusztított el, illetve sebesített meg egy medve vasárnapra virradóan Szentábrahámon. A nagyvad már korábban is garázdálkodott a településen, de az illetékes vadásztársaság akkor nem kapott kilövési engedélyt rá.</t>
-  </si>
-  <si>
-    <t>Idén már tizenöt olyan medvét azonosított be a Nagy-Küküllő Vadász- és Sporthorgász-egyesület, amelyek bejártak Székelyudvarhelyre, ezért óvatosságra intik a lakókat. Az Agyagdomb közelében lebocsozott nagyvad pedig még jó eséllyel az üregében van.</t>
+    <t>Anyjuk neveli fel a félárván maradt kőrispataki testvárpárt, az apai nagyszülők nem így szerették volna</t>
+  </si>
+  <si>
+    <t>Túlélte a gázolást a Brassó határában elütött medve</t>
+  </si>
+  <si>
+    <t>Ahol az emberek a medvéket, a medvék pedig egymást kergetik</t>
+  </si>
+  <si>
+    <t>Ha medvével találkozna – tanácsok a csendőrségtől</t>
+  </si>
+  <si>
+    <t>140 medve kilövését hagyják jóvá, Borboly szerint ennek triplájára lenne szükség</t>
+  </si>
+  <si>
+    <t>Hiába adnak le figyelmeztető lövéseket a medve közelében, az csak feláll két lábra és továbbmegy</t>
+  </si>
+  <si>
+    <t>Íme, a vitatéma: megszámolták a medvéket</t>
+  </si>
+  <si>
+    <t>Marosvásárhely szomszédságában, a jeddi, koronkai és székelybósi erdőkben kaptak lencsevégre több medvét az elmúlt napokban.</t>
   </si>
   <si>
     <t>A Szentábrahámon juhokat elpusztító medve is kilövésre kerülhet rövidesen, ugyanis az illetékes vadásztársaság szóban már ígéretet kapott a környezetvédelmi tárcától a garázdálkodó egyed ártalmatlanításának jóváhagyására.</t>
   </si>
   <si>
-    <t>Marosvásárhely szomszédságában, a jeddi, koronkai és székelybósi erdőkben kaptak lencsevégre több medvét az elmúlt napokban.</t>
-  </si>
-  <si>
     <t>Szabadon engedték azt a medvebocsot, amelyet tavaly ősszel a háromszéki Sepsibükszád közelében ütött el a vonat. A bocs súlyosan megsérült, ám a sürgős beavatkozásnak köszönhetően sikerült az életét megmenteni.</t>
   </si>
   <si>
@@ -247,10 +322,37 @@
     <t>Üresen találták a vadászok nemrég a székelyudvarhelyi Agyagdombon lebocsozó anyamedve üregét. A nyomokból és a szemtanúk beszámolójából úgy ítélték meg, hogy jelenleg a Szejkefürdő határában lévő erdőben lehetnek a nagyvadak.</t>
   </si>
   <si>
+    <t>Egy kétbocsos anyamedve miatt riasztották kedd délután a Szent Anna-tóhoz a csendőröket: a vadállatok egy csoport gyereket közelítettek meg. Két órával később egy másik medve is felbukkant Tusnádfürdő határában.</t>
+  </si>
+  <si>
+    <t>Két külföldi turistára támadt a medve szerdán a Fogarasi-havasokban – számol be az Agerpres hírügynökség.</t>
+  </si>
+  <si>
+    <t>Nem kis fennakadást okozott egy medve Szentegyháza közelében pénteken, a déli órákban, hiszen több turista és zarándok is megállt az úton, hogy lencsevégre kaphassa.</t>
+  </si>
+  <si>
     <t>Vadszámlálást végeznek a medvék, hiúzok és vadmacskák esetében. Azt már most tudni, hogy az országban Maros megyében van a legtöbb hiúz, az általunk megkérdezett szakértő azt is elmondta, hogy miért.</t>
   </si>
   <si>
-    <t>Egy kétbocsos anyamedve miatt riasztották kedd délután a Szent Anna-tóhoz a csendőröket: a vadállatok egy csoport gyereket közelítettek meg. Két órával később egy másik medve is felbukkant Tusnádfürdő határában.</t>
+    <t>Fájlalják a kőrispataki medvetámadás miatt félárván maradt testvérpár nagyszülei, hogy a gyerekfelügyeleti jogot nem nekik ítélte oda a gyámhatóság, hanem a lányok anyjának, aki a tragédiát megelőző években külön élt családjától.</t>
+  </si>
+  <si>
+    <t>Elgázolt az autó egy medvét az 1-es országúton, Brassó kijáratánál. A sérült medvét a zernyesti rezervátumba szállítják.</t>
+  </si>
+  <si>
+    <t>Az odalátogatóknak meglepetés és élmény, a tusnádfürdőieknek azonban megszokott, mindennapos tény, hogy a városban szinte nagyobb gyakorisággal tűnik fel egy-egy medve, mint más városokban egy kóbor eb. Szombat késő este a fürdővároson átautózva öt medvével is találkoztunk: három nagyobb példánnyal és két boccsal.</t>
+  </si>
+  <si>
+    <t>Egyre többször bukkan fel a barnamedve a Kovászna megyei településeken, utakon. Gyakran a csendőröket riasztják, hogy elzavarják a vadat.</t>
+  </si>
+  <si>
+    <t>Bukarestben tartott közmeghallgatást a környezetvédelmi miniszter július 2-án – az eddig ismert információk szerint a nagyvadak ügyében semmi nem változik: csupán évi 140 medve kilövésére adnak engedélyt, holott ennek triplájára lenne szükség.</t>
+  </si>
+  <si>
+    <t>Aggasztja a Maros megyei polgármestereket, hogy egyre gyakoribbá válnak a megyében a háztáji gazdaságokat érő medvetámadások, és egyre közelebb merészkednek a nagyvadak a lakott településekhez, ezért a prefektus közbenjárását kérik a medvepopuláció ritkításának lehetővé tétele érdekében.</t>
+  </si>
+  <si>
+    <t>Évről évre jelentést tesznek ugyan a védett vadak számáról, de a becslésekből származó hivatalos adatokat még maguk az érintettek is vitatják. A medvepopuláció méretéről annyira eltérően vélekednek, hogy volt, ahonnan két adatot továbbítottak erről a szaktárcának.</t>
   </si>
 </sst>
 </file>
@@ -625,7 +727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,31 +767,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43561</v>
+        <v>43587</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -697,31 +799,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43562</v>
+        <v>43587</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -729,31 +831,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43572</v>
+        <v>43599</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -761,31 +863,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43587</v>
+        <v>43600</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -793,31 +895,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43587</v>
+        <v>43600</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -825,31 +927,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43599</v>
+        <v>43600</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -857,31 +959,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43600</v>
+        <v>43609</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -889,31 +991,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43600</v>
+        <v>43613</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -921,31 +1023,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43600</v>
+        <v>43615</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -953,31 +1055,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>43609</v>
+        <v>43623</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -985,31 +1087,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>43610</v>
+        <v>43625</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1017,31 +1119,217 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>43613</v>
+        <v>43628</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43644</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43646</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" t="s">
-        <v>78</v>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43648</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43649</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1070,6 +1358,18 @@
     <hyperlink ref="E12" r:id="rId22"/>
     <hyperlink ref="D13" r:id="rId23"/>
     <hyperlink ref="E13" r:id="rId24"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="E14" r:id="rId26"/>
+    <hyperlink ref="D15" r:id="rId27"/>
+    <hyperlink ref="E15" r:id="rId28"/>
+    <hyperlink ref="D16" r:id="rId29"/>
+    <hyperlink ref="E16" r:id="rId30"/>
+    <hyperlink ref="D17" r:id="rId31"/>
+    <hyperlink ref="E17" r:id="rId32"/>
+    <hyperlink ref="D18" r:id="rId33"/>
+    <hyperlink ref="E18" r:id="rId34"/>
+    <hyperlink ref="D19" r:id="rId35"/>
+    <hyperlink ref="E19" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/szekelyhon_medve.xlsx
+++ b/data/szekelyhon_medve.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>date</t>
   </si>
@@ -43,313 +43,190 @@
     <t>content</t>
   </si>
   <si>
-    <t>2019. május 02.</t>
-  </si>
-  <si>
-    <t>2019. május 14.</t>
-  </si>
-  <si>
-    <t>2019. május 15.</t>
-  </si>
-  <si>
-    <t>2019. május 24.</t>
-  </si>
-  <si>
-    <t>2019. május 28.</t>
-  </si>
-  <si>
-    <t>2019. május 30.</t>
+    <t>2019. június 03.</t>
   </si>
   <si>
     <t>2019. június 07.</t>
   </si>
   <si>
-    <t>2019. június 09.</t>
-  </si>
-  <si>
     <t>2019. június 12.</t>
   </si>
   <si>
+    <t>2019. június 13.</t>
+  </si>
+  <si>
+    <t>2019. június 17.</t>
+  </si>
+  <si>
+    <t>2019. június 24.</t>
+  </si>
+  <si>
+    <t>2019. június 25.</t>
+  </si>
+  <si>
     <t>2019. június 28.</t>
   </si>
   <si>
-    <t>2019. június 30.</t>
-  </si>
-  <si>
-    <t>2019. július 01.</t>
-  </si>
-  <si>
-    <t>2019. július 02.</t>
-  </si>
-  <si>
-    <t>2019. július 03.</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/fenykeppel-nyomatekositjak-csak-ovatosan-mert-medvek-vannak</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/celkeresztbe-kerulhet-a-szentabrahamon-juhokat-elpusztito-medve</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/korabbi-elohelyen-engedtek-szabadon-a-tavaly-elutott-medvebocsot</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/medve-tamadt-egy-madarasi-juhaszra</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/szurkulettel-jovo-felelem-harombocsos-medvetol-rettegnek-a-bardosiak</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/faklyaval-igyekeznek-elriasztani-a-medvet-amig-ki-nem-lohetik</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/tovabballt-az-agyagdombi-medvecsalad</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/gyerekek-kozelebol-kergettek-el-a-medveket-1</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/turistakra-tamadt-a-medve</t>
+    <t>https://szekelyhon.ro/aktualis/medvenek-oltozve-ijesztgette-valaki-az-autosokat-gyergyoszentmiklos-hataraban</t>
   </si>
   <si>
     <t>https://szekelyhon.ro/aktualis/medve-szentegyhaza-hataraban</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/kamerafelvetelek-nyomok-barlangok-n-igy-szamoljak-a-vadakat</t>
-  </si>
-  <si>
     <t>https://szekelyhon.ro/aktualis/anyjuk-neveli-fel-a-felarvan-maradt-korispataki-testvarpart-az-apai-nagyszulok-nem-igy-szerettek-volna</t>
   </si>
   <si>
+    <t>https://szekelyhon.ro/aktualis/amikor-farkas-provokalja-a-medveket</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvebocsot-kinoztak-eljaras-indul-ellenuk</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/felujitott-turistautvonal-kutyakkal-es-medvekkel</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvecsalad-bukkant-fel-csikszentimre-hataraban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/semmi-kulonos-csak-a-szekely-eteti-a-medvet-az-uton</t>
+  </si>
+  <si>
     <t>https://szekelyhon.ro/aktualis/tulelte-a-gazolast-a-brasso-hataraban-elutott-medve</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/ahol-az-emberek-a-medveket-a-medvek-pedig-egymast-kergetik</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/ha-medvevel-talalkozna-n-tanacsok-a-csendorsegtol</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/140-medve-kiloveset-hagyjak-jova-ennek-triplajat-szeretne-hargita-megye-tanacsanak-elnoke</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/hiaba-adnak-le-figyelmezteto-loveseket-a-medve-kozeleben-az-csak-felall-ket-labra-es-tovabbmegy</t>
-  </si>
-  <si>
     <t>https://szekelyhon.ro/aktualis/ime-a-vitatema-megszamoltak-a-medveket</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medve1-kamera-koronka.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-9.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-66.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/09_aprilis/sm_mentoauto-illusztracionak-pnt.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/07_junius/02/sm_medveles-bogoz-ba-29.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2016/10_marcius/sm_faklyas-felvo-marc15-ab-19.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/08_majus/01/sm_budvari-medve-ba-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/08_majus/02/sm_sanyi-a-medve-elszallitasa-pnt-8.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/08_majus/02/sm_sanyi-a-medve-elszallitasa-pnt-6.jpg</t>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/03_oktober/sm_kozlekedesrendeszet-orszagut-pnt-2.jpg</t>
   </si>
   <si>
     <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medve-szentegyhaza.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/123rf/2019/sm_hiuz-123rf-1.jpg</t>
-  </si>
-  <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/07_junius/sm_korispataki-csalad-ba-6.jpg</t>
   </si>
   <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_farkasmedvetalalkozas-01.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-80.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/haromszek/aktualis/2019/sm_turistautvonal-hegyimentok.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_medvek-szentimren.png</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/09_kiemelesek/sm_medve-etetes.jpg</t>
+  </si>
+  <si>
     <t>https://media.szekelyhon.ro/pictures/123rf/2018/sm_rendorseg-szirena-baleset-123rf.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-6.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-13.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2013/09_aprilis/sm_fegyver-vn-002.jpg</t>
-  </si>
-  <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-7.jpg</t>
   </si>
   <si>
     <t>aktualis</t>
   </si>
   <si>
+    <t>csik</t>
+  </si>
+  <si>
     <t>agerpres</t>
   </si>
   <si>
     <t>udvarhely</t>
   </si>
   <si>
-    <t>csik</t>
+    <t>haromszek</t>
   </si>
   <si>
     <t>123rf</t>
   </si>
   <si>
-    <t>['Marosszék', 'medve']</t>
+    <t>['Gyergyószentmiklós']</t>
+  </si>
+  <si>
+    <t>['medve', 'Szentegyháza']</t>
   </si>
   <si>
     <t>['medve', 'Udvarhelyszék']</t>
   </si>
   <si>
+    <t>['Háromszék', 'medve']</t>
+  </si>
+  <si>
+    <t>['Brassó megye', 'medve']</t>
+  </si>
+  <si>
     <t>['Háromszék']</t>
   </si>
   <si>
-    <t>['Csíkszék', 'medve']</t>
-  </si>
-  <si>
-    <t>['medve', 'Tusnádfürdő']</t>
-  </si>
-  <si>
-    <t>['Belföld', 'medve']</t>
-  </si>
-  <si>
-    <t>['medve', 'Szentegyháza']</t>
-  </si>
-  <si>
-    <t>['Hargita megye', 'Környezetvédelem', 'Maros megye', 'medve']</t>
+    <t>['Csíkszentimre', 'medve']</t>
   </si>
   <si>
     <t>['Brassó', 'medve']</t>
   </si>
   <si>
-    <t>['Háromszék', 'medve']</t>
-  </si>
-  <si>
-    <t>['Hargita megye', 'medve']</t>
-  </si>
-  <si>
-    <t>['Maros megye', 'medve']</t>
-  </si>
-  <si>
     <t>['Hargita megye', 'Maros megye', 'medve']</t>
   </si>
   <si>
-    <t>Fényképpel nyomatékosítják, csak óvatosan, mert medvék vannak</t>
-  </si>
-  <si>
-    <t>Célkeresztbe kerülhet a Szentábrahámon juhokat elpusztító medve</t>
-  </si>
-  <si>
-    <t>Korábbi élőhelyén engedték szabadon a tavaly elütött medvebocsot</t>
-  </si>
-  <si>
-    <t>Medve támadt egy madarasi juhászra</t>
-  </si>
-  <si>
-    <t>Szürkülettel jövő félelem: hárombocsos medvétől rettegnek a bárdosiak</t>
-  </si>
-  <si>
-    <t>Fáklyával igyekeznek elriasztani a medvét, amíg ki nem lőhetik</t>
-  </si>
-  <si>
-    <t>Továbbállt az agyagdombi medvecsalád</t>
-  </si>
-  <si>
-    <t>Gyerekek közeléből kergették el a medvéket</t>
-  </si>
-  <si>
-    <t>Turistákra támadt a medve</t>
+    <t>Medvének öltözve ijesztgette valaki az autósokat Gyergyószentmiklós határában</t>
   </si>
   <si>
     <t>Medve Szentegyháza határában</t>
   </si>
   <si>
-    <t>Kamerafelvételek, nyomok, barlangok – így számolják a vadakat</t>
-  </si>
-  <si>
     <t>Anyjuk neveli fel a félárván maradt kőrispataki testvárpárt, az apai nagyszülők nem így szerették volna</t>
   </si>
   <si>
+    <t>Amikor farkas provokálja a medvéket</t>
+  </si>
+  <si>
+    <t>Medvebocsot kínoztak, eljárás indul ellenük</t>
+  </si>
+  <si>
+    <t>Felújított turistaútvonal kutyákkal és medvékkel</t>
+  </si>
+  <si>
+    <t>Medvecsalád bukkant fel Csíkszentimre határában</t>
+  </si>
+  <si>
+    <t>Semmi különös, csak a székely eteti a medvét az úton</t>
+  </si>
+  <si>
     <t>Túlélte a gázolást a Brassó határában elütött medve</t>
   </si>
   <si>
-    <t>Ahol az emberek a medvéket, a medvék pedig egymást kergetik</t>
-  </si>
-  <si>
-    <t>Ha medvével találkozna – tanácsok a csendőrségtől</t>
-  </si>
-  <si>
-    <t>140 medve kilövését hagyják jóvá, Borboly szerint ennek triplájára lenne szükség</t>
-  </si>
-  <si>
-    <t>Hiába adnak le figyelmeztető lövéseket a medve közelében, az csak feláll két lábra és továbbmegy</t>
-  </si>
-  <si>
     <t>Íme, a vitatéma: megszámolták a medvéket</t>
   </si>
   <si>
-    <t>Marosvásárhely szomszédságában, a jeddi, koronkai és székelybósi erdőkben kaptak lencsevégre több medvét az elmúlt napokban.</t>
-  </si>
-  <si>
-    <t>A Szentábrahámon juhokat elpusztító medve is kilövésre kerülhet rövidesen, ugyanis az illetékes vadásztársaság szóban már ígéretet kapott a környezetvédelmi tárcától a garázdálkodó egyed ártalmatlanításának jóváhagyására.</t>
-  </si>
-  <si>
-    <t>Szabadon engedték azt a medvebocsot, amelyet tavaly ősszel a háromszéki Sepsibükszád közelében ütött el a vonat. A bocs súlyosan megsérült, ám a sürgős beavatkozásnak köszönhetően sikerült az életét megmenteni.</t>
-  </si>
-  <si>
-    <t>Legeltetés közben támadt egy 52 éves csíkmadarasi juhászra egy medve szerda délután egy esztena közelében.</t>
-  </si>
-  <si>
-    <t>Elkergették, de visszajött a Marosszentannához tartozó Bárdosra egy anyamedve három kis boccsal. A lakók félnek, a vadásztársaság sötétedéskor járőrözik, hogy védje az embereket.</t>
-  </si>
-  <si>
-    <t>A minisztérium illetékeseinek szóbeli ígéretei ellenére nem kapott még kilövési engedélyt a Szentábrahámon garázdálkodó medvére a Hubertus Vadásztársaság.</t>
-  </si>
-  <si>
-    <t>Üresen találták a vadászok nemrég a székelyudvarhelyi Agyagdombon lebocsozó anyamedve üregét. A nyomokból és a szemtanúk beszámolójából úgy ítélték meg, hogy jelenleg a Szejkefürdő határában lévő erdőben lehetnek a nagyvadak.</t>
-  </si>
-  <si>
-    <t>Egy kétbocsos anyamedve miatt riasztották kedd délután a Szent Anna-tóhoz a csendőröket: a vadállatok egy csoport gyereket közelítettek meg. Két órával később egy másik medve is felbukkant Tusnádfürdő határában.</t>
-  </si>
-  <si>
-    <t>Két külföldi turistára támadt a medve szerdán a Fogarasi-havasokban – számol be az Agerpres hírügynökség.</t>
+    <t xml:space="preserve">Szemtanúk szerint egy zavart elméjű ember lehetett, aki medvejelmezt öltve magára autósokat ijesztgetett Gyergyószentmiklós határában szombaton. Az esetet jelentették a helyi polgárőrségen. </t>
   </si>
   <si>
     <t>Nem kis fennakadást okozott egy medve Szentegyháza közelében pénteken, a déli órákban, hiszen több turista és zarándok is megállt az úton, hogy lencsevégre kaphassa.</t>
   </si>
   <si>
-    <t>Vadszámlálást végeznek a medvék, hiúzok és vadmacskák esetében. Azt már most tudni, hogy az országban Maros megyében van a legtöbb hiúz, az általunk megkérdezett szakértő azt is elmondta, hogy miért.</t>
-  </si>
-  <si>
     <t>Fájlalják a kőrispataki medvetámadás miatt félárván maradt testvérpár nagyszülei, hogy a gyerekfelügyeleti jogot nem nekik ítélte oda a gyámhatóság, hanem a lányok anyjának, aki a tragédiát megelőző években külön élt családjától.</t>
   </si>
   <si>
+    <t>Rendhagyó videófelvételt küldött szerkesztőségünknek egy olvasónk: a Sepsibükszád melletti medvelesnél múlt pénteken készült képsorokon az látható, amint egy fiatal farkas két táplálkozó nagyvadat „cukkol”.</t>
+  </si>
+  <si>
+    <t>Nagy felháborodás övezi azt a videót, amin több férfi egy kétségbeesetten üvöltő medvebocsot kínoz a Brassó megyei Ágostonfalva határában. A Facebookon és a Youtube videomegosztó portálon terjengő felvételen látszik, egy férfi egy üvöltöző medvebocsot tart a kezében. Az állatot egy másik férfi bottal ingereli.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Befejezte a piros ponttal jelzett, Sepsiszentgyörgy–Előpatak–Sugásfürdő–Sepsiszentgyörgy  turistaútvonal felújítását a Kovászna Megye Hegyimentő Közszolgálat. </t>
+  </si>
+  <si>
+    <t>Egy hárombocsos anyamedve látogatja napok óta a csíkszentimrei Henter-kúriához közeli falurészt. A helyiek esténként biztonságos távolból, távcsövekkel figyelik a vadak mozgását, noha előfordult, hogy a medvecsalád egészen a 133-as községi útig, az iskola mellé is „elmerészkedett”.</t>
+  </si>
+  <si>
+    <t>Nagy népszerűségnek örvend az a Facebookon közzétett videó, amin egy idős férfi etet egy békésnek tűnő medvét az úton, a háromszéki Ozsdola közelében.</t>
+  </si>
+  <si>
     <t>Elgázolt az autó egy medvét az 1-es országúton, Brassó kijáratánál. A sérült medvét a zernyesti rezervátumba szállítják.</t>
-  </si>
-  <si>
-    <t>Az odalátogatóknak meglepetés és élmény, a tusnádfürdőieknek azonban megszokott, mindennapos tény, hogy a városban szinte nagyobb gyakorisággal tűnik fel egy-egy medve, mint más városokban egy kóbor eb. Szombat késő este a fürdővároson átautózva öt medvével is találkoztunk: három nagyobb példánnyal és két boccsal.</t>
-  </si>
-  <si>
-    <t>Egyre többször bukkan fel a barnamedve a Kovászna megyei településeken, utakon. Gyakran a csendőröket riasztják, hogy elzavarják a vadat.</t>
-  </si>
-  <si>
-    <t>Bukarestben tartott közmeghallgatást a környezetvédelmi miniszter július 2-án – az eddig ismert információk szerint a nagyvadak ügyében semmi nem változik: csupán évi 140 medve kilövésére adnak engedélyt, holott ennek triplájára lenne szükség.</t>
-  </si>
-  <si>
-    <t>Aggasztja a Maros megyei polgármestereket, hogy egyre gyakoribbá válnak a megyében a háztáji gazdaságokat érő medvetámadások, és egyre közelebb merészkednek a nagyvadak a lakott településekhez, ezért a prefektus közbenjárását kérik a medvepopuláció ritkításának lehetővé tétele érdekében.</t>
   </si>
   <si>
     <t>Évről évre jelentést tesznek ugyan a védett vadak számáról, de a becslésekből származó hivatalos adatokat még maguk az érintettek is vitatják. A medvepopuláció méretéről annyira eltérően vélekednek, hogy volt, ahonnan két adatot továbbítottak erről a szaktárcának.</t>
@@ -727,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -767,31 +644,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43587</v>
+        <v>43619</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -799,31 +676,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43587</v>
+        <v>43623</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -831,31 +708,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43599</v>
+        <v>43628</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -863,31 +740,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43600</v>
+        <v>43629</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -895,31 +772,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43600</v>
+        <v>43633</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -927,31 +804,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43600</v>
+        <v>43640</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -959,31 +836,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43609</v>
+        <v>43641</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -991,31 +868,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43613</v>
+        <v>43644</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
         <v>59</v>
       </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
-        <v>84</v>
-      </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1023,313 +900,57 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43615</v>
+        <v>43644</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>43623</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43625</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" t="s">
         <v>71</v>
-      </c>
-      <c r="I12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>43628</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43644</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>43646</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>43648</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>43649</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1354,22 +975,6 @@
     <hyperlink ref="E10" r:id="rId18"/>
     <hyperlink ref="D11" r:id="rId19"/>
     <hyperlink ref="E11" r:id="rId20"/>
-    <hyperlink ref="D12" r:id="rId21"/>
-    <hyperlink ref="E12" r:id="rId22"/>
-    <hyperlink ref="D13" r:id="rId23"/>
-    <hyperlink ref="E13" r:id="rId24"/>
-    <hyperlink ref="D14" r:id="rId25"/>
-    <hyperlink ref="E14" r:id="rId26"/>
-    <hyperlink ref="D15" r:id="rId27"/>
-    <hyperlink ref="E15" r:id="rId28"/>
-    <hyperlink ref="D16" r:id="rId29"/>
-    <hyperlink ref="E16" r:id="rId30"/>
-    <hyperlink ref="D17" r:id="rId31"/>
-    <hyperlink ref="E17" r:id="rId32"/>
-    <hyperlink ref="D18" r:id="rId33"/>
-    <hyperlink ref="E18" r:id="rId34"/>
-    <hyperlink ref="D19" r:id="rId35"/>
-    <hyperlink ref="E19" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/szekelyhon_medve.xlsx
+++ b/data/szekelyhon_medve.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>date</t>
   </si>
@@ -43,112 +43,127 @@
     <t>content</t>
   </si>
   <si>
-    <t>2019. június 03.</t>
-  </si>
-  <si>
-    <t>2019. június 07.</t>
-  </si>
-  <si>
-    <t>2019. június 12.</t>
-  </si>
-  <si>
-    <t>2019. június 13.</t>
-  </si>
-  <si>
-    <t>2019. június 17.</t>
-  </si>
-  <si>
-    <t>2019. június 24.</t>
-  </si>
-  <si>
-    <t>2019. június 25.</t>
-  </si>
-  <si>
-    <t>2019. június 28.</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/medvenek-oltozve-ijesztgette-valaki-az-autosokat-gyergyoszentmiklos-hataraban</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/medve-szentegyhaza-hataraban</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/anyjuk-neveli-fel-a-felarvan-maradt-korispataki-testvarpart-az-apai-nagyszulok-nem-igy-szerettek-volna</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/amikor-farkas-provokalja-a-medveket</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/medvebocsot-kinoztak-eljaras-indul-ellenuk</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/felujitott-turistautvonal-kutyakkal-es-medvekkel</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/medvecsalad-bukkant-fel-csikszentimre-hataraban</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/semmi-kulonos-csak-a-szekely-eteti-a-medvet-az-uton</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/tulelte-a-gazolast-a-brasso-hataraban-elutott-medve</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/ime-a-vitatema-megszamoltak-a-medveket</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/03_oktober/sm_kozlekedesrendeszet-orszagut-pnt-2.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_medve-szentegyhaza.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/07_junius/sm_korispataki-csalad-ba-6.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/08_kiemelesek/sm_farkasmedvetalalkozas-01.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-80.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/haromszek/aktualis/2019/sm_turistautvonal-hegyimentok.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_medvek-szentimren.png</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/09_kiemelesek/sm_medve-etetes.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/123rf/2018/sm_rendorseg-szirena-baleset-123rf.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-7.jpg</t>
+    <t>2019. szeptember 11.</t>
+  </si>
+  <si>
+    <t>2019. szeptember 12.</t>
+  </si>
+  <si>
+    <t>2019. szeptember 13.</t>
+  </si>
+  <si>
+    <t>2019. szeptember 16.</t>
+  </si>
+  <si>
+    <t>2019. szeptember 17.</t>
+  </si>
+  <si>
+    <t>2019. szeptember 18.</t>
+  </si>
+  <si>
+    <t>2019. szeptember 22.</t>
+  </si>
+  <si>
+    <t>2019. szeptember 26.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/videora-vettek-ahogy-elhurcolja-a-megolt-tehenet-a-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/mar-a-haromszeki-prefektusnak-is-nagyon-elege-van-a-medvekbol</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kutba-esett-egy-medve-bibarfalvan</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/szekelyudvarhely-utcain-portyazott-a-bocsos-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/letorte-a-csur-ajtajat-is-a-medve-a-juhokert</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/medve-tamadt-egy-lengyel-turistara</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/amikor-negy-tehen-es-harom-medve-nez-farkasszemet-a-zsenge-cukorrepaert</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harombocsos-anyamedve-kozelitette-meg-a-csiksomlyoi-altalanos-iskolat-es-ovodat</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/halalra-gazoltak-egy-medvet-majd-az-uttesten-hagytak-a-tetemet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ro-alert-csiksomlyon-jar-a-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/szetvertek-a-medvek-a-szalloda-egy-reszet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/emberre-tamadt-a-medve-a-haromszeki-nagyborosnyon</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/villanypasztor-allja-a-kukazo-medvek-utjat</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/09_kiemelesek/sm_medve_video_fokep_2k19_szept.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2017/04_szeptember/sm_medveles01_scs-3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/haromszek/aktualis/2018/sm_borju-mentes-kutbol-1.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-6.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/04_szeptember/sm_almas_medvekar_hs02.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-84.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/sm_medveriasztas-csiksomlyon-pnt-4.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/05_augusztus/sm_elgazolt_medvebocs_ga-9.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/04_kiemelesek/sm_csiksomlyo-madartavlat2.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/09_kiemelesek/sm_medve_balvanyos_kamera.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/kronika_2016/et/sm_medve-vn-003_or.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/sm_villanypasztor-medvebiztoskuka-pnt-6.jpg</t>
   </si>
   <si>
     <t>aktualis</t>
   </si>
   <si>
+    <t>vilag</t>
+  </si>
+  <si>
+    <t>agerpres</t>
+  </si>
+  <si>
     <t>csik</t>
   </si>
   <si>
-    <t>agerpres</t>
+    <t>haromszek</t>
   </si>
   <si>
     <t>udvarhely</t>
   </si>
   <si>
-    <t>haromszek</t>
-  </si>
-  <si>
-    <t>123rf</t>
-  </si>
-  <si>
-    <t>['Gyergyószentmiklós']</t>
-  </si>
-  <si>
-    <t>['medve', 'Szentegyháza']</t>
+    <t>kronika_2016</t>
   </si>
   <si>
     <t>['medve', 'Udvarhelyszék']</t>
@@ -157,79 +172,100 @@
     <t>['Háromszék', 'medve']</t>
   </si>
   <si>
-    <t>['Brassó megye', 'medve']</t>
-  </si>
-  <si>
-    <t>['Háromszék']</t>
-  </si>
-  <si>
-    <t>['Csíkszentimre', 'medve']</t>
-  </si>
-  <si>
-    <t>['Brassó', 'medve']</t>
-  </si>
-  <si>
-    <t>['Hargita megye', 'Maros megye', 'medve']</t>
-  </si>
-  <si>
-    <t>Medvének öltözve ijesztgette valaki az autósokat Gyergyószentmiklós határában</t>
-  </si>
-  <si>
-    <t>Medve Szentegyháza határában</t>
-  </si>
-  <si>
-    <t>Anyjuk neveli fel a félárván maradt kőrispataki testvárpárt, az apai nagyszülők nem így szerették volna</t>
-  </si>
-  <si>
-    <t>Amikor farkas provokálja a medvéket</t>
-  </si>
-  <si>
-    <t>Medvebocsot kínoztak, eljárás indul ellenük</t>
-  </si>
-  <si>
-    <t>Felújított turistaútvonal kutyákkal és medvékkel</t>
-  </si>
-  <si>
-    <t>Medvecsalád bukkant fel Csíkszentimre határában</t>
-  </si>
-  <si>
-    <t>Semmi különös, csak a székely eteti a medvét az úton</t>
-  </si>
-  <si>
-    <t>Túlélte a gázolást a Brassó határában elütött medve</t>
-  </si>
-  <si>
-    <t>Íme, a vitatéma: megszámolták a medvéket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szemtanúk szerint egy zavart elméjű ember lehetett, aki medvejelmezt öltve magára autósokat ijesztgetett Gyergyószentmiklós határában szombaton. Az esetet jelentették a helyi polgárőrségen. </t>
-  </si>
-  <si>
-    <t>Nem kis fennakadást okozott egy medve Szentegyháza közelében pénteken, a déli órákban, hiszen több turista és zarándok is megállt az úton, hogy lencsevégre kaphassa.</t>
-  </si>
-  <si>
-    <t>Fájlalják a kőrispataki medvetámadás miatt félárván maradt testvérpár nagyszülei, hogy a gyerekfelügyeleti jogot nem nekik ítélte oda a gyámhatóság, hanem a lányok anyjának, aki a tragédiát megelőző években külön élt családjától.</t>
-  </si>
-  <si>
-    <t>Rendhagyó videófelvételt küldött szerkesztőségünknek egy olvasónk: a Sepsibükszád melletti medvelesnél múlt pénteken készült képsorokon az látható, amint egy fiatal farkas két táplálkozó nagyvadat „cukkol”.</t>
-  </si>
-  <si>
-    <t>Nagy felháborodás övezi azt a videót, amin több férfi egy kétségbeesetten üvöltő medvebocsot kínoz a Brassó megyei Ágostonfalva határában. A Facebookon és a Youtube videomegosztó portálon terjengő felvételen látszik, egy férfi egy üvöltöző medvebocsot tart a kezében. Az állatot egy másik férfi bottal ingereli.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Befejezte a piros ponttal jelzett, Sepsiszentgyörgy–Előpatak–Sugásfürdő–Sepsiszentgyörgy  turistaútvonal felújítását a Kovászna Megye Hegyimentő Közszolgálat. </t>
-  </si>
-  <si>
-    <t>Egy hárombocsos anyamedve látogatja napok óta a csíkszentimrei Henter-kúriához közeli falurészt. A helyiek esténként biztonságos távolból, távcsövekkel figyelik a vadak mozgását, noha előfordult, hogy a medvecsalád egészen a 133-as községi útig, az iskola mellé is „elmerészkedett”.</t>
-  </si>
-  <si>
-    <t>Nagy népszerűségnek örvend az a Facebookon közzétett videó, amin egy idős férfi etet egy békésnek tűnő medvét az úton, a háromszéki Ozsdola közelében.</t>
-  </si>
-  <si>
-    <t>Elgázolt az autó egy medvét az 1-es országúton, Brassó kijáratánál. A sérült medvét a zernyesti rezervátumba szállítják.</t>
-  </si>
-  <si>
-    <t>Évről évre jelentést tesznek ugyan a védett vadak számáról, de a becslésekből származó hivatalos adatokat még maguk az érintettek is vitatják. A medvepopuláció méretéről annyira eltérően vélekednek, hogy volt, ahonnan két adatot továbbítottak erről a szaktárcának.</t>
+    <t>['medve', 'Székelyudvarhely']</t>
+  </si>
+  <si>
+    <t>['Homoródalmás', 'medve']</t>
+  </si>
+  <si>
+    <t>['Belföld', 'medve']</t>
+  </si>
+  <si>
+    <t>['Csíksomlyó', 'medve']</t>
+  </si>
+  <si>
+    <t>['Maros megye', 'medve']</t>
+  </si>
+  <si>
+    <t>['medve', 'Tusnádfürdő']</t>
+  </si>
+  <si>
+    <t>Videóra vették, ahogy elhurcolja a megölt tehenet a medve</t>
+  </si>
+  <si>
+    <t>Már a háromszéki prefektusnak is nagyon elege van a medvékből</t>
+  </si>
+  <si>
+    <t>Kútba esett egy medve Bibarcfalván</t>
+  </si>
+  <si>
+    <t>Székelyudvarhely utcáin portyázott a bocsos medve</t>
+  </si>
+  <si>
+    <t>Letörte a csűr ajtaját is a medve a juhokért</t>
+  </si>
+  <si>
+    <t>Medve támadt egy lengyel turistára</t>
+  </si>
+  <si>
+    <t>Amikor négy tehén és három medve néz farkasszemet a zsenge cukorrépáért</t>
+  </si>
+  <si>
+    <t>Hárombocsos anyamedve közelítette meg a csíksomlyói általános iskolát és óvodát</t>
+  </si>
+  <si>
+    <t>Halálra gázoltak egy medvét, majd az úttesten hagyták a tetemet</t>
+  </si>
+  <si>
+    <t>RO-Alert: Csíksomlyón jár a medve</t>
+  </si>
+  <si>
+    <t>Szétverték a medvék a szálloda egy részét</t>
+  </si>
+  <si>
+    <t>Emberre támadt a medve a háromszéki Nagyborosnyón</t>
+  </si>
+  <si>
+    <t>Villanypásztor állja a kukázó medvék útját</t>
+  </si>
+  <si>
+    <t>Három nap leforgása alatt három tehenet öltek meg a medvék Pálpataka határában. A szétszórt tanyai település lakóinak többsége állattartásból él, de a történtek miatt legtöbbjük már nem meri kihajtani a legelőre állatait, félnek az újabb medvetámadásoktól.</t>
+  </si>
+  <si>
+    <t>Napról napra nagyobb gondot jelentenek a medvék Kovászna megyében, a környezetvédelmi minisztérium elsősorban ezt kellene orvosolja. Ez a kérdés a „napelemprogramnál” is fontosabb – nyilatkozta csütörtökön Sebastian Cucu prefektus.</t>
+  </si>
+  <si>
+    <t>Beleesett egy medve a kútba az erdővidéki Bibarcfalván – tájékoztatta portálunkat Kelemen Gellért, az illetékes vadászegyesület munkatársa.</t>
+  </si>
+  <si>
+    <t>Videó is készült arról a bocsos anyamedvéről, amely szombaton éjjel a Szabók utcai felbukkanásától a terelőútig juthatott, majdnem egy kilométeres távot megtéve Székelyudvarhely utcáin. Szakember adott tanácsot, mi a teendő medvével való találkozás esetén.</t>
+  </si>
+  <si>
+    <t>Csűrbe zárta estére a megmaradt jószágait a homoródalmási Mihály Csaba, miután a kertben tartott juhok közül többet is megölt a medve. A nagyvad visszatért, és mint láthatjuk, a csűrkapu sem volt számára akadály.</t>
+  </si>
+  <si>
+    <t>Lengyel turistára támadt egy medve a Radnai-havasokban levő Şetref-hágó (818 méteres magasság) egyik kijelölt turistaösvényén. A férfinak sikerült bemenekülnie egy elhagyatott menedékházba, így nem esett baja.</t>
+  </si>
+  <si>
+    <t>Azt, hogy leggyakrabban miként ér véget a medve és a tehén találkozása, mindenki ismeri a hírekből. Az alábbi, rendhagyó fordulatok által tarkított képtörténet éppen azért érdekes, mert ezúttal nem a megszokott forgatókönyv szerint alakult a cselekmény.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egy hárombocsos anyamedve közelítette meg a Xantus János Általános Iskola csíksomlyói épületét szerda délelőtt, a vadállatokra az udvaron játszó gyerekek lettek figyelmesek. A helyszínre a csendőrség és a tűzoltóság több egysége is kivonult, a medvecsalád azonban időközben továbbállt. Az oktatási intézményn&amp;						</t>
+  </si>
+  <si>
+    <t>Elütöttek és az úton hagytak egy medvét kedden késő este Maros megyében, a Körtvélyfája és Petele közötti gyorsforgalmi úton, Szászrégen közelében. A rendőrség vizsgálódik, a tetem további sorsáról a vadásztársaság dönt.</t>
+  </si>
+  <si>
+    <t>A RO-Alert rendszeren keresztül figyelmeztette a csíkszeredaiakat egy medve jelenlétére Csíksomlyón a Hargita Megyei Vészhelyzeti Felügyelőség.</t>
+  </si>
+  <si>
+    <t>Jelentős kárt okoztak a héten egy bálványosi szállodában a garázdálkodó medvék. A vadak éjszaka betörtek az épületbe, felforgatták a konyhát, összetörtek egy mosodát és a vendéglői bejáratot. A térfigyelő kamerák rögzítették, amint a medvék ki-be járnak az ajtókon.</t>
+  </si>
+  <si>
+    <t>Emberre támadt a medve Nagyborosnyón csütörtökön. Az áldozat súlyos sérülésekkel került kórházba, de nincs életveszélyben – mondta el portálunknak Kanyó Antal, Nagyborosnyó alpolgármestere.</t>
+  </si>
+  <si>
+    <t>Mivel önmagukban nem váltak be, tovább növelték a medvebiztos szeméttárolók hatékonyságát Tusnádfürdőn: villanypásztorral vették körbe ezeket két helyszínen is. A területileg illetékes vadásztársaságnak vannak fenntartásai, az önkormányzat azonban a lehetséges kockázatokra is gondolt.</t>
   </si>
 </sst>
 </file>
@@ -604,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43619</v>
+        <v>43719</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -653,22 +689,22 @@
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -676,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43623</v>
+        <v>43720</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -685,22 +721,22 @@
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -708,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43628</v>
+        <v>43721</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -717,22 +753,22 @@
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -740,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43629</v>
+        <v>43724</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -749,22 +785,22 @@
         <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -772,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43633</v>
+        <v>43725</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -781,22 +817,22 @@
         <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -804,31 +840,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43640</v>
+        <v>43725</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -836,31 +872,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43641</v>
+        <v>43726</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -868,31 +904,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43644</v>
+        <v>43726</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -900,57 +936,159 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43644</v>
+        <v>43726</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" s="2">
+        <v>43726</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43730</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H11" t="s">
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>51</v>
       </c>
-      <c r="I11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" t="s">
-        <v>71</v>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43734</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43734</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -975,6 +1113,12 @@
     <hyperlink ref="E10" r:id="rId18"/>
     <hyperlink ref="D11" r:id="rId19"/>
     <hyperlink ref="E11" r:id="rId20"/>
+    <hyperlink ref="D12" r:id="rId21"/>
+    <hyperlink ref="E12" r:id="rId22"/>
+    <hyperlink ref="D13" r:id="rId23"/>
+    <hyperlink ref="E13" r:id="rId24"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="E14" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/szekelyhon_medve.xlsx
+++ b/data/szekelyhon_medve.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t>date</t>
   </si>
@@ -43,106 +43,109 @@
     <t>content</t>
   </si>
   <si>
-    <t>2019. szeptember 11.</t>
-  </si>
-  <si>
-    <t>2019. szeptember 12.</t>
-  </si>
-  <si>
-    <t>2019. szeptember 13.</t>
-  </si>
-  <si>
-    <t>2019. szeptember 16.</t>
-  </si>
-  <si>
-    <t>2019. szeptember 17.</t>
-  </si>
-  <si>
-    <t>2019. szeptember 18.</t>
-  </si>
-  <si>
-    <t>2019. szeptember 22.</t>
-  </si>
-  <si>
-    <t>2019. szeptember 26.</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/videora-vettek-ahogy-elhurcolja-a-megolt-tehenet-a-medve</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/mar-a-haromszeki-prefektusnak-is-nagyon-elege-van-a-medvekbol</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/kutba-esett-egy-medve-bibarfalvan</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/szekelyudvarhely-utcain-portyazott-a-bocsos-medve</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/letorte-a-csur-ajtajat-is-a-medve-a-juhokert</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/vilag/medve-tamadt-egy-lengyel-turistara</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/amikor-negy-tehen-es-harom-medve-nez-farkasszemet-a-zsenge-cukorrepaert</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/harombocsos-anyamedve-kozelitette-meg-a-csiksomlyoi-altalanos-iskolat-es-ovodat</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/halalra-gazoltak-egy-medvet-majd-az-uttesten-hagytak-a-tetemet</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/ro-alert-csiksomlyon-jar-a-medve</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/szetvertek-a-medvek-a-szalloda-egy-reszet</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/emberre-tamadt-a-medve-a-haromszeki-nagyborosnyon</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/villanypasztor-allja-a-kukazo-medvek-utjat</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/09_kiemelesek/sm_medve_video_fokep_2k19_szept.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2017/04_szeptember/sm_medveles01_scs-3.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/haromszek/aktualis/2018/sm_borju-mentes-kutbol-1.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-6.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/04_szeptember/sm_almas_medvekar_hs02.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-84.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-8.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/sm_medveriasztas-csiksomlyon-pnt-4.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/05_augusztus/sm_elgazolt_medvebocs_ga-9.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/04_kiemelesek/sm_csiksomlyo-madartavlat2.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/09_kiemelesek/sm_medve_balvanyos_kamera.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/kronika_2016/et/sm_medve-vn-003_or.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/sm_villanypasztor-medvebiztoskuka-pnt-6.jpg</t>
+    <t>2019. október 21.</t>
+  </si>
+  <si>
+    <t>2019. október 22.</t>
+  </si>
+  <si>
+    <t>2019. október 24.</t>
+  </si>
+  <si>
+    <t>2019. október 25.</t>
+  </si>
+  <si>
+    <t>2019. október 26.</t>
+  </si>
+  <si>
+    <t>2019. október 28.</t>
+  </si>
+  <si>
+    <t>2019. október 29.</t>
+  </si>
+  <si>
+    <t>2019. október 30.</t>
+  </si>
+  <si>
+    <t>2019. október 31.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ujabb-medvet-gazoltak-el-ezuttal-kovaszna-megye-hataraban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/megtermett-medve-garazdalkodik-homorodalmason-varjak-hogy-kilohessek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/bocsaval-egyutt-tort-be-az-udvarra-az-anyamedve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/meg-a-kormanyvalsag-is-a-garazdalkodo-medveknek-kedvez</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nagykadacson-es-felsoboldogfalvan-is-medve-miatt-riasztottak-a-csendoroket</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nem-sokat-er-a-medvebiztos-kuka-ha-melle-teszik-a-szemetet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/mar-most-kellene-szamolni-a-medvekkel-a-marosvasarhelynjaszvasar-autopalya-epitesenel</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/medgyes-utcairol-zavartak-el-a-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/lepcsohazban-jart-a-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/sebzett-medvet-uldoznek-a-vadaszok-szekelyudvarhely-hataraban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ot-medve-pusztult-el-egy-het-alatt-haromszeken</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/juhokat-olt-a-medve-szekelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/autot-rongalt-a-medve</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/05_augusztus/sm_elgazolt_medvebocs_ga-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_medve_homorodalmas.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/sm_medveriasztas-csiksomlyon-pnt-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/02/sm_tusvanyos_medve_belo-3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/sm_medveriasztas-csiksomlyon-pnt-6.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-14.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2019/09_aprilis/sm_autopalya_20_hv.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/05_augusztus/sm_medvekiloves-csikszereda-gn_-16.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2013/02_november/sm_gyaroklat-vn-056.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medve-elutottek-ebe-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/05_augusztus/sm_elgazolt_medvebocs_ga-4.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medvetamadas_belo-6.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_megrongalt-auto-medve.jpg</t>
   </si>
   <si>
     <t>aktualis</t>
@@ -151,121 +154,130 @@
     <t>vilag</t>
   </si>
   <si>
+    <t>csik</t>
+  </si>
+  <si>
     <t>agerpres</t>
   </si>
   <si>
-    <t>csik</t>
-  </si>
-  <si>
-    <t>haromszek</t>
+    <t>vasarhely</t>
   </si>
   <si>
     <t>udvarhely</t>
   </si>
   <si>
-    <t>kronika_2016</t>
+    <t>['Kovászna megye', 'medve']</t>
+  </si>
+  <si>
+    <t>['Homoródalmás', 'medve']</t>
+  </si>
+  <si>
+    <t>['medve', 'Tusnádfürdő']</t>
+  </si>
+  <si>
+    <t>['Hargita megye', 'medve']</t>
   </si>
   <si>
     <t>['medve', 'Udvarhelyszék']</t>
   </si>
   <si>
+    <t>['Zetelaka']</t>
+  </si>
+  <si>
+    <t>['Közlekedés', 'Környezetvédelem', 'Marosvásárhely']</t>
+  </si>
+  <si>
+    <t>['Belföld', 'medve']</t>
+  </si>
+  <si>
+    <t>['Belföld']</t>
+  </si>
+  <si>
+    <t>['medve', 'Székelyudvarhely']</t>
+  </si>
+  <si>
     <t>['Háromszék', 'medve']</t>
   </si>
   <si>
-    <t>['medve', 'Székelyudvarhely']</t>
-  </si>
-  <si>
-    <t>['Homoródalmás', 'medve']</t>
-  </si>
-  <si>
-    <t>['Belföld', 'medve']</t>
-  </si>
-  <si>
-    <t>['Csíksomlyó', 'medve']</t>
-  </si>
-  <si>
-    <t>['Maros megye', 'medve']</t>
-  </si>
-  <si>
-    <t>['medve', 'Tusnádfürdő']</t>
-  </si>
-  <si>
-    <t>Videóra vették, ahogy elhurcolja a megölt tehenet a medve</t>
-  </si>
-  <si>
-    <t>Már a háromszéki prefektusnak is nagyon elege van a medvékből</t>
-  </si>
-  <si>
-    <t>Kútba esett egy medve Bibarcfalván</t>
-  </si>
-  <si>
-    <t>Székelyudvarhely utcáin portyázott a bocsos medve</t>
-  </si>
-  <si>
-    <t>Letörte a csűr ajtaját is a medve a juhokért</t>
-  </si>
-  <si>
-    <t>Medve támadt egy lengyel turistára</t>
-  </si>
-  <si>
-    <t>Amikor négy tehén és három medve néz farkasszemet a zsenge cukorrépáért</t>
-  </si>
-  <si>
-    <t>Hárombocsos anyamedve közelítette meg a csíksomlyói általános iskolát és óvodát</t>
-  </si>
-  <si>
-    <t>Halálra gázoltak egy medvét, majd az úttesten hagyták a tetemet</t>
-  </si>
-  <si>
-    <t>RO-Alert: Csíksomlyón jár a medve</t>
-  </si>
-  <si>
-    <t>Szétverték a medvék a szálloda egy részét</t>
-  </si>
-  <si>
-    <t>Emberre támadt a medve a háromszéki Nagyborosnyón</t>
-  </si>
-  <si>
-    <t>Villanypásztor állja a kukázó medvék útját</t>
-  </si>
-  <si>
-    <t>Három nap leforgása alatt három tehenet öltek meg a medvék Pálpataka határában. A szétszórt tanyai település lakóinak többsége állattartásból él, de a történtek miatt legtöbbjük már nem meri kihajtani a legelőre állatait, félnek az újabb medvetámadásoktól.</t>
-  </si>
-  <si>
-    <t>Napról napra nagyobb gondot jelentenek a medvék Kovászna megyében, a környezetvédelmi minisztérium elsősorban ezt kellene orvosolja. Ez a kérdés a „napelemprogramnál” is fontosabb – nyilatkozta csütörtökön Sebastian Cucu prefektus.</t>
-  </si>
-  <si>
-    <t>Beleesett egy medve a kútba az erdővidéki Bibarcfalván – tájékoztatta portálunkat Kelemen Gellért, az illetékes vadászegyesület munkatársa.</t>
-  </si>
-  <si>
-    <t>Videó is készült arról a bocsos anyamedvéről, amely szombaton éjjel a Szabók utcai felbukkanásától a terelőútig juthatott, majdnem egy kilométeres távot megtéve Székelyudvarhely utcáin. Szakember adott tanácsot, mi a teendő medvével való találkozás esetén.</t>
-  </si>
-  <si>
-    <t>Csűrbe zárta estére a megmaradt jószágait a homoródalmási Mihály Csaba, miután a kertben tartott juhok közül többet is megölt a medve. A nagyvad visszatért, és mint láthatjuk, a csűrkapu sem volt számára akadály.</t>
-  </si>
-  <si>
-    <t>Lengyel turistára támadt egy medve a Radnai-havasokban levő Şetref-hágó (818 méteres magasság) egyik kijelölt turistaösvényén. A férfinak sikerült bemenekülnie egy elhagyatott menedékházba, így nem esett baja.</t>
-  </si>
-  <si>
-    <t>Azt, hogy leggyakrabban miként ér véget a medve és a tehén találkozása, mindenki ismeri a hírekből. Az alábbi, rendhagyó fordulatok által tarkított képtörténet éppen azért érdekes, mert ezúttal nem a megszokott forgatókönyv szerint alakult a cselekmény.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egy hárombocsos anyamedve közelítette meg a Xantus János Általános Iskola csíksomlyói épületét szerda délelőtt, a vadállatokra az udvaron játszó gyerekek lettek figyelmesek. A helyszínre a csendőrség és a tűzoltóság több egysége is kivonult, a medvecsalád azonban időközben továbbállt. Az oktatási intézményn&amp;						</t>
-  </si>
-  <si>
-    <t>Elütöttek és az úton hagytak egy medvét kedden késő este Maros megyében, a Körtvélyfája és Petele közötti gyorsforgalmi úton, Szászrégen közelében. A rendőrség vizsgálódik, a tetem további sorsáról a vadásztársaság dönt.</t>
-  </si>
-  <si>
-    <t>A RO-Alert rendszeren keresztül figyelmeztette a csíkszeredaiakat egy medve jelenlétére Csíksomlyón a Hargita Megyei Vészhelyzeti Felügyelőség.</t>
-  </si>
-  <si>
-    <t>Jelentős kárt okoztak a héten egy bálványosi szállodában a garázdálkodó medvék. A vadak éjszaka betörtek az épületbe, felforgatták a konyhát, összetörtek egy mosodát és a vendéglői bejáratot. A térfigyelő kamerák rögzítették, amint a medvék ki-be járnak az ajtókon.</t>
-  </si>
-  <si>
-    <t>Emberre támadt a medve Nagyborosnyón csütörtökön. Az áldozat súlyos sérülésekkel került kórházba, de nincs életveszélyben – mondta el portálunknak Kanyó Antal, Nagyborosnyó alpolgármestere.</t>
-  </si>
-  <si>
-    <t>Mivel önmagukban nem váltak be, tovább növelték a medvebiztos szeméttárolók hatékonyságát Tusnádfürdőn: villanypásztorral vették körbe ezeket két helyszínen is. A területileg illetékes vadásztársaságnak vannak fenntartásai, az önkormányzat azonban a lehetséges kockázatokra is gondolt.</t>
+    <t>['Székelyudvarhely']</t>
+  </si>
+  <si>
+    <t>Újabb medvét gázoltak el, ezúttal Kovászna megye határában</t>
+  </si>
+  <si>
+    <t>Érdeklődik a medve a füstölt sonka iránt, de azért csapdába nem sétál érte</t>
+  </si>
+  <si>
+    <t>Bocsával együtt tört be az udvarra az anyamedve</t>
+  </si>
+  <si>
+    <t>Még a kormányválság is a garázdálkodó medvéknek kedvez</t>
+  </si>
+  <si>
+    <t>Nagykadácson és Felsőboldogfalván is medve miatt riasztották a csendőröket</t>
+  </si>
+  <si>
+    <t>Nem sokat ér a medvebiztos kuka, ha mellé teszik a szemetet</t>
+  </si>
+  <si>
+    <t>Már most kellene számolni a medvékkel a Marosvásárhely–Jászvásár autópálya építésénél</t>
+  </si>
+  <si>
+    <t>Medgyes utcáiról zavarták el a medvét</t>
+  </si>
+  <si>
+    <t>Lépcsőházban járt a medve</t>
+  </si>
+  <si>
+    <t>Sebzett medvét üldöznek a vadászok Székelyudvarhely határában</t>
+  </si>
+  <si>
+    <t>Öt medve pusztult el egy hét alatt Háromszéken</t>
+  </si>
+  <si>
+    <t>Juhokat ölt a medve Székelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>Autót rongált a medve</t>
+  </si>
+  <si>
+    <t>Elgázolt vasárnap este egy gépkocsi egy medvét a Kovászna megyei Ozsdola és Tulnici között, a 2D jelzésű országúton – írja a Vrancea Megyei Rendőr-főkapitányságra hivatkozva az Agerpres.</t>
+  </si>
+  <si>
+    <t>Több háziállatot is megölt Homoródalmáson egy medve, amelyre közel egy hónapja kért – eddig eredménytelenül – kilövési engedélyt az illetékes vadásztársaság. Azóta csapdát és vadkamerát is kihelyeztek a helyszínen, és az is kiderült, hogy a továbbra is károkat okozó medve egy kifejlett, felnőtt egyed.</t>
+  </si>
+  <si>
+    <t>Ismét medvéhez riasztották keddre virradóan a csendőröket Tusnádfürdőn. A nagyvad egy asszony udvarára tört be, a környékbeli lakosságnak a Ro-Alert rendszerrel hívták fel a figyelmét a veszélyre – tájékoztatott az Agerpres hírügynökség.</t>
+  </si>
+  <si>
+    <t>Már a veszélyes medvék kilövésére sem kapnak engedélyt a vadásztársaságok, ugyanis a kormányválság miatt nem állít ki ilyen jellegű jóváhagyásokat a tárcavezető nélkül maradt környezetvédelmi minisztérium.</t>
+  </si>
+  <si>
+    <t>Medve miatt riasztották csütörtökre virradóra a Hargita megyei csendőröket a Siménfalvához tartozó Nagykadácson és Felsőboldogfalván.</t>
+  </si>
+  <si>
+    <t>Még nem tudni, hogy bevált-e a nyáron Sikaszóban felszerelt medvebiztos kuka, hiszen azóta más községbeli településekről sem érkeztek panaszok a nagyvadakra. Ami viszont rossz, hogy egyesek továbbra is a tárolók mellé teszik a szemetüket ahelyett, hogy beledobnák.</t>
+  </si>
+  <si>
+    <t>Tíz százalékkal növelné a Marosvásárhely–Jászvásár autópálya költségeit, ha megépítenék a vadátkelőket. Ha megteszik, példaértékű autópálya épülhet, ha azonban nem, akkor sok állat elpusztulna, és még több az emberek lakta települések felé terelődne.</t>
+  </si>
+  <si>
+    <t>A csendőrök, rendőrök és erdészek visszazavarták az erdőbe azt a medvét, amelyik szombat reggel Medgyesen kószált.</t>
+  </si>
+  <si>
+    <t>Egy fogarasi tömbház lépcsőházában látott medve miatt figyelmeztették a lakosságot a Ro-Alert rendszeren keresztül vasárnap este, tájékoztatott a Brassó Megyei Katasztrófavédelmi Felügyelőségre (ISU) hivatkozva az Agerpres.</t>
+  </si>
+  <si>
+    <t>Kétbocsos anyamedvét ütöttek el hétfőn este Székelyudvarhely és Felsőboldogfalva között. A nagyvad nem vesztette életét, hanem a Nagy-oldalban lévő terepmotor-pályához közeli erdőbe menekült. A vadásztársulat jelenlegi is keresi a veszélyesnek minősülő sebzett medvét, így arra kérik a lakókat, hogy kerüljék a környéket.</t>
+  </si>
+  <si>
+    <t>Az elmúlt egy hét alatt öt medve pusztult el Háromszéken: kettőt a vonat ütött el, hármat az országúton gázoltak el a gépkocsik. Az árván maradt bocsokat Foksányba szállítják.</t>
+  </si>
+  <si>
+    <t>Egy juhot megölt, a másikat pedig halálosan megsebesítette a medve, amely szerdán hajnalban garázdálkodott a székelyudvarhelyi Rét utcai portán. A gazda a nagyvad visszatérésétől tart, a többi jószágát féltve. A vadászok csapdával igyekeznek befogni a kártékony medvét.</t>
+  </si>
+  <si>
+    <t>Gépkocsit rongált meg egy medve Bálványoson szerdára virradóan. A fürdőtelep Torja községhez tartozik, Daragus Attila polgármester lapunknak azt mondta, nem ez az első eset, hogy autókat „szednek szét” a medvék, előfordult, hogy egyetlen éjszaka alatt hat autót is összetörtek.</t>
   </si>
 </sst>
 </file>
@@ -680,31 +692,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43719</v>
+        <v>43759</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
         <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -712,31 +724,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43720</v>
+        <v>43759</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
         <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -744,31 +756,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43721</v>
+        <v>43760</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -776,31 +788,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43724</v>
+        <v>43760</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -808,31 +820,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43725</v>
+        <v>43762</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -840,31 +852,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43725</v>
+        <v>43763</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -872,31 +884,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43726</v>
+        <v>43764</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -904,31 +916,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43726</v>
+        <v>43764</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -936,31 +948,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43726</v>
+        <v>43766</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -968,31 +980,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>43726</v>
+        <v>43767</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1000,31 +1012,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>43730</v>
+        <v>43768</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1032,31 +1044,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>43734</v>
+        <v>43768</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
         <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1064,31 +1076,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>43734</v>
+        <v>43769</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/szekelyhon_medve.xlsx
+++ b/data/szekelyhon_medve.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>date</t>
   </si>
@@ -43,241 +43,166 @@
     <t>content</t>
   </si>
   <si>
-    <t>2019. október 21.</t>
-  </si>
-  <si>
-    <t>2019. október 22.</t>
-  </si>
-  <si>
-    <t>2019. október 24.</t>
-  </si>
-  <si>
-    <t>2019. október 25.</t>
-  </si>
-  <si>
-    <t>2019. október 26.</t>
-  </si>
-  <si>
-    <t>2019. október 28.</t>
-  </si>
-  <si>
-    <t>2019. október 29.</t>
-  </si>
-  <si>
-    <t>2019. október 30.</t>
-  </si>
-  <si>
-    <t>2019. október 31.</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/ujabb-medvet-gazoltak-el-ezuttal-kovaszna-megye-hataraban</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/megtermett-medve-garazdalkodik-homorodalmason-varjak-hogy-kilohessek</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/bocsaval-egyutt-tort-be-az-udvarra-az-anyamedve</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/meg-a-kormanyvalsag-is-a-garazdalkodo-medveknek-kedvez</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/nagykadacson-es-felsoboldogfalvan-is-medve-miatt-riasztottak-a-csendoroket</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/nem-sokat-er-a-medvebiztos-kuka-ha-melle-teszik-a-szemetet</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/mar-most-kellene-szamolni-a-medvekkel-a-marosvasarhelynjaszvasar-autopalya-epitesenel</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/vilag/medgyes-utcairol-zavartak-el-a-medvet</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/vilag/lepcsohazban-jart-a-medve</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/sebzett-medvet-uldoznek-a-vadaszok-szekelyudvarhely-hataraban</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/ot-medve-pusztult-el-egy-het-alatt-haromszeken</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/juhokat-olt-a-medve-szekelyudvarhelyen</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/autot-rongalt-a-medve</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/05_augusztus/sm_elgazolt_medvebocs_ga-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_medve_homorodalmas.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/sm_medveriasztas-csiksomlyon-pnt-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/02/sm_tusvanyos_medve_belo-3.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/04_szeptember/sm_medveriasztas-csiksomlyon-pnt-6.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-14.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2019/09_aprilis/sm_autopalya_20_hv.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/05_augusztus/sm_medvekiloves-csikszereda-gn_-16.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2013/02_november/sm_gyaroklat-vn-056.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medve-elutottek-ebe-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/05_augusztus/sm_elgazolt_medvebocs_ga-4.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medvetamadas_belo-6.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_megrongalt-auto-medve.jpg</t>
+    <t>2019. november 26.</t>
+  </si>
+  <si>
+    <t>2019. november 27.</t>
+  </si>
+  <si>
+    <t>2019. november 28.</t>
+  </si>
+  <si>
+    <t>2019. november 29.</t>
+  </si>
+  <si>
+    <t>2019. december 02.</t>
+  </si>
+  <si>
+    <t>2019. december 03.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medveproblema-brusszeli-nyomasgyakorlasban-biznak-a-szekelyfoldi-megyek-vezetoi</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/sokkos-allapotban-kerult-korhazba-a-medvetamadas-aldozata</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kilonek-a-hidegkuton-emberre-tamado-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/szeben-es-feher-megye-is-csatlakozott-a-bmedvepeticiohozr</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/megteritik-a-gazdaknak-az-elmult-harom-evben-tortent-medvekarokat</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/csiksomlyon-jar-a-medve-n-figyelmeztet-a-ro-alert</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kilottek-a-medvet-amely-majus-ota-tartotta-rettegesben-a-specialis-iskola-tanuloit</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/szamitani-kell-arra-hogy-telen-is-aktivak-lehetnek-a-medvek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/a-haztaji-gazdasagban-levo-osszes-birkat-megolte-a-medve-gyergyovaslabon</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/05_augusztus/01/sm_medve-cekend-ba-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/06_julius/sm_egeszsegugy-vn-048.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-4.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medvetamadas_belo-4.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/01_december/sm_ro-alert-somlyo01.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-13.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-24.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2015/03_oktober/sm_farkastamadas-felsoboldogfalva-ab-76.jpg</t>
   </si>
   <si>
     <t>aktualis</t>
   </si>
   <si>
-    <t>vilag</t>
+    <t>udvarhely</t>
   </si>
   <si>
     <t>csik</t>
   </si>
   <si>
-    <t>agerpres</t>
-  </si>
-  <si>
-    <t>vasarhely</t>
-  </si>
-  <si>
-    <t>udvarhely</t>
-  </si>
-  <si>
-    <t>['Kovászna megye', 'medve']</t>
-  </si>
-  <si>
-    <t>['Homoródalmás', 'medve']</t>
-  </si>
-  <si>
-    <t>['medve', 'Tusnádfürdő']</t>
-  </si>
-  <si>
-    <t>['Hargita megye', 'medve']</t>
+    <t>['Brassó megye', 'medve', 'Székelyföld']</t>
   </si>
   <si>
     <t>['medve', 'Udvarhelyszék']</t>
   </si>
   <si>
-    <t>['Zetelaka']</t>
-  </si>
-  <si>
-    <t>['Közlekedés', 'Környezetvédelem', 'Marosvásárhely']</t>
+    <t>['medve', 'Székelykeresztúr']</t>
   </si>
   <si>
     <t>['Belföld', 'medve']</t>
   </si>
   <si>
-    <t>['Belföld']</t>
-  </si>
-  <si>
-    <t>['medve', 'Székelyudvarhely']</t>
+    <t>['Gazdaság', 'Hargita megye', 'medve']</t>
+  </si>
+  <si>
+    <t>['Csíksomlyó', 'medve']</t>
   </si>
   <si>
     <t>['Háromszék', 'medve']</t>
   </si>
   <si>
-    <t>['Székelyudvarhely']</t>
-  </si>
-  <si>
-    <t>Újabb medvét gázoltak el, ezúttal Kovászna megye határában</t>
-  </si>
-  <si>
-    <t>Érdeklődik a medve a füstölt sonka iránt, de azért csapdába nem sétál érte</t>
-  </si>
-  <si>
-    <t>Bocsával együtt tört be az udvarra az anyamedve</t>
-  </si>
-  <si>
-    <t>Még a kormányválság is a garázdálkodó medvéknek kedvez</t>
-  </si>
-  <si>
-    <t>Nagykadácson és Felsőboldogfalván is medve miatt riasztották a csendőröket</t>
-  </si>
-  <si>
-    <t>Nem sokat ér a medvebiztos kuka, ha mellé teszik a szemetet</t>
-  </si>
-  <si>
-    <t>Már most kellene számolni a medvékkel a Marosvásárhely–Jászvásár autópálya építésénél</t>
-  </si>
-  <si>
-    <t>Medgyes utcáiról zavarták el a medvét</t>
-  </si>
-  <si>
-    <t>Lépcsőházban járt a medve</t>
-  </si>
-  <si>
-    <t>Sebzett medvét üldöznek a vadászok Székelyudvarhely határában</t>
-  </si>
-  <si>
-    <t>Öt medve pusztult el egy hét alatt Háromszéken</t>
-  </si>
-  <si>
-    <t>Juhokat ölt a medve Székelyudvarhelyen</t>
-  </si>
-  <si>
-    <t>Autót rongált a medve</t>
-  </si>
-  <si>
-    <t>Elgázolt vasárnap este egy gépkocsi egy medvét a Kovászna megyei Ozsdola és Tulnici között, a 2D jelzésű országúton – írja a Vrancea Megyei Rendőr-főkapitányságra hivatkozva az Agerpres.</t>
-  </si>
-  <si>
-    <t>Több háziállatot is megölt Homoródalmáson egy medve, amelyre közel egy hónapja kért – eddig eredménytelenül – kilövési engedélyt az illetékes vadásztársaság. Azóta csapdát és vadkamerát is kihelyeztek a helyszínen, és az is kiderült, hogy a továbbra is károkat okozó medve egy kifejlett, felnőtt egyed.</t>
-  </si>
-  <si>
-    <t>Ismét medvéhez riasztották keddre virradóan a csendőröket Tusnádfürdőn. A nagyvad egy asszony udvarára tört be, a környékbeli lakosságnak a Ro-Alert rendszerrel hívták fel a figyelmét a veszélyre – tájékoztatott az Agerpres hírügynökség.</t>
-  </si>
-  <si>
-    <t>Már a veszélyes medvék kilövésére sem kapnak engedélyt a vadásztársaságok, ugyanis a kormányválság miatt nem állít ki ilyen jellegű jóváhagyásokat a tárcavezető nélkül maradt környezetvédelmi minisztérium.</t>
-  </si>
-  <si>
-    <t>Medve miatt riasztották csütörtökre virradóra a Hargita megyei csendőröket a Siménfalvához tartozó Nagykadácson és Felsőboldogfalván.</t>
-  </si>
-  <si>
-    <t>Még nem tudni, hogy bevált-e a nyáron Sikaszóban felszerelt medvebiztos kuka, hiszen azóta más községbeli településekről sem érkeztek panaszok a nagyvadakra. Ami viszont rossz, hogy egyesek továbbra is a tárolók mellé teszik a szemetüket ahelyett, hogy beledobnák.</t>
-  </si>
-  <si>
-    <t>Tíz százalékkal növelné a Marosvásárhely–Jászvásár autópálya költségeit, ha megépítenék a vadátkelőket. Ha megteszik, példaértékű autópálya épülhet, ha azonban nem, akkor sok állat elpusztulna, és még több az emberek lakta települések felé terelődne.</t>
-  </si>
-  <si>
-    <t>A csendőrök, rendőrök és erdészek visszazavarták az erdőbe azt a medvét, amelyik szombat reggel Medgyesen kószált.</t>
-  </si>
-  <si>
-    <t>Egy fogarasi tömbház lépcsőházában látott medve miatt figyelmeztették a lakosságot a Ro-Alert rendszeren keresztül vasárnap este, tájékoztatott a Brassó Megyei Katasztrófavédelmi Felügyelőségre (ISU) hivatkozva az Agerpres.</t>
-  </si>
-  <si>
-    <t>Kétbocsos anyamedvét ütöttek el hétfőn este Székelyudvarhely és Felsőboldogfalva között. A nagyvad nem vesztette életét, hanem a Nagy-oldalban lévő terepmotor-pályához közeli erdőbe menekült. A vadásztársulat jelenlegi is keresi a veszélyesnek minősülő sebzett medvét, így arra kérik a lakókat, hogy kerüljék a környéket.</t>
-  </si>
-  <si>
-    <t>Az elmúlt egy hét alatt öt medve pusztult el Háromszéken: kettőt a vonat ütött el, hármat az országúton gázoltak el a gépkocsik. Az árván maradt bocsokat Foksányba szállítják.</t>
-  </si>
-  <si>
-    <t>Egy juhot megölt, a másikat pedig halálosan megsebesítette a medve, amely szerdán hajnalban garázdálkodott a székelyudvarhelyi Rét utcai portán. A gazda a nagyvad visszatérésétől tart, a többi jószágát féltve. A vadászok csapdával igyekeznek befogni a kártékony medvét.</t>
-  </si>
-  <si>
-    <t>Gépkocsit rongált meg egy medve Bálványoson szerdára virradóan. A fürdőtelep Torja községhez tartozik, Daragus Attila polgármester lapunknak azt mondta, nem ez az első eset, hogy autókat „szednek szét” a medvék, előfordult, hogy egyetlen éjszaka alatt hat autót is összetörtek.</t>
+    <t>['Hargita megye', 'Kovászna megye', 'Maros megye', 'medve']</t>
+  </si>
+  <si>
+    <t>['Gyergyószék', 'medve']</t>
+  </si>
+  <si>
+    <t>Medveprobléma: brüsszeli nyomásgyakorlásban bíznak a székelyföldi megyék vezetői</t>
+  </si>
+  <si>
+    <t>Sokkos állapotban került kórházba a medvetámadás áldozata</t>
+  </si>
+  <si>
+    <t>Kilőnék a Hidegkúton emberre támadó medvét</t>
+  </si>
+  <si>
+    <t>Szeben és Fehér megye is csatlakozott a „medvepetícióhoz”</t>
+  </si>
+  <si>
+    <t>Megtérítik a gazdáknak az elmúlt három évben történt medvekárokat</t>
+  </si>
+  <si>
+    <t>Csíksomlyón jár a medve – figyelmeztet a Ro-Alert</t>
+  </si>
+  <si>
+    <t>Kilőtték a medvét, amely május óta rettegésben tartotta a speciális iskola tanulóit</t>
+  </si>
+  <si>
+    <t>Számítani kell arra, hogy télen is aktívak lehetnek a medvék</t>
+  </si>
+  <si>
+    <t>A háztáji gazdaságban levő összes birkát megölte a medve Gyergyóvaslábon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brüsszelben keresnek támogatást az egyre súlyosbodó medveproblémára Hargita, Kovászna, Maros és Brassó megye vezetői. Úgy vélik, „Bukarestben akkor kapják fel a fejüket, ha Brüsszelből kapnak egy intést”. </t>
+  </si>
+  <si>
+    <t>Mellkasi sérülései a legsúlyosabbak annak a férfinak, aki medvetámadásban szerzett többszöri zúzott sebeket testének gyomortájékán, az ágyéki részen és könyökén kedd este. Az elsődleges információk szerint a hidegkúti férfi az esztenáról tért haza, amikor saját kertjében rátámadt a nagyvad.</t>
+  </si>
+  <si>
+    <t>Kérni fogja az engedélyt a székelykeresztúri Hubertus Vadászegyesület a környezetvédelmi minisztériumtól azon medve kilövésére, amely kedden rátámadt egy férfire Hidegkúton.</t>
+  </si>
+  <si>
+    <t>Szeben és Fehér megyék vezetői is aláírták az Európai Parlament (EP) Petíciós Bizottságához benyújtandó folyamodványt, amelyben ismertetik, hogy az elszaporodott medveállomány veszélyezteti az emberéletet, és a mezőgazdasági javak sincsenek biztonságban.</t>
+  </si>
+  <si>
+    <t>Biztosítják az önkormányzatok működését az idei évre, kifizetik a Helyi Fejlesztési Országos Program támogatásait, és az elmúlt három év medvekárait is megtérítik a gazdáknak – jelentették be Csíkszeredában az RMDSZ politikusai a kormány által meghozott költségvetés-kiigazítást ismertetve.</t>
+  </si>
+  <si>
+    <t>Csíksomlyón, a sípálya környékén felbukkant medvéről kaptak bejelentést a hatóságok hétfő késődélután, a vészhelyzeti felügyelőség azonnal figyelmeztető üzenetet küldött a Ro-Alert rendszeren keresztül a környéken lévőknek.</t>
+  </si>
+  <si>
+    <t>Kilőtték hétvégén azt a medvét, amely május óta tartotta rettegésben az oltszemi speciális iskolában tanuló ötven, állami gondozásban lévő gyermeket, illetve gondozóikat.</t>
+  </si>
+  <si>
+    <t>Egyértelmű, hogy Székelyföldön még nem vonultak téli álomra a medvék, ezért arra voltunk kíváncsiak, hogy ez általában milyen körülmények között történik meg. A vadászok szerint az elkövetkező hónapokban is számíthatunk nagyvadak által okozott károkra.</t>
+  </si>
+  <si>
+    <t>Tizenegy birkát ölt meg a hétfőről keddre virradó éjszaka egy nőstény medve Gyergyóvasláb község egyik, vonatállomáshoz közeli házának udvarán.</t>
   </si>
 </sst>
 </file>
@@ -652,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -692,31 +617,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43759</v>
+        <v>43795</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -724,31 +649,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43759</v>
+        <v>43795</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -756,31 +681,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43760</v>
+        <v>43796</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -788,31 +713,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43760</v>
+        <v>43797</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -820,31 +745,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43762</v>
+        <v>43798</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -852,31 +777,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43763</v>
+        <v>43801</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -884,31 +809,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43764</v>
+        <v>43801</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -916,31 +841,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43764</v>
+        <v>43802</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -948,159 +873,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43766</v>
+        <v>43802</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>43767</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43768</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>43768</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43769</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1123,14 +920,6 @@
     <hyperlink ref="E9" r:id="rId16"/>
     <hyperlink ref="D10" r:id="rId17"/>
     <hyperlink ref="E10" r:id="rId18"/>
-    <hyperlink ref="D11" r:id="rId19"/>
-    <hyperlink ref="E11" r:id="rId20"/>
-    <hyperlink ref="D12" r:id="rId21"/>
-    <hyperlink ref="E12" r:id="rId22"/>
-    <hyperlink ref="D13" r:id="rId23"/>
-    <hyperlink ref="E13" r:id="rId24"/>
-    <hyperlink ref="D14" r:id="rId25"/>
-    <hyperlink ref="E14" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/szekelyhon_medve.xlsx
+++ b/data/szekelyhon_medve.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>date</t>
   </si>
@@ -43,166 +43,211 @@
     <t>content</t>
   </si>
   <si>
-    <t>2019. november 26.</t>
-  </si>
-  <si>
-    <t>2019. november 27.</t>
-  </si>
-  <si>
-    <t>2019. november 28.</t>
-  </si>
-  <si>
-    <t>2019. november 29.</t>
-  </si>
-  <si>
-    <t>2019. december 02.</t>
-  </si>
-  <si>
-    <t>2019. december 03.</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/medveproblema-brusszeli-nyomasgyakorlasban-biznak-a-szekelyfoldi-megyek-vezetoi</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/sokkos-allapotban-kerult-korhazba-a-medvetamadas-aldozata</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/kilonek-a-hidegkuton-emberre-tamado-medvet</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/szeben-es-feher-megye-is-csatlakozott-a-bmedvepeticiohozr</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/megteritik-a-gazdaknak-az-elmult-harom-evben-tortent-medvekarokat</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/csiksomlyon-jar-a-medve-n-figyelmeztet-a-ro-alert</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/kilottek-a-medvet-amely-majus-ota-tartotta-rettegesben-a-specialis-iskola-tanuloit</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/szamitani-kell-arra-hogy-telen-is-aktivak-lehetnek-a-medvek</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/a-haztaji-gazdasagban-levo-osszes-birkat-megolte-a-medve-gyergyovaslabon</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/05_augusztus/01/sm_medve-cekend-ba-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/06_julius/sm_egeszsegugy-vn-048.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-4.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medvetamadas_belo-4.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/01_december/sm_ro-alert-somlyo01.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/08_majus/01/sm_medve-kiloves-remete-ba-13.jpg</t>
+    <t>2019. december 25.</t>
+  </si>
+  <si>
+    <t>2019. december 26.</t>
+  </si>
+  <si>
+    <t>2020. január 02.</t>
+  </si>
+  <si>
+    <t>2020. január 04.</t>
+  </si>
+  <si>
+    <t>2020. január 06.</t>
+  </si>
+  <si>
+    <t>2020. január 11.</t>
+  </si>
+  <si>
+    <t>2020. január 13.</t>
+  </si>
+  <si>
+    <t>2020. január 16.</t>
+  </si>
+  <si>
+    <t>2020. január 21.</t>
+  </si>
+  <si>
+    <t>2020. január 26.</t>
+  </si>
+  <si>
+    <t>2020. január 28.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/feldulva-talaltak-a-sirhelyeket</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/elutasitotta-medveugyben-a-zetelaki-terulettulajdonosi-tarsulas-keresetet-a-tablabirosag</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/visszatekinto-ezek-voltak-a-kozvelemenyt-leginkabb-erinto-temaink-2019-ben</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ki-akadalyozta-meg-hogy-a-barnamedve-lekeruljon-a-szigoruan-vedett-allatfajok-listajarol-romaniaban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/penzt-iger-a-miniszter-a-medvek-altal-veszelyeztetett-telepulesek-vedelmere</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/hargita-megye-megvan-az-ev-elso-112-s-medveeszlelese</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/aktivak-a-medvek-szekelyudvarhely-kornyeken</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/lemondott-a-vadasztarsasag-az-emberre-tamado-hidegkuti-medve-kiloveserol</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/szagra-jonnek-a-medvek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medveradar-zetelakan-es-farkaslakan-voltak-a-legaktivabbak-tavaly-a-nagyvadak</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/gyergyoszentmiklos-utcain-koborolt-egy-medve</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_feldult-temeto-vaslab-9.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-18.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_ev-vege-szekelyhon.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medve-elutottek-ebe-3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2016/12_januar/sm_medvebarlang-ab-1.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-12.jpg</t>
   </si>
   <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-24.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2015/03_oktober/sm_farkastamadas-felsoboldogfalva-ab-76.jpg</t>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2013/12_januar/sm_medvek_kr_10.jpg</t>
   </si>
   <si>
     <t>aktualis</t>
   </si>
   <si>
+    <t>vilag</t>
+  </si>
+  <si>
+    <t>agerpres</t>
+  </si>
+  <si>
     <t>udvarhely</t>
   </si>
   <si>
     <t>csik</t>
   </si>
   <si>
-    <t>['Brassó megye', 'medve', 'Székelyföld']</t>
+    <t>['Gyergyószék', 'medve']</t>
+  </si>
+  <si>
+    <t>['Hargita megye', 'medve']</t>
+  </si>
+  <si>
+    <t>['Belföld']</t>
+  </si>
+  <si>
+    <t>['Belföld', 'medve', 'RMDSZ']</t>
+  </si>
+  <si>
+    <t>['Háromszék', 'medve']</t>
+  </si>
+  <si>
+    <t>['Csendőrség', 'medve', 'Parajd']</t>
   </si>
   <si>
     <t>['medve', 'Udvarhelyszék']</t>
   </si>
   <si>
-    <t>['medve', 'Székelykeresztúr']</t>
-  </si>
-  <si>
-    <t>['Belföld', 'medve']</t>
-  </si>
-  <si>
-    <t>['Gazdaság', 'Hargita megye', 'medve']</t>
-  </si>
-  <si>
-    <t>['Csíksomlyó', 'medve']</t>
-  </si>
-  <si>
-    <t>['Háromszék', 'medve']</t>
-  </si>
-  <si>
-    <t>['Hargita megye', 'Kovászna megye', 'Maros megye', 'medve']</t>
-  </si>
-  <si>
-    <t>['Gyergyószék', 'medve']</t>
-  </si>
-  <si>
-    <t>Medveprobléma: brüsszeli nyomásgyakorlásban bíznak a székelyföldi megyék vezetői</t>
-  </si>
-  <si>
-    <t>Sokkos állapotban került kórházba a medvetámadás áldozata</t>
-  </si>
-  <si>
-    <t>Kilőnék a Hidegkúton emberre támadó medvét</t>
-  </si>
-  <si>
-    <t>Szeben és Fehér megye is csatlakozott a „medvepetícióhoz”</t>
-  </si>
-  <si>
-    <t>Megtérítik a gazdáknak az elmúlt három évben történt medvekárokat</t>
-  </si>
-  <si>
-    <t>Csíksomlyón jár a medve – figyelmeztet a Ro-Alert</t>
-  </si>
-  <si>
-    <t>Kilőtték a medvét, amely május óta rettegésben tartotta a speciális iskola tanulóit</t>
-  </si>
-  <si>
-    <t>Számítani kell arra, hogy télen is aktívak lehetnek a medvék</t>
-  </si>
-  <si>
-    <t>A háztáji gazdaságban levő összes birkát megölte a medve Gyergyóvaslábon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brüsszelben keresnek támogatást az egyre súlyosbodó medveproblémára Hargita, Kovászna, Maros és Brassó megye vezetői. Úgy vélik, „Bukarestben akkor kapják fel a fejüket, ha Brüsszelből kapnak egy intést”. </t>
-  </si>
-  <si>
-    <t>Mellkasi sérülései a legsúlyosabbak annak a férfinak, aki medvetámadásban szerzett többszöri zúzott sebeket testének gyomortájékán, az ágyéki részen és könyökén kedd este. Az elsődleges információk szerint a hidegkúti férfi az esztenáról tért haza, amikor saját kertjében rátámadt a nagyvad.</t>
-  </si>
-  <si>
-    <t>Kérni fogja az engedélyt a székelykeresztúri Hubertus Vadászegyesület a környezetvédelmi minisztériumtól azon medve kilövésére, amely kedden rátámadt egy férfire Hidegkúton.</t>
-  </si>
-  <si>
-    <t>Szeben és Fehér megyék vezetői is aláírták az Európai Parlament (EP) Petíciós Bizottságához benyújtandó folyamodványt, amelyben ismertetik, hogy az elszaporodott medveállomány veszélyezteti az emberéletet, és a mezőgazdasági javak sincsenek biztonságban.</t>
-  </si>
-  <si>
-    <t>Biztosítják az önkormányzatok működését az idei évre, kifizetik a Helyi Fejlesztési Országos Program támogatásait, és az elmúlt három év medvekárait is megtérítik a gazdáknak – jelentették be Csíkszeredában az RMDSZ politikusai a kormány által meghozott költségvetés-kiigazítást ismertetve.</t>
-  </si>
-  <si>
-    <t>Csíksomlyón, a sípálya környékén felbukkant medvéről kaptak bejelentést a hatóságok hétfő késődélután, a vészhelyzeti felügyelőség azonnal figyelmeztető üzenetet küldött a Ro-Alert rendszeren keresztül a környéken lévőknek.</t>
-  </si>
-  <si>
-    <t>Kilőtték hétvégén azt a medvét, amely május óta tartotta rettegésben az oltszemi speciális iskolában tanuló ötven, állami gondozásban lévő gyermeket, illetve gondozóikat.</t>
-  </si>
-  <si>
-    <t>Egyértelmű, hogy Székelyföldön még nem vonultak téli álomra a medvék, ezért arra voltunk kíváncsiak, hogy ez általában milyen körülmények között történik meg. A vadászok szerint az elkövetkező hónapokban is számíthatunk nagyvadak által okozott károkra.</t>
-  </si>
-  <si>
-    <t>Tizenegy birkát ölt meg a hétfőről keddre virradó éjszaka egy nőstény medve Gyergyóvasláb község egyik, vonatállomáshoz közeli házának udvarán.</t>
+    <t>['medve', 'Székelyudvarhely']</t>
+  </si>
+  <si>
+    <t>['Gyergyószentmiklós', 'medve']</t>
+  </si>
+  <si>
+    <t>Feldúlva találták a sírhelyeket</t>
+  </si>
+  <si>
+    <t>Elutasította medveügyben a Zetelaki Területtulajdonosi Társulás keresetét a táblabíróság</t>
+  </si>
+  <si>
+    <t>Visszatekintő: ezek voltak a közvéleményt leginkább foglalkoztató témáink 2019-ben</t>
+  </si>
+  <si>
+    <t>Ki akadályozta meg, hogy a barnamedve lekerüljön a szigorúan védett állatfajok listájáról Romániában?</t>
+  </si>
+  <si>
+    <t>Pénzt ígér a miniszter a medvék által veszélyeztetett települések védelmére</t>
+  </si>
+  <si>
+    <t>Hargita megye: megvan az év első 112-s medveészlelése</t>
+  </si>
+  <si>
+    <t>Aktívak a medvék Székelyudvarhely környékén</t>
+  </si>
+  <si>
+    <t>Lemondott a vadásztársaság az emberre támadó hidegkúti medve kilövéséről</t>
+  </si>
+  <si>
+    <t>Amíg elérhető közelségben van az ételmaradék, addig a medvék jelenlétére is számítani kell</t>
+  </si>
+  <si>
+    <t>Medveradar: Zetelakán és Farkaslakán voltak a legaktívabbak tavaly a nagyvadak</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklós utcáin kóborolt egy medve</t>
+  </si>
+  <si>
+    <t>Feldúlva találták a sírhelyeket, illetve azok környékét a Vasláb községhez tartozó hevederi temetőben. A nyomok alapján medvejárásra gyanakodnak.</t>
+  </si>
+  <si>
+    <t>Elutasította a Marosvásárhelyi Táblabíróság a Zetelaki Területtulajdonosi Társulás keresetét, amelyet a társulás a Környezetvédelmi Minisztérium ellen indított a vadgazdálkodási szabályozások alkalmazásának elmulasztása miatt. A társulás vezetője fellebbezést tervez.</t>
+  </si>
+  <si>
+    <t>Parkolás, pápalátogatás, temetőfoglalás, sportsikerek, véget nem érő medvetéma – a mögöttünk hagyott év székelyföldi közvéleményt leginkább érintő témáit gyűjtöttük csokorba, hónapokra lebontva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az állatvédők és az Európai Bizottság akadályozta meg, hogy a barnamedve öt évre lekerüljön a szigorúan védett állatfajok listájáról Romániában – állítja Benkő Erika RMDSZ-képviselő. </t>
+  </si>
+  <si>
+    <t>A háromszéki Zabolán tartott terepszemlét Costel Alexe környezetvédelmi miniszter, aki a látogatást követően arról számol be, hogy körvonalazódott egy olyan finanszírozási program, amely lehetővé teszi a medvék által veszélyeztetett települések védelmét.</t>
+  </si>
+  <si>
+    <t>Medvét látott a kertjében egy parajdi férfi a Sóhát utcában szombaton délután. A nagyvadat a gyümölcsfáknál fedezte fel, mintegy száz méterre a lakóháztól. Az esetet a 112-n jelentette, a helyszínre egy csendőri és egy mentőegység szállt ki.</t>
+  </si>
+  <si>
+    <t>Noha a magasabban fekvő térségekben már téli álmot alszanak a medvék, más területeken ez nem így van. Székelyudvarhely környékén például legalább tizenegy medve aktív jelenleg is, ezért a vadászok óvatosságra intenek.</t>
+  </si>
+  <si>
+    <t>Megúszta a kilövést a Hidegkúton emberre támadó medve, az illetékes vadásztársaságnál lemondtak arról, hogy a vad ártalmatlanítására rendkívüli jóváhagyást igényeljenek a környezetvédelmi minisztériumtól.</t>
+  </si>
+  <si>
+    <t>A szeméttárolók vonzzák a székelyudvarhelyi Cserehát lakónegyedbe az aktív nagyvadakat, ezért a Nagy-Küküllő Vadász- és Sporthorgász Egyesület medvebiztos kukákat rendelt, amelyeket a szemételszállító vállalattal egyeztetve helyezne ki. A medvék befogásával is próbálkoznak.</t>
+  </si>
+  <si>
+    <t>A kezdeti fellendülés után kissé lankadt az aktivitás a székelyföldi medveradar és -térkép néven emlegetett medveészlelő portálon, amelyet tavaly márciusban hozott létre Csala Dénes adatblogger. Ettől eltekintve a több mint 700 bejegyzést számláló medvetérkép a legszerteágazóbb adatbázisnak számít.</t>
+  </si>
+  <si>
+    <t>Egy városszéli üzemanyagtöltő állomásnál felbukkant medve miatt riasztották keddre virradóan a hatóságokat Gyergyószentmiklóson. Míg a csendőrök a nagyvadat kutatták, a vészhelyzeti felügyelőség a Ro-Alert rendszeren figyelmeztette a lakókat a veszélyre. A medvét végül megtalálták és elűzték.</t>
   </si>
 </sst>
 </file>
@@ -577,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,31 +662,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43795</v>
+        <v>43824</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -649,31 +694,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43795</v>
+        <v>43825</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -681,31 +726,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43796</v>
+        <v>43832</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -713,31 +758,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43797</v>
+        <v>43834</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -745,31 +790,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43798</v>
+        <v>43836</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -777,31 +822,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43801</v>
+        <v>43841</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -809,31 +854,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43801</v>
+        <v>43843</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -841,31 +886,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43802</v>
+        <v>43846</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -873,31 +918,95 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43802</v>
+        <v>43851</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43856</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43858</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -920,6 +1029,10 @@
     <hyperlink ref="E9" r:id="rId16"/>
     <hyperlink ref="D10" r:id="rId17"/>
     <hyperlink ref="E10" r:id="rId18"/>
+    <hyperlink ref="D11" r:id="rId19"/>
+    <hyperlink ref="E11" r:id="rId20"/>
+    <hyperlink ref="D12" r:id="rId21"/>
+    <hyperlink ref="E12" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/szekelyhon_medve.xlsx
+++ b/data/szekelyhon_medve.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t>date</t>
   </si>
@@ -43,103 +43,106 @@
     <t>content</t>
   </si>
   <si>
-    <t>2019. december 25.</t>
-  </si>
-  <si>
-    <t>2019. december 26.</t>
-  </si>
-  <si>
-    <t>2020. január 02.</t>
-  </si>
-  <si>
-    <t>2020. január 04.</t>
-  </si>
-  <si>
-    <t>2020. január 06.</t>
-  </si>
-  <si>
-    <t>2020. január 11.</t>
-  </si>
-  <si>
-    <t>2020. január 13.</t>
-  </si>
-  <si>
-    <t>2020. január 16.</t>
-  </si>
-  <si>
-    <t>2020. január 21.</t>
-  </si>
-  <si>
-    <t>2020. január 26.</t>
-  </si>
-  <si>
-    <t>2020. január 28.</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/feldulva-talaltak-a-sirhelyeket</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/elutasitotta-medveugyben-a-zetelaki-terulettulajdonosi-tarsulas-keresetet-a-tablabirosag</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/vilag/visszatekinto-ezek-voltak-a-kozvelemenyt-leginkabb-erinto-temaink-2019-ben</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/ki-akadalyozta-meg-hogy-a-barnamedve-lekeruljon-a-szigoruan-vedett-allatfajok-listajarol-romaniaban</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/penzt-iger-a-miniszter-a-medvek-altal-veszelyeztetett-telepulesek-vedelmere</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/hargita-megye-megvan-az-ev-elso-112-s-medveeszlelese</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/aktivak-a-medvek-szekelyudvarhely-kornyeken</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/lemondott-a-vadasztarsasag-az-emberre-tamado-hidegkuti-medve-kiloveserol</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/szagra-jonnek-a-medvek</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/medveradar-zetelakan-es-farkaslakan-voltak-a-legaktivabbak-tavaly-a-nagyvadak</t>
-  </si>
-  <si>
-    <t>https://szekelyhon.ro/aktualis/gyergyoszentmiklos-utcain-koborolt-egy-medve</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_feldult-temeto-vaslab-9.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-18.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_ev-vege-szekelyhon.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-3.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medve-elutottek-ebe-3.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-8.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2016/12_januar/sm_medvebarlang-ab-1.jpg</t>
+    <t>2020. április 27.</t>
+  </si>
+  <si>
+    <t>2020. május 04.</t>
+  </si>
+  <si>
+    <t>2020. május 05.</t>
+  </si>
+  <si>
+    <t>2020. május 08.</t>
+  </si>
+  <si>
+    <t>2020. május 11.</t>
+  </si>
+  <si>
+    <t>2020. május 12.</t>
+  </si>
+  <si>
+    <t>2020. május 13.</t>
+  </si>
+  <si>
+    <t>2020. május 15.</t>
+  </si>
+  <si>
+    <t>2020. május 18.</t>
+  </si>
+  <si>
+    <t>2020. május 25.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/elpusztult-egy-medve-eted-hataraban-orvvadaszat-gyanujaval-vizsgalodik-a-rendorseg</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/celkeresztben-a-bmedvetorvenyr-n-a-vadaszok-szerint-a-szaktarca-osszemossa-a-fogalmakat</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tehetetlenek-a-lakok-az-ablakbol-kenytelenek-vegignezni-ahogy-a-medvek-elpusztitjak-a-haszonallataikat</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harom-juhot-olt-meg-a-medve-egy-farcadi-gazda-udvaran</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/athelyezik-egy-masik-teruletre-a-tusnadfurdore-napi-rendszeresseggel-bejaro-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvek-miatt-riasztottak-a-hatosagokat-es-ebresztettek-fel-almukbol-a-kornyeken-eloket</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kulon-megelozesi-kvotat-es-a-medvekarok-kifizeteset-kerik</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/a-kormoran-lekerulhet-a-vedett-fajok-listajarol-a-medve-viszont-mar-nem</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medve-hatolt-be-egy-tusnadfurdoi-portara</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harombocsos-anyamedve-bukkant-fel-gyergyoszentmikloson</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/boncolas-utan-ugy-velik-auto-uthette-el-az-elpusztult-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/a-villanypasztor-sem-allitotta-meg-a-medvet</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetetem-eted-ebe-04.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-90.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-89.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2020/11_februar/sm_medvezoo_06_hv.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-4.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/123rf/2020/sm_alvas-telefon-123rf.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetamadas-ebe-23.jpg</t>
   </si>
   <si>
     <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-12.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-24.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2013/12_januar/sm_medvek_kr_10.jpg</t>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/05_augusztus/sm_medvekiloves-csikszereda-gn_-21.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetetem-eted-ebe-03.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/08-maj/sm_eted-medvetamadas-ebe-64.jpg</t>
   </si>
   <si>
     <t>aktualis</t>
@@ -148,106 +151,124 @@
     <t>vilag</t>
   </si>
   <si>
-    <t>agerpres</t>
-  </si>
-  <si>
     <t>udvarhely</t>
   </si>
   <si>
+    <t>vasarhely</t>
+  </si>
+  <si>
     <t>csik</t>
   </si>
   <si>
-    <t>['Gyergyószék', 'medve']</t>
-  </si>
-  <si>
-    <t>['Hargita megye', 'medve']</t>
-  </si>
-  <si>
-    <t>['Belföld']</t>
-  </si>
-  <si>
-    <t>['Belföld', 'medve', 'RMDSZ']</t>
+    <t>123rf</t>
+  </si>
+  <si>
+    <t>['Etéd']</t>
+  </si>
+  <si>
+    <t>['Hargita megye', 'Háromszék', 'Marosszék']</t>
   </si>
   <si>
     <t>['Háromszék', 'medve']</t>
   </si>
   <si>
-    <t>['Csendőrség', 'medve', 'Parajd']</t>
+    <t>['Felsőboldogfalva', 'medve']</t>
+  </si>
+  <si>
+    <t>['medve', 'Tusnádfürdő']</t>
+  </si>
+  <si>
+    <t>['Gyergyószék', 'medve', 'Udvarhelyszék']</t>
+  </si>
+  <si>
+    <t>['Kovászna megye', 'medve']</t>
+  </si>
+  <si>
+    <t>['Belföld', 'medve']</t>
+  </si>
+  <si>
+    <t>['medve', 'Tusnád']</t>
+  </si>
+  <si>
+    <t>['Gyergyószentmiklós', 'medve']</t>
   </si>
   <si>
     <t>['medve', 'Udvarhelyszék']</t>
   </si>
   <si>
-    <t>['medve', 'Székelyudvarhely']</t>
-  </si>
-  <si>
-    <t>['Gyergyószentmiklós', 'medve']</t>
-  </si>
-  <si>
-    <t>Feldúlva találták a sírhelyeket</t>
-  </si>
-  <si>
-    <t>Elutasította medveügyben a Zetelaki Területtulajdonosi Társulás keresetét a táblabíróság</t>
-  </si>
-  <si>
-    <t>Visszatekintő: ezek voltak a közvéleményt leginkább foglalkoztató témáink 2019-ben</t>
-  </si>
-  <si>
-    <t>Ki akadályozta meg, hogy a barnamedve lekerüljön a szigorúan védett állatfajok listájáról Romániában?</t>
-  </si>
-  <si>
-    <t>Pénzt ígér a miniszter a medvék által veszélyeztetett települések védelmére</t>
-  </si>
-  <si>
-    <t>Hargita megye: megvan az év első 112-s medveészlelése</t>
-  </si>
-  <si>
-    <t>Aktívak a medvék Székelyudvarhely környékén</t>
-  </si>
-  <si>
-    <t>Lemondott a vadásztársaság az emberre támadó hidegkúti medve kilövéséről</t>
-  </si>
-  <si>
-    <t>Amíg elérhető közelségben van az ételmaradék, addig a medvék jelenlétére is számítani kell</t>
-  </si>
-  <si>
-    <t>Medveradar: Zetelakán és Farkaslakán voltak a legaktívabbak tavaly a nagyvadak</t>
-  </si>
-  <si>
-    <t>Gyergyószentmiklós utcáin kóborolt egy medve</t>
-  </si>
-  <si>
-    <t>Feldúlva találták a sírhelyeket, illetve azok környékét a Vasláb községhez tartozó hevederi temetőben. A nyomok alapján medvejárásra gyanakodnak.</t>
-  </si>
-  <si>
-    <t>Elutasította a Marosvásárhelyi Táblabíróság a Zetelaki Területtulajdonosi Társulás keresetét, amelyet a társulás a Környezetvédelmi Minisztérium ellen indított a vadgazdálkodási szabályozások alkalmazásának elmulasztása miatt. A társulás vezetője fellebbezést tervez.</t>
-  </si>
-  <si>
-    <t>Parkolás, pápalátogatás, temetőfoglalás, sportsikerek, véget nem érő medvetéma – a mögöttünk hagyott év székelyföldi közvéleményt leginkább érintő témáit gyűjtöttük csokorba, hónapokra lebontva.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Az állatvédők és az Európai Bizottság akadályozta meg, hogy a barnamedve öt évre lekerüljön a szigorúan védett állatfajok listájáról Romániában – állítja Benkő Erika RMDSZ-képviselő. </t>
-  </si>
-  <si>
-    <t>A háromszéki Zabolán tartott terepszemlét Costel Alexe környezetvédelmi miniszter, aki a látogatást követően arról számol be, hogy körvonalazódott egy olyan finanszírozási program, amely lehetővé teszi a medvék által veszélyeztetett települések védelmét.</t>
-  </si>
-  <si>
-    <t>Medvét látott a kertjében egy parajdi férfi a Sóhát utcában szombaton délután. A nagyvadat a gyümölcsfáknál fedezte fel, mintegy száz méterre a lakóháztól. Az esetet a 112-n jelentette, a helyszínre egy csendőri és egy mentőegység szállt ki.</t>
-  </si>
-  <si>
-    <t>Noha a magasabban fekvő térségekben már téli álmot alszanak a medvék, más területeken ez nem így van. Székelyudvarhely környékén például legalább tizenegy medve aktív jelenleg is, ezért a vadászok óvatosságra intenek.</t>
-  </si>
-  <si>
-    <t>Megúszta a kilövést a Hidegkúton emberre támadó medve, az illetékes vadásztársaságnál lemondtak arról, hogy a vad ártalmatlanítására rendkívüli jóváhagyást igényeljenek a környezetvédelmi minisztériumtól.</t>
-  </si>
-  <si>
-    <t>A szeméttárolók vonzzák a székelyudvarhelyi Cserehát lakónegyedbe az aktív nagyvadakat, ezért a Nagy-Küküllő Vadász- és Sporthorgász Egyesület medvebiztos kukákat rendelt, amelyeket a szemételszállító vállalattal egyeztetve helyezne ki. A medvék befogásával is próbálkoznak.</t>
-  </si>
-  <si>
-    <t>A kezdeti fellendülés után kissé lankadt az aktivitás a székelyföldi medveradar és -térkép néven emlegetett medveészlelő portálon, amelyet tavaly márciusban hozott létre Csala Dénes adatblogger. Ettől eltekintve a több mint 700 bejegyzést számláló medvetérkép a legszerteágazóbb adatbázisnak számít.</t>
-  </si>
-  <si>
-    <t>Egy városszéli üzemanyagtöltő állomásnál felbukkant medve miatt riasztották keddre virradóan a hatóságokat Gyergyószentmiklóson. Míg a csendőrök a nagyvadat kutatták, a vészhelyzeti felügyelőség a Ro-Alert rendszeren figyelmeztette a lakókat a veszélyre. A medvét végül megtalálták és elűzték.</t>
+    <t>['Etéd', 'medve']</t>
+  </si>
+  <si>
+    <t>Elpusztult egy medve Etéd határában, orvvadászat gyanújával vizsgálódik a rendőrség</t>
+  </si>
+  <si>
+    <t>Célkeresztben a „medvetörvény” – a vadászok szerint a szaktárca összemossa a fogalmakat</t>
+  </si>
+  <si>
+    <t>Tehetetlenek a lakók, az ablakból kénytelenek végignézni, ahogy a medvék elpusztítják a haszonállataikat</t>
+  </si>
+  <si>
+    <t>Három juhot ölt meg a medve egy farcádi gazda udvarán</t>
+  </si>
+  <si>
+    <t>Áthelyezik egy másik területre a Tusnádfürdőre napi rendszerességgel bejáró medvét</t>
+  </si>
+  <si>
+    <t>Medvék miatt riasztották a hatóságokat és ébresztették fel álmukból a környéken élőket</t>
+  </si>
+  <si>
+    <t>Külön megelőzési kvótát és a medvekárok kifizetését kérik</t>
+  </si>
+  <si>
+    <t>A kormorán lekerülhet a védett fajok listájáról, a medve viszont már nem?</t>
+  </si>
+  <si>
+    <t>Medve hatolt be egy tusnádfürdői portára</t>
+  </si>
+  <si>
+    <t>Hárombocsos anyamedve bukkant fel Gyergyószentmiklósnál</t>
+  </si>
+  <si>
+    <t>Boncolás után úgy vélik, autó üthette el az elpusztult medvét</t>
+  </si>
+  <si>
+    <t>A villanypásztor sem állította meg a medvét</t>
+  </si>
+  <si>
+    <t>Sérült medve miatt riasztották a hatóságokat Etéd határába hétfőn. Különleges intézkedésre nem volt szükség, az állat ugyanis időközben kimúlt.</t>
+  </si>
+  <si>
+    <t>A többéves tiltás után tavaly ugyan megszületett a törvény a medvekilövési kvóták jóváhagyásáról, ám úgy tűnik, a gyakorlatban ez nem történik meg. A beavatkozás és megelőzés fogalmakat összemosva alkotott rendelet-tervezetet a környezetvédelmi minisztérium a medvekilövések szabályozására.</t>
+  </si>
+  <si>
+    <t>Nemcsak éjszaka, hanem nappal is több medve jár be a háromszéki Zágon község falvaiba. Az emberek rettegnek, az életüket féltik, miközben a vadak számos háziállatot elpusztítottak már. Állandó a csendőri jelenlét, a Ro-Alert rendszeren keresztül egymás érik a vészhelyzeti riasztások.</t>
+  </si>
+  <si>
+    <t>Három juhot ölt meg a medve a hétfőről keddre virradó éjszaka a Hargita megyei Farcádon, egy gazda udvarán. A helybélieket a Ro-Alert rendszeren figyelmeztették a veszélyről.</t>
+  </si>
+  <si>
+    <t>A hatóságok kérésére át fogják helyezni egy másik területre azt a medvét, amely majdnem minden nap lelátogat a nappali órákban Tusnádfürdőre és a település utcáin kószál élelmet keresve. A helyi hatóságok várják a környezetvédelmi minisztérium ilyen irányú engedélyét.</t>
+  </si>
+  <si>
+    <t>Vaslábon egy ház udvarára, míg a Székelyudvarhelyhez tartozó Szejkefürdőn szintén egy háztartás udvarára járt be a medve vasárnap este. Mindkét esetben riasztották a hatóságokat, valamint figyelmeztetést küldtek a környéken élőknek a RO-Alert rendszeren keresztül.</t>
+  </si>
+  <si>
+    <t>A környezetvédelmi minisztérium a közvitára bocsátott rendelettervezetében összemossa a barnamedve kilövésére vonatkozó beavatkozási és megelőzési kvótát, és a vadkárok kifizetése is késik. Fejér László Ödön háromszéki szenátor levélben fordult Costel Alexe környezetvédelmi miniszterhez.</t>
+  </si>
+  <si>
+    <t>Képmutatásnak tartja Benkő Erika RMDSZ parlamenti képviselő, hogy a kormorán lekerülhet a védett fajok listájáról, a medve pedig nem. A parlamentbe benyújtott tervezet alapján levennék a kormoránt a szigorúan védett fajok listájáról, mert a madár túl sok halat eszik.</t>
+  </si>
+  <si>
+    <t>Egy tusnádfürdői portára ment be egy medve csütörtökön késő este negyed tizenegy körül. Behatolt a pincébe, és betört egy kis ablakot a ház hátsó részén.</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklós közelébe „tévedt” medvék miatt riasztották a hatóságokat péntek este. A lakókat a Ro-Alert rendszeren figyelmeztették a veszélyre.</t>
+  </si>
+  <si>
+    <t>A tetemen elvégzett boncolás eredményei szerint szinte biztosan egy autó üthette el azt a medvét, amelyet két hete találtak meg Kőrispatak határában a megyei úttól nem messze. A rendőrség még nyomoz az ügyben.</t>
+  </si>
+  <si>
+    <t>Nem először tört be medve az etédi Kelemen család portájára, ahol ezúttal egy bárányt ölt meg. A községben egyébként csak ebben az esztendőben már közel húsz hasonló eset történt, egyelőre azonban nincs megoldás a problémára. A vadászok kérni fogják a problémás egyed kilövését.</t>
   </si>
 </sst>
 </file>
@@ -622,7 +643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,31 +683,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43824</v>
+        <v>43948</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -694,31 +715,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43825</v>
+        <v>43955</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -726,13 +747,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43832</v>
+        <v>43956</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>33</v>
@@ -741,16 +762,16 @@
         <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -758,31 +779,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43834</v>
+        <v>43956</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -790,31 +811,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43836</v>
+        <v>43959</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -822,31 +843,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43841</v>
+        <v>43962</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -854,31 +875,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43843</v>
+        <v>43963</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -886,31 +907,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43846</v>
+        <v>43964</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -918,31 +939,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43851</v>
+        <v>43966</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -950,31 +971,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>43856</v>
+        <v>43966</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -982,31 +1003,63 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>43858</v>
+        <v>43969</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43976</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" t="s">
-        <v>77</v>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1033,6 +1086,8 @@
     <hyperlink ref="E11" r:id="rId20"/>
     <hyperlink ref="D12" r:id="rId21"/>
     <hyperlink ref="E12" r:id="rId22"/>
+    <hyperlink ref="D13" r:id="rId23"/>
+    <hyperlink ref="E13" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/szekelyhon_medve.xlsx
+++ b/data/szekelyhon_medve.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="413">
   <si>
     <t>date</t>
   </si>
@@ -43,6 +43,72 @@
     <t>content</t>
   </si>
   <si>
+    <t>2019. december 21.</t>
+  </si>
+  <si>
+    <t>2019. december 25.</t>
+  </si>
+  <si>
+    <t>2019. december 26.</t>
+  </si>
+  <si>
+    <t>2020. január 02.</t>
+  </si>
+  <si>
+    <t>2020. január 04.</t>
+  </si>
+  <si>
+    <t>2020. január 06.</t>
+  </si>
+  <si>
+    <t>2020. január 11.</t>
+  </si>
+  <si>
+    <t>2020. január 13.</t>
+  </si>
+  <si>
+    <t>2020. január 16.</t>
+  </si>
+  <si>
+    <t>2020. január 21.</t>
+  </si>
+  <si>
+    <t>2020. január 26.</t>
+  </si>
+  <si>
+    <t>2020. január 28.</t>
+  </si>
+  <si>
+    <t>2020. február 03.</t>
+  </si>
+  <si>
+    <t>2020. február 23.</t>
+  </si>
+  <si>
+    <t>2020. március 02.</t>
+  </si>
+  <si>
+    <t>2020. március 04.</t>
+  </si>
+  <si>
+    <t>2020. március 10.</t>
+  </si>
+  <si>
+    <t>2020. március 16.</t>
+  </si>
+  <si>
+    <t>2020. április 05.</t>
+  </si>
+  <si>
+    <t>2020. április 15.</t>
+  </si>
+  <si>
+    <t>2020. április 18.</t>
+  </si>
+  <si>
+    <t>2020. április 20.</t>
+  </si>
+  <si>
     <t>2020. április 27.</t>
   </si>
   <si>
@@ -73,18 +139,189 @@
     <t>2020. május 25.</t>
   </si>
   <si>
+    <t>2020. május 29.</t>
+  </si>
+  <si>
+    <t>2020. május 31.</t>
+  </si>
+  <si>
+    <t>2020. június 01.</t>
+  </si>
+  <si>
+    <t>2020. június 02.</t>
+  </si>
+  <si>
+    <t>2020. június 04.</t>
+  </si>
+  <si>
+    <t>2020. június 08.</t>
+  </si>
+  <si>
+    <t>2020. június 10.</t>
+  </si>
+  <si>
+    <t>2020. június 15.</t>
+  </si>
+  <si>
+    <t>2020. június 18.</t>
+  </si>
+  <si>
+    <t>2020. június 19.</t>
+  </si>
+  <si>
+    <t>2020. június 22.</t>
+  </si>
+  <si>
+    <t>2020. június 24.</t>
+  </si>
+  <si>
+    <t>2020. június 26.</t>
+  </si>
+  <si>
+    <t>2020. június 27.</t>
+  </si>
+  <si>
+    <t>2020. június 29.</t>
+  </si>
+  <si>
+    <t>2020. június 30.</t>
+  </si>
+  <si>
+    <t>2020. július 02.</t>
+  </si>
+  <si>
+    <t>2020. július 06.</t>
+  </si>
+  <si>
+    <t>2020. július 08.</t>
+  </si>
+  <si>
+    <t>2020. július 13.</t>
+  </si>
+  <si>
+    <t>2020. július 14.</t>
+  </si>
+  <si>
+    <t>2020. július 15.</t>
+  </si>
+  <si>
+    <t>2020. július 18.</t>
+  </si>
+  <si>
+    <t>2020. július 19.</t>
+  </si>
+  <si>
+    <t>2020. július 30.</t>
+  </si>
+  <si>
+    <t>2020. augusztus 09.</t>
+  </si>
+  <si>
+    <t>2020. augusztus 14.</t>
+  </si>
+  <si>
+    <t>2020. augusztus 18.</t>
+  </si>
+  <si>
+    <t>2020. augusztus 21.</t>
+  </si>
+  <si>
+    <t>2020. augusztus 22.</t>
+  </si>
+  <si>
+    <t>2020. augusztus 23.</t>
+  </si>
+  <si>
+    <t>2020. augusztus 24.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nem-pontosak-a-belugyi-tarca-medvetamadasokra-vonatkozo-adatai-n-allitja-egy-politikus</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/feldulva-talaltak-a-sirhelyeket</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/elutasitotta-medveugyben-a-zetelaki-terulettulajdonosi-tarsulas-keresetet-a-tablabirosag</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/visszatekinto-ezek-voltak-a-kozvelemenyt-leginkabb-erinto-temaink-2019-ben</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ki-akadalyozta-meg-hogy-a-barnamedve-lekeruljon-a-szigoruan-vedett-allatfajok-listajarol-romaniaban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/penzt-iger-a-miniszter-a-medvek-altal-veszelyeztetett-telepulesek-vedelmere</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/hargita-megye-megvan-az-ev-elso-112-s-medveeszlelese</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/aktivak-a-medvek-szekelyudvarhely-kornyeken</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/lemondott-a-vadasztarsasag-az-emberre-tamado-hidegkuti-medve-kiloveserol</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/szagra-jonnek-a-medvek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medveradar-zetelakan-es-farkaslakan-voltak-a-legaktivabbak-tavaly-a-nagyvadak</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/gyergyoszentmiklos-utcain-koborolt-egy-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/lakott-teruletektol-tavol-engedtek-szabadon-a-szekelyudvarhelyen-befogott-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/videon-ahogy-szabadon-engedik-a-szekelyudvarhelyen-befogott-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/meg-nem-tudni-hogy-mennyi-medvet-lehet-majd-kiloni</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/bevalt-a-modszer-megijedt-az-emberektol-a-szabadon-engedett-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ujra-garazdalkodnak-a-medvek-maros-megyeben</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kilovesi-engedelyt-kertek-a-maros-megyeben-garazdalkodo-medvere</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ket-medvet-latott-egy-no-a-haza-kozeleben-egyet-talaltak-a-helyszinen-a-csendorok</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/egy-anyamedve-es-a-bocsa-okozott-riadalmat</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/egy-honap-sem-kell-es-megnovekednek-a-medvekarok-a-populacio-tulszaporodasa-miatt</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/juhokat-oltek-es-baranyokat-vittek-el-a-nagyvadak</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/figyelmezteto-lovesekkel-kergettek-el-a-szekelyudvarhelyre-bejaro-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harom-medve-jart-be-egy-ulkei-gazdasagba</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harom-medve-egy-csikbankfalvi-portan</t>
+  </si>
+  <si>
     <t>https://szekelyhon.ro/aktualis/elpusztult-egy-medve-eted-hataraban-orvvadaszat-gyanujaval-vizsgalodik-a-rendorseg</t>
   </si>
   <si>
     <t>https://szekelyhon.ro/aktualis/celkeresztben-a-bmedvetorvenyr-n-a-vadaszok-szerint-a-szaktarca-osszemossa-a-fogalmakat</t>
   </si>
   <si>
+    <t>https://szekelyhon.ro/aktualis/harom-juhot-olt-meg-a-medve-egy-farcadi-gazda-udvaran</t>
+  </si>
+  <si>
     <t>https://szekelyhon.ro/aktualis/tehetetlenek-a-lakok-az-ablakbol-kenytelenek-vegignezni-ahogy-a-medvek-elpusztitjak-a-haszonallataikat</t>
   </si>
   <si>
-    <t>https://szekelyhon.ro/aktualis/harom-juhot-olt-meg-a-medve-egy-farcadi-gazda-udvaran</t>
-  </si>
-  <si>
     <t>https://szekelyhon.ro/aktualis/athelyezik-egy-masik-teruletre-a-tusnadfurdore-napi-rendszeresseggel-bejaro-medvet</t>
   </si>
   <si>
@@ -109,18 +346,210 @@
     <t>https://szekelyhon.ro/aktualis/a-villanypasztor-sem-allitotta-meg-a-medvet</t>
   </si>
   <si>
+    <t>https://szekelyhon.ro/aktualis/tyukokat-olt-a-medve-vaslabon</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/fara-maszott-medvebocsot-mentettek-meg</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ismet-tyukokat-pusztitott-a-medve-vaslabon</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ketbocsos-anyamedvet-zavartak-el-a-csendorok-a-tusnadfurdoi-vonatallomas-kozelebol</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvebocsot-pusztithatott-el-egy-masik-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/fara-menekultek-a-medvebocsok-mikozben-anyjuk-egy-masik-medvevel-verekedett</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/barmely-napszakban-a-varos-barmely-pontjan-felbukkanhatnak-a-medvek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvenagyuzem-tusnadfurdon</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/uzletnel-jart-a-medve-hiaba-kergettek-el-visszatert</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tusnadfurdoi-helyzetkep-keves-turista-sok-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/fenyes-nappal-fogtak-be-egy-serult-medvet-szekelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/visszaengedtek-az-erdobe-a-szekelyudvarhelyen-befogott-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/jelen-allas-szerint-nem-nyitnak-ki-a-napkozik-es-a-bolcsodek-csikszeredaban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/maradj-otthon-ezuttal-medve-miatt</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvejaras-tusnadfurdon-marosfon-es-csobotfalvan</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/lakossagi-panasz-hianyaban-semmit-sem-tehetnek-a-csikszeredaban-garazdalkodo-medve-ellen</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/mar-egy-egyszeru-kirandulas-is-veszelyesse-valt-a-medveproblemak-miatt</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medve-jarkalt-csikszereda-utcain</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/gyarapodo-medvekarok-szekelyudvarhelyen-es-kornyeken</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ket-medve-a-szekelyudvarhelyi-szaszok-taboraban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tejjel-taplaltak-a-magara-hagyott-medvebocsot</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tobb-medve-is-bejar-csikszeredaba-egyikre-mar-kilovesi-engedelyt-kertek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvet-gazoltak-el-csikszereda-kozeleben</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/megbirsagoltatna-a-kornyezetvedelmi-miniszter-azokat-akik-medveket-etetnek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nyilt-levelben-fordult-az-orszag-vezetoihez-a-medvejaras-miatt-tusnadfurdo-polgarmestere</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nagy-volt-a-medvejaras-hetvegen-hargita-megyeben</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ket-medve-is-bement-szekelyudvarhelyre</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medveket-kergettek-el-a-hatosagiak-szekelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tobb-mint-tiz-tehenet-oltek-meg-a-medvek-a-gyergyoszentmikloshoz-tartozo-legelokon</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvekerdes-megoldas-helyett-munkacsoportot-iger-a-miniszter</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kerulik-a-lakott-telepuleseket-a-vadonba-visszaengedett-medvek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kovasznai-gondok-a-medvek-nem-felnek-az-embertol-a-turistak-nem-felnek-a-medvektol</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/erdeigyumolcs-ultetvennyel-tartanak-tavol-az-uduloteleptol-a-gyilkostoi-medveket</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/magyarorszagi-medveotthonba-kerulhet-nehany-a-tusnadfurdoi-medvek-kozul</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medveparkot-hoznanak-letre</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/beperelte-a-miniszteriumot-egy-medvetamadas-serultje-elso-fokon-karteritesre-jogosult</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/masodik-napja-hogy-a-borvizforras-kornyeken-koszalo-medvere-figyelmeztetnek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/iskolaudvarrol-kellett-kiuzni-egy-medvet-csikszeredaban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/elejtettek-a-csikszeredaban-tobbszor-is-felbukkano-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/a-foterig-mereszkedett-a-csikszeredaban-felbukkant-ujabb-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/egyik-utan-a-masik-n-miert-latni-gyakran-medvet-csikszeredaban</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_medvek-szentimren.png</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_feldult-temeto-vaslab-9.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-18.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/10_kiemelesek/sm_ev-vege-szekelyhon.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/03_oktober/03/sm_medve-elutottek-ebe-3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2016/12_januar/sm_medvebarlang-ab-1.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-12.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-24.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2013/12_januar/sm_medvek_kr_10.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-78.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-86.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-12.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-81.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2020/10_marcius/sm_medve3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2020/11_februar/sm_medvezoo_16_hv.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-6.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetamadas-ebe-31.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2015/07_junius/sm_kukazo-medvek-vn-022.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/dronfoci/sm_dji-dronfoci-csikszentgyorgy-domokos-pnt-3.jpg</t>
+  </si>
+  <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetetem-eted-ebe-04.jpg</t>
   </si>
   <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-90.jpg</t>
   </si>
   <si>
+    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2020/11_februar/sm_medvezoo_06_hv.jpg</t>
+  </si>
+  <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-89.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2020/11_februar/sm_medvezoo_06_hv.jpg</t>
-  </si>
-  <si>
     <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-4.jpg</t>
   </si>
   <si>
@@ -130,12 +559,6 @@
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetamadas-ebe-23.jpg</t>
   </si>
   <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-12.jpg</t>
-  </si>
-  <si>
-    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-8.jpg</t>
-  </si>
-  <si>
     <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/05_augusztus/sm_medvekiloves-csikszereda-gn_-21.jpg</t>
   </si>
   <si>
@@ -145,33 +568,177 @@
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/08-maj/sm_eted-medvetamadas-ebe-64.jpg</t>
   </si>
   <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetamadas-ebe-41.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/12_kiemelesek/sm_medvebocs1-mentes.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetamadas-ebe-21.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/05_augusztus/sm_elgazolt_medvebocs_ga-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/2019_kepvalogatas/sm_52_kukazomedvek-tusnadfurdo-pnt-13.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medve-tusnadfurdon-junius-pnt-7.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medve-tusnadfurdon-junius-pnt-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medve-a-fan-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_tusvanyos-elokeszuletek-szombat-pnt-11.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/07-juni/sm_medvebocs-befogas-ebe-106.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/07-juni/sm_medvebocs-elengedes-ebe-66.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2016/07_junius/sm_bolcsode-vn-005.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/12_kiemelesek/sm_roalert-medve-oroszhegy.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_maci-korhazmellett-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_malom-utca-vn-004.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medve-tusnadfurdon-junius-pnt-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/12_kiemelesek/sm_medve-fortuna.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-53.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medvebocs-tusnadfurdo-hataraban01.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/06_julius/sm_elgazolt-medve-13a-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_tusnadfurdoi-anyamedve-pnt-4.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_tusnadfurdoi-anyamedve-pnt-2.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_tusnadfurdoi-anyamedve-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/04_szeptember/02/sm_szentimre_utca_belo-14.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/06-juli/sm_medve_udvarhely_belo-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/08_majus/03/sm_medvetamadas-kapolnas-ba-16.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/06-juli/sm_medve_udvarhely_belo-10.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/gyergyo/aktualis/2020/sm_gyilkos-to_vendeglok.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/07-juni/sm_medvebocs-befogas-ebe-112.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/05_augusztus/02/sm_medvehajto-csendorok-nyereg-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/07_junius/02/sm_medveles-bogoz-ba-87.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/05_augusztus/sm_medvekiloves-csikszereda-gn_-26.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/05_augusztus/02/sm_medvegif.gif</t>
+  </si>
+  <si>
     <t>aktualis</t>
   </si>
   <si>
     <t>vilag</t>
   </si>
   <si>
+    <t>csik</t>
+  </si>
+  <si>
+    <t>agerpres</t>
+  </si>
+  <si>
     <t>udvarhely</t>
   </si>
   <si>
     <t>vasarhely</t>
   </si>
   <si>
-    <t>csik</t>
-  </si>
-  <si>
     <t>123rf</t>
   </si>
   <si>
+    <t>2019_kepvalogatas</t>
+  </si>
+  <si>
+    <t>gyergyo</t>
+  </si>
+  <si>
+    <t>['Hargita megye', 'Marosszék', 'medve']</t>
+  </si>
+  <si>
+    <t>['Gyergyószék', 'medve']</t>
+  </si>
+  <si>
+    <t>['Hargita megye', 'medve']</t>
+  </si>
+  <si>
+    <t>['Belföld']</t>
+  </si>
+  <si>
+    <t>['Belföld', 'medve', 'RMDSZ']</t>
+  </si>
+  <si>
+    <t>['Háromszék', 'medve']</t>
+  </si>
+  <si>
+    <t>['Csendőrség', 'medve', 'Parajd']</t>
+  </si>
+  <si>
+    <t>['medve', 'Udvarhelyszék']</t>
+  </si>
+  <si>
+    <t>['medve', 'Székelyudvarhely']</t>
+  </si>
+  <si>
+    <t>['Gyergyószentmiklós', 'medve']</t>
+  </si>
+  <si>
+    <t>['Hargita megye', 'Kovászna megye', 'Maros megye', 'medve']</t>
+  </si>
+  <si>
+    <t>['Maros megye', 'medve']</t>
+  </si>
+  <si>
+    <t>['Csíkszentgyörgy', 'medve']</t>
+  </si>
+  <si>
     <t>['Etéd']</t>
   </si>
   <si>
     <t>['Hargita megye', 'Háromszék', 'Marosszék']</t>
   </si>
   <si>
-    <t>['Háromszék', 'medve']</t>
-  </si>
-  <si>
     <t>['Felsőboldogfalva', 'medve']</t>
   </si>
   <si>
@@ -190,27 +757,123 @@
     <t>['medve', 'Tusnád']</t>
   </si>
   <si>
-    <t>['Gyergyószentmiklós', 'medve']</t>
-  </si>
-  <si>
-    <t>['medve', 'Udvarhelyszék']</t>
-  </si>
-  <si>
     <t>['Etéd', 'medve']</t>
   </si>
   <si>
+    <t>['Turizmus', 'Tusnádfürdő']</t>
+  </si>
+  <si>
+    <t>['Csíkszereda']</t>
+  </si>
+  <si>
+    <t>['medve', 'Oroszhegy']</t>
+  </si>
+  <si>
+    <t>['Csíkszereda', 'medve']</t>
+  </si>
+  <si>
+    <t>['Hargita megye']</t>
+  </si>
+  <si>
+    <t>['Baleset', 'Csíkszereda', 'medve']</t>
+  </si>
+  <si>
+    <t>['medve']</t>
+  </si>
+  <si>
+    <t>['Gyergyószék', 'medve', 'Turizmus']</t>
+  </si>
+  <si>
+    <t>['Magyarország', 'medve', 'Tusnádfürdő']</t>
+  </si>
+  <si>
+    <t>Nem pontosak a belügyi tárca medvetámadásokra vonatkozó adatai – állítja egy politikus</t>
+  </si>
+  <si>
+    <t>Feldúlva találták a sírhelyeket</t>
+  </si>
+  <si>
+    <t>Elutasította medveügyben a Zetelaki Területtulajdonosi Társulás keresetét a táblabíróság</t>
+  </si>
+  <si>
+    <t>Visszatekintő: ezek voltak a közvéleményt leginkább foglalkoztató témáink 2019-ben</t>
+  </si>
+  <si>
+    <t>Ki akadályozta meg, hogy a barnamedve lekerüljön a szigorúan védett állatfajok listájáról Romániában?</t>
+  </si>
+  <si>
+    <t>Pénzt ígér a miniszter a medvék által veszélyeztetett települések védelmére</t>
+  </si>
+  <si>
+    <t>Hargita megye: megvan az év első 112-s medveészlelése</t>
+  </si>
+  <si>
+    <t>Aktívak a medvék Székelyudvarhely környékén</t>
+  </si>
+  <si>
+    <t>Lemondott a vadásztársaság az emberre támadó hidegkúti medve kilövéséről</t>
+  </si>
+  <si>
+    <t>Amíg elérhető közelségben van az ételmaradék, addig a medvék jelenlétére is számítani kell</t>
+  </si>
+  <si>
+    <t>Medveradar: Zetelakán és Farkaslakán voltak a legaktívabbak tavaly a nagyvadak</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklós utcáin kóborolt egy medve</t>
+  </si>
+  <si>
+    <t>Lakott területektől távol engedték szabadon a Székelyudvarhelyen befogott medvét</t>
+  </si>
+  <si>
+    <t>Videón, ahogy szabadon engedik a Székelyudvarhelyen befogott medvét</t>
+  </si>
+  <si>
+    <t>Még nem tudni, hogy mennyi medvét lehet majd kilőni</t>
+  </si>
+  <si>
+    <t>Bevált a módszer, megijedt az emberektől a szabadon engedett medve</t>
+  </si>
+  <si>
+    <t>Újra garázdálkodnak a medvék Maros megyében</t>
+  </si>
+  <si>
+    <t>Kilövési engedélyt kértek a Maros megyében garázdálkodó medvére</t>
+  </si>
+  <si>
+    <t>Két medvét látott egy nő a háza közelében, egyet találtak a helyszínen a csendőrök</t>
+  </si>
+  <si>
+    <t>Egy anyamedve és a bocsa okozott riadalmat</t>
+  </si>
+  <si>
+    <t>Egy hónap sem kell, és megnövekednek a medvekárok a populáció túlszaporodása miatt</t>
+  </si>
+  <si>
+    <t>Juhokat öltek és bárányokat vittek el a nagyvadak</t>
+  </si>
+  <si>
+    <t>Figyelmeztető lövésekkel kergették el a Székelyudvarhelyre betérő medvét</t>
+  </si>
+  <si>
+    <t>Három medve járt be egy ülkei gazdaságba</t>
+  </si>
+  <si>
+    <t>Három medve egy csíkbánkfalvi portán</t>
+  </si>
+  <si>
     <t>Elpusztult egy medve Etéd határában, orvvadászat gyanújával vizsgálódik a rendőrség</t>
   </si>
   <si>
     <t>Célkeresztben a „medvetörvény” – a vadászok szerint a szaktárca összemossa a fogalmakat</t>
   </si>
   <si>
+    <t>Három juhot ölt meg a medve egy farcádi gazda udvarán</t>
+  </si>
+  <si>
     <t>Tehetetlenek a lakók, az ablakból kénytelenek végignézni, ahogy a medvék elpusztítják a haszonállataikat</t>
   </si>
   <si>
-    <t>Három juhot ölt meg a medve egy farcádi gazda udvarán</t>
-  </si>
-  <si>
     <t>Áthelyezik egy másik területre a Tusnádfürdőre napi rendszerességgel bejáró medvét</t>
   </si>
   <si>
@@ -235,18 +898,216 @@
     <t>A villanypásztor sem állította meg a medvét</t>
   </si>
   <si>
+    <t>Tyúkokat ölt a medve Vaslábon</t>
+  </si>
+  <si>
+    <t>Fára mászott medvebocsot mentettek meg</t>
+  </si>
+  <si>
+    <t>Ismét tyúkokat pusztított a medve Vaslábon</t>
+  </si>
+  <si>
+    <t>Kétbocsos anyamedvét zavartak el a csendőrök a tusnádfürdői vonatállomás közeléből</t>
+  </si>
+  <si>
+    <t>Medvebocsot pusztíthatott el egy másik medve</t>
+  </si>
+  <si>
+    <t>Két anyamedve verekedett össze Tusnádfürdőn, egy bocs áldozatul esett</t>
+  </si>
+  <si>
+    <t>Bármely napszakban, a város bármely pontján felbukkanhatnak a medvék</t>
+  </si>
+  <si>
+    <t>Medvenagyüzem Tusnádfürdőn</t>
+  </si>
+  <si>
+    <t>Üzletnél járt a medve, hiába kergették el, visszatért</t>
+  </si>
+  <si>
+    <t>Tusnádfürdői helyzetkép: kevés turista, sok medve</t>
+  </si>
+  <si>
+    <t>Fényes nappal fogtak be egy sérült medvét Székelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>Visszaengedték az erdőbe a Székelyudvarhelyen befogott medvét</t>
+  </si>
+  <si>
+    <t>Jelen állás szerint nem nyitnak ki a napközik és a bölcsődék Csíkszeredában</t>
+  </si>
+  <si>
+    <t>Maradj otthon, ezúttal medve miatt</t>
+  </si>
+  <si>
+    <t>Medvejárás Tusnádfürdőn, Marosfőn és Csobotfalván</t>
+  </si>
+  <si>
+    <t>Lakossági panasz hiányában semmit sem tehetnek a Csíkszeredában garázdálkodó medve ellen</t>
+  </si>
+  <si>
+    <t>Már egy egyszerű kirándulás is veszélyessé vált a medveproblémák miatt</t>
+  </si>
+  <si>
+    <t>Medve járkált Csíkszereda utcáin</t>
+  </si>
+  <si>
+    <t>Gyarapodó medvekárok Székelyudvarhelyen és környékén</t>
+  </si>
+  <si>
+    <t>Két medve a székelyudvarhelyi Szászok táborában</t>
+  </si>
+  <si>
+    <t>Tejjel táplálták a magára hagyott medvebocsot</t>
+  </si>
+  <si>
+    <t>Több medve is bejár Csíkszeredába, egyikre már kilövési engedélyt kértek</t>
+  </si>
+  <si>
+    <t>Medvét gázoltak el Csíkszereda közelében</t>
+  </si>
+  <si>
+    <t>Megbírságoltatná a környezetvédelmi miniszter azokat, akik medvéket etetnek</t>
+  </si>
+  <si>
+    <t>Nyílt levélben fordult az ország vezetőihez a medvejárás miatt Tusnádfürdő polgármestere</t>
+  </si>
+  <si>
+    <t>Nagy volt a medvejárás hétvégén Hargita megyében</t>
+  </si>
+  <si>
+    <t>Két medve is bement Székelyudvarhelyre</t>
+  </si>
+  <si>
+    <t>Medvéket kergettek el a hatóságiak Székelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>Több mint tíz tehenet öltek meg a medvék a Gyergyószentmiklóshoz tartozó legelőkön</t>
+  </si>
+  <si>
+    <t>Medvekérdés: megoldás helyett munkacsoportot ígér a miniszter</t>
+  </si>
+  <si>
+    <t>Kerülik a lakott településeket a vadonba visszaengedett medvék</t>
+  </si>
+  <si>
+    <t>Kovásznai gondok: a medvék nem félnek az embertől, a turisták nem félnek a medvéktől</t>
+  </si>
+  <si>
+    <t>Erdeigyümölcs-ültetvénnyel tartanák távol az üdülőteleptől a gyilkostói medvéket</t>
+  </si>
+  <si>
+    <t>Magyarországi medveotthonba kerülhet néhány a tusnádfürdői medvék közül</t>
+  </si>
+  <si>
+    <t>Medveparkot hoznának létre</t>
+  </si>
+  <si>
+    <t>Beperelte a minisztériumot egy medvetámadás sérültje, első fokon kártérítésre jogosult</t>
+  </si>
+  <si>
+    <t>Második napja, hogy a borvízforrás környékén kószáló medvére figyelmeztetnek</t>
+  </si>
+  <si>
+    <t>Iskolaudvarról kellett kiűzni egy medvét Csíkszeredában</t>
+  </si>
+  <si>
+    <t>Elejtették a Csíkszeredában többször is felbukkanó medvét</t>
+  </si>
+  <si>
+    <t>A főtérig merészkedett a Csíkszeredában felbukkant újabb medve</t>
+  </si>
+  <si>
+    <t>Egyik a másik után – miért látni gyakran medvét Csíkszeredában?</t>
+  </si>
+  <si>
+    <t>Nem pontosak a belügyminisztérium kimutatásai a medvetámadásokról – állítja a Népi Mozgalom Párt Maros megyei képviselője, Marius Paşcan. A politikus által kikért adatok szerint az országban Hargita megyében van a legtöbb medve, közel kétezer.</t>
+  </si>
+  <si>
+    <t>Feldúlva találták a sírhelyeket, illetve azok környékét a Vasláb községhez tartozó hevederi temetőben. A nyomok alapján medvejárásra gyanakodnak.</t>
+  </si>
+  <si>
+    <t>Elutasította a Marosvásárhelyi Táblabíróság a Zetelaki Területtulajdonosi Társulás keresetét, amelyet a társulás a Környezetvédelmi Minisztérium ellen indított a vadgazdálkodási szabályozások alkalmazásának elmulasztása miatt. A társulás vezetője fellebbezést tervez.</t>
+  </si>
+  <si>
+    <t>Parkolás, pápalátogatás, temetőfoglalás, sportsikerek, véget nem érő medvetéma – a mögöttünk hagyott év székelyföldi közvéleményt leginkább érintő témáit gyűjtöttük csokorba, hónapokra lebontva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Az állatvédők és az Európai Bizottság akadályozta meg, hogy a barnamedve öt évre lekerüljön a szigorúan védett állatfajok listájáról Romániában – állítja Benkő Erika RMDSZ-képviselő. </t>
+  </si>
+  <si>
+    <t>A háromszéki Zabolán tartott terepszemlét Costel Alexe környezetvédelmi miniszter, aki a látogatást követően arról számol be, hogy körvonalazódott egy olyan finanszírozási program, amely lehetővé teszi a medvék által veszélyeztetett települések védelmét.</t>
+  </si>
+  <si>
+    <t>Medvét látott a kertjében egy parajdi férfi a Sóhát utcában szombaton délután. A nagyvadat a gyümölcsfáknál fedezte fel, mintegy száz méterre a lakóháztól. Az esetet a 112-n jelentette, a helyszínre egy csendőri és egy mentőegység szállt ki.</t>
+  </si>
+  <si>
+    <t>Noha a magasabban fekvő térségekben már téli álmot alszanak a medvék, más területeken ez nem így van. Székelyudvarhely környékén például legalább tizenegy medve aktív jelenleg is, ezért a vadászok óvatosságra intenek.</t>
+  </si>
+  <si>
+    <t>Megúszta a kilövést a Hidegkúton emberre támadó medve, az illetékes vadásztársaságnál lemondtak arról, hogy a vad ártalmatlanítására rendkívüli jóváhagyást igényeljenek a környezetvédelmi minisztériumtól.</t>
+  </si>
+  <si>
+    <t>A szeméttárolók vonzzák a székelyudvarhelyi Cserehát lakónegyedbe az aktív nagyvadakat, ezért a Nagy-Küküllő Vadász- és Sporthorgász Egyesület medvebiztos kukákat rendelt, amelyeket a szemételszállító vállalattal egyeztetve helyezne ki. A medvék befogásával is próbálkoznak.</t>
+  </si>
+  <si>
+    <t>A kezdeti fellendülés után kissé lankadt az aktivitás a székelyföldi medveradar és -térkép néven emlegetett medveészlelő portálon, amelyet tavaly márciusban hozott létre Csala Dénes adatblogger. Ettől eltekintve a több mint 700 bejegyzést számláló medvetérkép a legszerteágazóbb adatbázisnak számít.</t>
+  </si>
+  <si>
+    <t>Egy városszéli üzemanyagtöltő állomásnál felbukkant medve miatt riasztották keddre virradóan a hatóságokat Gyergyószentmiklóson. Míg a csendőrök a nagyvadat kutatták, a vészhelyzeti felügyelőség a Ro-Alert rendszeren figyelmeztette a lakókat a veszélyre. A medvét végül megtalálták és elűzték.</t>
+  </si>
+  <si>
+    <t>Medvét fogott a székelyudvarhelyi Cserehát lakótelep közelében a Nagy-Küküllő Vadász- és Sporthorgász Egyesület az ebből a célból megépített csapdájával. A vadat a Hargita-hegység lábához szállították, majd szabadon engedték. A cél az volt, hogy a kilövés helyett új esélyt adjanak a fiatal nagyvadnak.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Hargita-hegység lábához szállították, majd szabadon engedték azt a medvét, amelyet a székelyudvarhelyi Cserehát lakótelep közelében a Nagy-Küküllő Vadász- és Sporthorgász Egyesület az ebből a célból megépített csapdájával fogott el. </t>
+  </si>
+  <si>
+    <t>A vadászok számításai szerint országszerte legalább ötszáz medve kilövésére ad jóváhagyást idén a környezetvédelmi minisztérium a vadszámfelmérések eredménye alapján. A medvevadászat 2016-ban elrendelt teljes betiltása óta először hagyhatja jóvá idén a kilövési kereteket a szaktárca.</t>
+  </si>
+  <si>
+    <t>Nem ment a lakott területek közelébe a székelyudvarhelyi Cserehát-negyed környékén befogott, majd a Madarasi Hargitán szabadon engedett medve. A vadászok szerint a csapda ugyan bevált, de mindenképp szükség van a kilövési kvótákra is.</t>
+  </si>
+  <si>
+    <t>Hétvégén több Maros megyei településéről is jelezték, hogy medve járt a gazdaságokban, állatokat pusztított el.</t>
+  </si>
+  <si>
+    <t>Az elmúlt néhány nap alatt immár nyolc helyen okozott kárt a medve Maros megyében. Szerdán a prefektus összehívta a sürgősségi esetek parancsnokságát, és elhatározták, hogy kilövési engedélyt kérnek egy nagyvadra.</t>
+  </si>
+  <si>
+    <t>Csendőröket mozgósítottak és Ro-Alert vészhelyzeti üzenetet küldtek hétfőn éjfélkor Vaslábon, miután egy nő két medvét látott lakóháza udvarának közelében.</t>
+  </si>
+  <si>
+    <t>Csendőrségi beavatkozásra volt szükség hétfőre virradóan Vaslábon, ahol anyamedve jelent meg a bocsával – számol be az Agerpres.</t>
+  </si>
+  <si>
+    <t>Gyergyó-, Csík- és Udvarhelyszéken is aktívak már a medvék – van olyan település is, ahol háziállatokra támadtak, de egyelőre ez nem jellemző. A vadásztársulatok vezetői szerint a későbbiekben azonban a tavalyinál is több probléma lesz.</t>
+  </si>
+  <si>
+    <t>Két bocs és egy anyamedve garázdálkodott szerdán hajnalban egy székelyszenttamási gazdaságban, ahol több juhot és bárányt is megölt. A gazda maga is látta a támadókat, reflektorokkal és kiabálással próbálta elriasztani, de azok csak a pusztítás után távoztak.</t>
+  </si>
+  <si>
+    <t>Egy nagyjából hároméves medve kóborolt szerda éjjel a székelyudvarhelyi II. Rákóczi Ferenc utcában – az esetet a Ro-Alert telefonos riasztórendszer is jelezte.</t>
+  </si>
+  <si>
+    <t>Három medve járt be péntek éjszaka egy, az Oroszhegyhez tartozó ülkei háztartásba, feltételezhetően egy anyamedve, két bocsával – tájékoztat közleményben a Hargita Megyei Csendőr-felügyelőség.</t>
+  </si>
+  <si>
+    <t>Három medve járt be hétfőn koraeste egy csíkbánkfalvi portára. A medvék jelenlétét egy helyi lakos jelentette a 112-es egységes hívószámon 19 óra 37 perckor.</t>
+  </si>
+  <si>
     <t>Sérült medve miatt riasztották a hatóságokat Etéd határába hétfőn. Különleges intézkedésre nem volt szükség, az állat ugyanis időközben kimúlt.</t>
   </si>
   <si>
     <t>A többéves tiltás után tavaly ugyan megszületett a törvény a medvekilövési kvóták jóváhagyásáról, ám úgy tűnik, a gyakorlatban ez nem történik meg. A beavatkozás és megelőzés fogalmakat összemosva alkotott rendelet-tervezetet a környezetvédelmi minisztérium a medvekilövések szabályozására.</t>
   </si>
   <si>
+    <t>Három juhot ölt meg a medve a hétfőről keddre virradó éjszaka a Hargita megyei Farcádon, egy gazda udvarán. A helybélieket a Ro-Alert rendszeren figyelmeztették a veszélyről.</t>
+  </si>
+  <si>
     <t>Nemcsak éjszaka, hanem nappal is több medve jár be a háromszéki Zágon község falvaiba. Az emberek rettegnek, az életüket féltik, miközben a vadak számos háziállatot elpusztítottak már. Állandó a csendőri jelenlét, a Ro-Alert rendszeren keresztül egymás érik a vészhelyzeti riasztások.</t>
   </si>
   <si>
-    <t>Három juhot ölt meg a medve a hétfőről keddre virradó éjszaka a Hargita megyei Farcádon, egy gazda udvarán. A helybélieket a Ro-Alert rendszeren figyelmeztették a veszélyről.</t>
-  </si>
-  <si>
     <t>A hatóságok kérésére át fogják helyezni egy másik területre azt a medvét, amely majdnem minden nap lelátogat a nappali órákban Tusnádfürdőre és a település utcáin kószál élelmet keresve. A helyi hatóságok várják a környezetvédelmi minisztérium ilyen irányú engedélyét.</t>
   </si>
   <si>
@@ -269,6 +1130,129 @@
   </si>
   <si>
     <t>Nem először tört be medve az etédi Kelemen család portájára, ahol ezúttal egy bárányt ölt meg. A községben egyébként csak ebben az esztendőben már közel húsz hasonló eset történt, egyelőre azonban nincs megoldás a problémára. A vadászok kérni fogják a problémás egyed kilövését.</t>
+  </si>
+  <si>
+    <t>Betört egy vaslábi portára és több tyúkot pusztított el egy medve péntekre virradóan – tájékoztatott a Hargita Megyei Csendőr-felügyelőség.</t>
+  </si>
+  <si>
+    <t>Fára mászott és az ágakról lejönni nem tudó medvebocsnak segítettek szombaton késő délután a Maros megyei Libánfalván.</t>
+  </si>
+  <si>
+    <t>Ismét medvéhez riasztották a csendőröket a vasárnapra virradóan Hargita megyében. Ezúttal egy vaslábi gazdaságot környékezett meg a medve, betört az udvarra és több tyúkot is elpusztított – írja az Agerpres hírügynökség.</t>
+  </si>
+  <si>
+    <t>Kétbocsos anyamedvét zavartak el hétfő délután a csendőrök a tusnádfürdői állomás közeléből – tájékoztat közleményben a Hargita megyei csendőr-felügyelőség. A hatóságokat a 112-es egységes segélyhívószámon értesítették az állatok jelenlétéről.</t>
+  </si>
+  <si>
+    <t>Rendőrök találtak rá egy elpusztult medvebocsra az erdővidéki Bardóc közelében, a patakparton. A környezetőrséget értesítették, a felügyelők pedig azt állapították meg, hogy az állat halálát egy másik, nagyobb medve okozhatta.</t>
+  </si>
+  <si>
+    <t>Két anyamedve verekedett össze Tusnádfürdő egyik sétányán, mindkét állatnak három-három bocsa volt, amelyek mind felmenekültek a fákra. Egyikük azonban lemászott vagy leesett a fáról, és a másik anyamedve megölte.</t>
+  </si>
+  <si>
+    <t>Egyre több medve jár be napi rendszerességgel Tusnádfürdőre, az évek óta fennálló probléma pedig súlyosbodni látszik, mivel a szeméttárolóknál kihelyezett villanypásztorok miatt kiszámíthatatlanná vált, hol és mikor bukkannak fel a nagyvadak.</t>
+  </si>
+  <si>
+    <t>Több medve-észlelés miatt is riasztották a Hargita megyei csendőröket Tusnádfürdőről kedden este. A hatóságiak több medvét is elűztek a lakott területekről.</t>
+  </si>
+  <si>
+    <t>Öt esetben is közbe kellett lépniük a csendőröknek Tusnádfürdőn a medvék miatt vasárnap este és hétfőre virradóan.</t>
+  </si>
+  <si>
+    <t>A lakosság és a helyi önkormányzat is nagyban függ a turizmustól Tusnádfürdőn, ami idén elég lesújtóan alakult. Március közepe óta a látogatók száma majdnem egyenlő a nullával, s ha ezt még lehet tetőzni, azt a medvék állandó jelenléte meg is teszi.</t>
+  </si>
+  <si>
+    <t>Sérült fiatal medve tört be csütörtökön délelőtt egy székelyudvarhelyi háztartásba, majd egy magas fán keresett menedéket. A Nagy-Küküllő Vadász- és Sporthorgász Egyesület tagjai altatólövedékkel vették célba a vadat, hogy megvizsgálhassák a sérülését.</t>
+  </si>
+  <si>
+    <t>A szükséges kezelések után vadászterületük egy másik részén engedték szabadon a csütörtökön Székelyudvarhelyen befogott sérült medvét a Nagy-Küküllő Vadász- és Sporthorgász Egyesület szakemberei.</t>
+  </si>
+  <si>
+    <t>Huszonöt virtuális sajtótájékoztatót követően személyes formában, a városházán ismertette Ráduly Róbert Kálmán csíkszeredai polgármester a helyi katasztrófavédelmi bizottság napirendi pontjainak döntéseit. Az elmúlt napok medveügyei is terítékre kerültek.</t>
+  </si>
+  <si>
+    <t>Medvét láttak Oroszhegyben, a 73-as házszám közelében – értesítették a környéken élőket, sőt még a székelyudvarhelyieket is a Ro-Alert révén.</t>
+  </si>
+  <si>
+    <t>Többször riasztották a hétvégén a Hargita megyei csendőröket a települések utcáin kószáló medvék miatt – tájékoztatott a Hargita Megyei Csendőr-felügyelőség hétfőn.</t>
+  </si>
+  <si>
+    <t>Megrongálta egy lakóház kerítését a Malom utcában a napok óta Csíkszereda környékén garázdálkodó medve. A területileg illetékes vadásztársaság kérni fogja a naponta felbukkanó nagyvad kilövését, ehhez azonban lakossági panaszokra van szükség.</t>
+  </si>
+  <si>
+    <t>Bűnügyi keresetet nyújtott be a környezetvédelmi tárca vezetője és egyik államtitkára ellen a Zetelaki Területtulajdonosi Társulás. Az indok: nem hagyta jóvá a szakminisztérium a prevenciós célú kilövési kvótát, amellyel orvosolható lenne a medvevadászat betiltása óta fokozódó probléma.</t>
+  </si>
+  <si>
+    <t>Egy medvét kaptak lencsevégre kedden kora este a csíkszeredai Fenyő utcában, a Fortuna-park közelében. A videót a Vadkárok Székelyföldön Facebook-oldalon tették közzé.</t>
+  </si>
+  <si>
+    <t>Legalább tíz medve okoz folyamatosan gondokat a székelyudvarhelyi portákon: kecskéket, juhokat és tyúkokat pusztítanak el, de a környéken már emberre is támadott egy nagyvad. A Nagy-Küküllő Vadász- és Sporthorgász Egyesület egyelőre a medvék befogására és áthelyezésére fekteti a hangsúlyt.</t>
+  </si>
+  <si>
+    <t>Két medvét észleltek Székelyudvarhelyen, a Szászok táborában – erről értesíti a helyieket a Ro-Alert alkalmazáson keresztül a vészhelyzeti felügyelőség.</t>
+  </si>
+  <si>
+    <t>Tusnádfürdő határában, az út szélén magára hagyott medvebocs miatt riasztották a csendőröket vasárnap reggel. A vadállatot a hatóságiak „látták el”, míg a helyszínre érkezett egy állatorvos, illetve a balánbányai medve-visszavadító központ illetékese.</t>
+  </si>
+  <si>
+    <t>Kilövési engedélyt kért a területileg illetékes vadásztársaság a Csíkszeredában egyre gyakrabban felbukkanó fiatal medvére. A megfigyeléseik során az is kiderült, hogy egy bocsos anyamedve is él a körkényen, vasárnap este pedig már lakott terület közelébe merészkedtek.</t>
+  </si>
+  <si>
+    <t>Medvét gázolt el egy autó Csíkszereda közelében, a 13A jelzésű országúton, a Domb-kanyar előtt csütörtök este. A balesetben a medve elpusztult, az autóban pedig anyagi kár keletkezett, senki nem sérült meg.</t>
+  </si>
+  <si>
+    <t>A medvéket etető személyek megbírságolását helyezte kilátásba Costel Alexe környezetvédelmi miniszter.</t>
+  </si>
+  <si>
+    <t>Az élethez és testi épséghez, illetve a tulajdonhoz való jogot veszélyeztetik a medvék Tusnádfürdőn – értékel az önkormányzati képviselő-testület nevében írt nyílt levelében Albert Tibor tusnádfürdői polgármester, aki a levelet az államelnöknek, a miniszterelnöknek, a szenátusnak és a képviselőháznak is.</t>
+  </si>
+  <si>
+    <t>A hétvége során hatszor riasztották a hatóságokat Hargita megye különböző településein medvék felbukkanása miatt.</t>
+  </si>
+  <si>
+    <t>Két medvére figyelmeztető RO-Alert jelzést küldtek a hatóságok a székelyudvarhelyieknek hétfőn koraeste.</t>
+  </si>
+  <si>
+    <t>Két, a Szentimre, illetve a Rózsa utcákban feltűnt fiatal medvét kellett elkergessenek a Székelyudvarhelyi Helyi Rendőrség, illetve a Nagy-Küküllő Vadász- és Sporthorgász Egyesület munkatársai hétfőn kora este.</t>
+  </si>
+  <si>
+    <t>Május közepe óta már legalább 11 szarvasmarha esett medvék támadásának áldozatul a Gyergyószentmiklóshoz tartozó legelőkön. Ezek azonban csak azok az esetek, melyeket a gazdák kártérítés reményében be is jelentettek.</t>
+  </si>
+  <si>
+    <t>Bár a módosított vadászati törvény értelmében május 15-ig kellett volna kiadja a környezetvédelmi minisztérium a medvekilövési kvótákat – beavatkozási és megelőzési kvótát egyaránt – ez nem történt meg.</t>
+  </si>
+  <si>
+    <t>Életben maradtak, ugyanakkor kerülik a településeket a Nagy-Küküllő Vadász- és Sporthorgász Egyesület által Székelyudvarhelyen befogott, majd a máshol szabadon engedett medvék. Más térségekben vagy nem végeztek hasonló áthelyezést, vagy távolabb vitték a nagyvadakat, így nem tudnak a további sorsukról.</t>
+  </si>
+  <si>
+    <t>Átiratokkal bombázza a hatóságokat Kovászna város önkormányzata, mert már tarthatatlanná vált a sok medve jelenléte a fürdővárosban. A másik probléma, hogy a turisták nem tartanak a vadállatoktól és a RO-Alert jelzés nyomán keresik őket a városban.</t>
+  </si>
+  <si>
+    <t>Elkerülik a medvék a Gyilkostó üdülőtelepet, javulnak a halak és denevérek életkörülményei, és új erdő is létesül – főbb pontokban ezt tervezi megvalósítani a Békás-szoros-Nagyhagymás Nemzeti Park. A közel három millió eurós pályázat előkészítése folyamatban van.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Tusnádfürdőre rendszeresen bejáró és garázdálkodó medvék közül többet is befogadna a magyarországi Veresegyházán működő medveotthon. Az ajánlatot a Környezetvédelmi Minisztériumnak is elküldték, engedélyezésre várnak.</t>
+  </si>
+  <si>
+    <t>A háztáji gazdaságokban garázdálkodó, az emberek közelében táplálékot kereső medvék számára több száz hektáros medveparkot szeretne létrehozni a Hargita megyei önkormányzat, a szükséges területet a közbirtokosságoktól bérelnék.</t>
+  </si>
+  <si>
+    <t>A Csíkszeredai Bíróság első fokon 24 ezer lejes összegű kártérítés kifizetésére kötelezte a környezetvédelmi minisztériumot egy sértett számára, akit két éve medve sebesített meg Tusnádfürdőn. Az elsőfokú ítélet ellen fellebbezést nyújtottak be, ezt még nem tárgyalták.</t>
+  </si>
+  <si>
+    <t>Akárcsak csütörtök este, péntek délután is felbukkant egy medve a csíksomlyói borvízforrás közelében. A környéken lévőket a Ro-Alert rendszeren figyelmeztették a veszélyre.</t>
+  </si>
+  <si>
+    <t>Medvét vett észre a csíkszeredai Márton Áron Főgimnázium udvarán egy férfi, és riasztotta a hatóságokat a 112-n szombat éjjel negyed egykor.</t>
+  </si>
+  <si>
+    <t>A Márton Áron Főgimnázium udvarán ejtették el szombaton késő este a Csíkszeredába napok óta bejáró medvét. A fiatal egyedre kilövési engedélyt kapott az illetékes vadásztársulat a környezetvédelmi minisztériumtól.</t>
+  </si>
+  <si>
+    <t>Miután szombat este kilőtték a múlt héten Csíkszereda és Csíksomlyó több pontján is felbukkant kis termetű medvét, egy másik egyed tűnt fel hétfőre virradóan a város utcáin. A nagyvad ezúttal a városközpontig, a Szabadság térre is bemerészkedett.</t>
+  </si>
+  <si>
+    <t>A fiatal medvék a területhiány miatt kénytelenek új élőhelyet keresni, ezért közelítik meg egyre gyakrabban a lakott területeket – véli a szakember azok után, hogy bebizonyosodott, Csíkszeredában nemcsak egy medve kószált az elmúlt napokban.</t>
   </si>
 </sst>
 </file>
@@ -643,7 +1627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,31 +1667,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>43948</v>
+        <v>43820</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>257</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -715,31 +1699,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>43955</v>
+        <v>43824</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -747,31 +1731,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>43956</v>
+        <v>43825</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>259</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -779,31 +1763,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>43956</v>
+        <v>43832</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -811,31 +1795,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>43959</v>
+        <v>43834</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -843,31 +1827,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>43962</v>
+        <v>43836</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -875,31 +1859,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>43963</v>
+        <v>43841</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -907,31 +1891,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>43964</v>
+        <v>43843</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>264</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -939,31 +1923,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43966</v>
+        <v>43846</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -971,31 +1955,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>43966</v>
+        <v>43851</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1003,31 +1987,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>43969</v>
+        <v>43856</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1035,31 +2019,2143 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
+        <v>43858</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" t="s">
+        <v>235</v>
+      </c>
+      <c r="I13" t="s">
+        <v>268</v>
+      </c>
+      <c r="J13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43864</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" t="s">
+        <v>234</v>
+      </c>
+      <c r="I14" t="s">
+        <v>269</v>
+      </c>
+      <c r="J14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43864</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" t="s">
+        <v>221</v>
+      </c>
+      <c r="H15" t="s">
+        <v>234</v>
+      </c>
+      <c r="I15" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43884</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" t="s">
+        <v>236</v>
+      </c>
+      <c r="I16" t="s">
+        <v>271</v>
+      </c>
+      <c r="J16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43892</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>217</v>
+      </c>
+      <c r="G17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" t="s">
+        <v>233</v>
+      </c>
+      <c r="I17" t="s">
+        <v>272</v>
+      </c>
+      <c r="J17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43892</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" t="s">
+        <v>237</v>
+      </c>
+      <c r="I18" t="s">
+        <v>273</v>
+      </c>
+      <c r="J18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43894</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H19" t="s">
+        <v>237</v>
+      </c>
+      <c r="I19" t="s">
+        <v>274</v>
+      </c>
+      <c r="J19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43900</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" t="s">
+        <v>219</v>
+      </c>
+      <c r="H20" t="s">
+        <v>227</v>
+      </c>
+      <c r="I20" t="s">
+        <v>275</v>
+      </c>
+      <c r="J20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43906</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" t="s">
+        <v>219</v>
+      </c>
+      <c r="H21" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" t="s">
+        <v>276</v>
+      </c>
+      <c r="J21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" t="s">
+        <v>228</v>
+      </c>
+      <c r="I22" t="s">
+        <v>277</v>
+      </c>
+      <c r="J22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" t="s">
+        <v>233</v>
+      </c>
+      <c r="I23" t="s">
+        <v>278</v>
+      </c>
+      <c r="J23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" t="s">
+        <v>219</v>
+      </c>
+      <c r="H24" t="s">
+        <v>234</v>
+      </c>
+      <c r="I24" t="s">
+        <v>279</v>
+      </c>
+      <c r="J24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43939</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>219</v>
+      </c>
+      <c r="H25" t="s">
+        <v>233</v>
+      </c>
+      <c r="I25" t="s">
+        <v>280</v>
+      </c>
+      <c r="J25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H26" t="s">
+        <v>238</v>
+      </c>
+      <c r="I26" t="s">
+        <v>281</v>
+      </c>
+      <c r="J26" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>221</v>
+      </c>
+      <c r="H27" t="s">
+        <v>239</v>
+      </c>
+      <c r="I27" t="s">
+        <v>282</v>
+      </c>
+      <c r="J27" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28" t="s">
+        <v>240</v>
+      </c>
+      <c r="I28" t="s">
+        <v>283</v>
+      </c>
+      <c r="J28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>43956</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>222</v>
+      </c>
+      <c r="H29" t="s">
+        <v>241</v>
+      </c>
+      <c r="I29" t="s">
+        <v>284</v>
+      </c>
+      <c r="J29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43956</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" t="s">
+        <v>221</v>
+      </c>
+      <c r="H30" t="s">
+        <v>231</v>
+      </c>
+      <c r="I30" t="s">
+        <v>285</v>
+      </c>
+      <c r="J30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43959</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" t="s">
+        <v>219</v>
+      </c>
+      <c r="H31" t="s">
+        <v>242</v>
+      </c>
+      <c r="I31" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>43962</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" t="s">
+        <v>217</v>
+      </c>
+      <c r="G32" t="s">
+        <v>223</v>
+      </c>
+      <c r="H32" t="s">
+        <v>243</v>
+      </c>
+      <c r="I32" t="s">
+        <v>287</v>
+      </c>
+      <c r="J32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43963</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" t="s">
+        <v>217</v>
+      </c>
+      <c r="G33" t="s">
+        <v>221</v>
+      </c>
+      <c r="H33" t="s">
+        <v>244</v>
+      </c>
+      <c r="I33" t="s">
+        <v>288</v>
+      </c>
+      <c r="J33" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43964</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" t="s">
+        <v>219</v>
+      </c>
+      <c r="H34" t="s">
+        <v>245</v>
+      </c>
+      <c r="I34" t="s">
+        <v>289</v>
+      </c>
+      <c r="J34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43966</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" t="s">
+        <v>219</v>
+      </c>
+      <c r="H35" t="s">
+        <v>246</v>
+      </c>
+      <c r="I35" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43966</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" t="s">
+        <v>217</v>
+      </c>
+      <c r="G36" t="s">
+        <v>219</v>
+      </c>
+      <c r="H36" t="s">
+        <v>235</v>
+      </c>
+      <c r="I36" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43969</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G37" t="s">
+        <v>221</v>
+      </c>
+      <c r="H37" t="s">
+        <v>233</v>
+      </c>
+      <c r="I37" t="s">
+        <v>292</v>
+      </c>
+      <c r="J37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
         <v>43976</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" t="s">
+        <v>221</v>
+      </c>
+      <c r="H38" t="s">
+        <v>247</v>
+      </c>
+      <c r="I38" t="s">
+        <v>293</v>
+      </c>
+      <c r="J38" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>43980</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" t="s">
+        <v>217</v>
+      </c>
+      <c r="G39" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" t="s">
+        <v>227</v>
+      </c>
+      <c r="I39" t="s">
+        <v>294</v>
+      </c>
+      <c r="J39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43982</v>
+      </c>
+      <c r="C40" t="s">
         <v>42</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" t="s">
+        <v>217</v>
+      </c>
+      <c r="G40" t="s">
+        <v>220</v>
+      </c>
+      <c r="H40" t="s">
+        <v>237</v>
+      </c>
+      <c r="I40" t="s">
+        <v>295</v>
+      </c>
+      <c r="J40" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>43982</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" t="s">
+        <v>217</v>
+      </c>
+      <c r="G41" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41" t="s">
+        <v>227</v>
+      </c>
+      <c r="I41" t="s">
+        <v>296</v>
+      </c>
+      <c r="J41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C42" t="s">
         <v>43</v>
       </c>
-      <c r="G13" t="s">
+      <c r="D42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" t="s">
+        <v>217</v>
+      </c>
+      <c r="G42" t="s">
+        <v>219</v>
+      </c>
+      <c r="H42" t="s">
+        <v>242</v>
+      </c>
+      <c r="I42" t="s">
+        <v>297</v>
+      </c>
+      <c r="J42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43984</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" t="s">
+        <v>217</v>
+      </c>
+      <c r="G43" t="s">
+        <v>219</v>
+      </c>
+      <c r="H43" t="s">
+        <v>231</v>
+      </c>
+      <c r="I43" t="s">
+        <v>298</v>
+      </c>
+      <c r="J43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43986</v>
+      </c>
+      <c r="C44" t="s">
         <v>45</v>
       </c>
-      <c r="H13" t="s">
+      <c r="D44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" t="s">
+        <v>224</v>
+      </c>
+      <c r="H44" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44" t="s">
+        <v>299</v>
+      </c>
+      <c r="J44" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43990</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" t="s">
+        <v>219</v>
+      </c>
+      <c r="H45" t="s">
+        <v>242</v>
+      </c>
+      <c r="I45" t="s">
+        <v>300</v>
+      </c>
+      <c r="J45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>43992</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" t="s">
+        <v>217</v>
+      </c>
+      <c r="G46" t="s">
+        <v>219</v>
+      </c>
+      <c r="H46" t="s">
+        <v>242</v>
+      </c>
+      <c r="I46" t="s">
+        <v>301</v>
+      </c>
+      <c r="J46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>43997</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F47" t="s">
+        <v>217</v>
+      </c>
+      <c r="G47" t="s">
+        <v>219</v>
+      </c>
+      <c r="H47" t="s">
+        <v>242</v>
+      </c>
+      <c r="I47" t="s">
+        <v>302</v>
+      </c>
+      <c r="J47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44000</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F48" t="s">
+        <v>217</v>
+      </c>
+      <c r="G48" t="s">
+        <v>219</v>
+      </c>
+      <c r="H48" t="s">
+        <v>248</v>
+      </c>
+      <c r="I48" t="s">
+        <v>303</v>
+      </c>
+      <c r="J48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44000</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" t="s">
+        <v>217</v>
+      </c>
+      <c r="G49" t="s">
+        <v>221</v>
+      </c>
+      <c r="H49" t="s">
+        <v>234</v>
+      </c>
+      <c r="I49" t="s">
+        <v>304</v>
+      </c>
+      <c r="J49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44001</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" t="s">
+        <v>217</v>
+      </c>
+      <c r="G50" t="s">
+        <v>221</v>
+      </c>
+      <c r="H50" t="s">
+        <v>234</v>
+      </c>
+      <c r="I50" t="s">
+        <v>305</v>
+      </c>
+      <c r="J50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44004</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" t="s">
+        <v>217</v>
+      </c>
+      <c r="G51" t="s">
+        <v>219</v>
+      </c>
+      <c r="H51" t="s">
+        <v>249</v>
+      </c>
+      <c r="I51" t="s">
+        <v>306</v>
+      </c>
+      <c r="J51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44004</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52" t="s">
+        <v>217</v>
+      </c>
+      <c r="G52" t="s">
+        <v>220</v>
+      </c>
+      <c r="H52" t="s">
+        <v>250</v>
+      </c>
+      <c r="I52" t="s">
+        <v>307</v>
+      </c>
+      <c r="J52" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44004</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F53" t="s">
+        <v>217</v>
+      </c>
+      <c r="G53" t="s">
+        <v>219</v>
+      </c>
+      <c r="H53" t="s">
+        <v>228</v>
+      </c>
+      <c r="I53" t="s">
+        <v>308</v>
+      </c>
+      <c r="J53" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44004</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" t="s">
+        <v>217</v>
+      </c>
+      <c r="G54" t="s">
+        <v>219</v>
+      </c>
+      <c r="H54" t="s">
+        <v>251</v>
+      </c>
+      <c r="I54" t="s">
+        <v>309</v>
+      </c>
+      <c r="J54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44006</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F55" t="s">
+        <v>217</v>
+      </c>
+      <c r="G55" t="s">
+        <v>219</v>
+      </c>
+      <c r="H55" t="s">
+        <v>252</v>
+      </c>
+      <c r="I55" t="s">
+        <v>310</v>
+      </c>
+      <c r="J55" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44006</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F56" t="s">
+        <v>217</v>
+      </c>
+      <c r="G56" t="s">
+        <v>220</v>
+      </c>
+      <c r="H56" t="s">
+        <v>251</v>
+      </c>
+      <c r="I56" t="s">
+        <v>311</v>
+      </c>
+      <c r="J56" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44008</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" t="s">
+        <v>217</v>
+      </c>
+      <c r="G57" t="s">
+        <v>221</v>
+      </c>
+      <c r="H57" t="s">
+        <v>233</v>
+      </c>
+      <c r="I57" t="s">
+        <v>312</v>
+      </c>
+      <c r="J57" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44009</v>
+      </c>
+      <c r="C58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" t="s">
+        <v>217</v>
+      </c>
+      <c r="G58" t="s">
+        <v>221</v>
+      </c>
+      <c r="H58" t="s">
+        <v>234</v>
+      </c>
+      <c r="I58" t="s">
+        <v>313</v>
+      </c>
+      <c r="J58" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44011</v>
+      </c>
+      <c r="C59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F59" t="s">
+        <v>217</v>
+      </c>
+      <c r="G59" t="s">
+        <v>219</v>
+      </c>
+      <c r="H59" t="s">
+        <v>242</v>
+      </c>
+      <c r="I59" t="s">
+        <v>314</v>
+      </c>
+      <c r="J59" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F60" t="s">
+        <v>217</v>
+      </c>
+      <c r="G60" t="s">
+        <v>219</v>
+      </c>
+      <c r="H60" t="s">
+        <v>251</v>
+      </c>
+      <c r="I60" t="s">
+        <v>315</v>
+      </c>
+      <c r="J60" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44014</v>
+      </c>
+      <c r="C61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" t="s">
+        <v>217</v>
+      </c>
+      <c r="G61" t="s">
+        <v>219</v>
+      </c>
+      <c r="H61" t="s">
+        <v>253</v>
+      </c>
+      <c r="I61" t="s">
+        <v>316</v>
+      </c>
+      <c r="J61" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="I13" t="s">
+      <c r="B62" s="2">
+        <v>44018</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F62" t="s">
+        <v>218</v>
+      </c>
+      <c r="G62" t="s">
+        <v>219</v>
+      </c>
+      <c r="H62" t="s">
+        <v>245</v>
+      </c>
+      <c r="I62" t="s">
+        <v>317</v>
+      </c>
+      <c r="J62" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44020</v>
+      </c>
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" t="s">
+        <v>217</v>
+      </c>
+      <c r="G63" t="s">
+        <v>219</v>
+      </c>
+      <c r="H63" t="s">
+        <v>242</v>
+      </c>
+      <c r="I63" t="s">
+        <v>318</v>
+      </c>
+      <c r="J63" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44025</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F64" t="s">
+        <v>217</v>
+      </c>
+      <c r="G64" t="s">
+        <v>219</v>
+      </c>
+      <c r="H64" t="s">
+        <v>228</v>
+      </c>
+      <c r="I64" t="s">
+        <v>319</v>
+      </c>
+      <c r="J64" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44025</v>
+      </c>
+      <c r="C65" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F65" t="s">
+        <v>217</v>
+      </c>
+      <c r="G65" t="s">
+        <v>221</v>
+      </c>
+      <c r="H65" t="s">
+        <v>234</v>
+      </c>
+      <c r="I65" t="s">
+        <v>320</v>
+      </c>
+      <c r="J65" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44025</v>
+      </c>
+      <c r="C66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F66" t="s">
+        <v>217</v>
+      </c>
+      <c r="G66" t="s">
+        <v>221</v>
+      </c>
+      <c r="H66" t="s">
+        <v>234</v>
+      </c>
+      <c r="I66" t="s">
+        <v>321</v>
+      </c>
+      <c r="J66" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44026</v>
+      </c>
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F67" t="s">
+        <v>217</v>
+      </c>
+      <c r="G67" t="s">
+        <v>221</v>
+      </c>
+      <c r="H67" t="s">
+        <v>235</v>
+      </c>
+      <c r="I67" t="s">
+        <v>322</v>
+      </c>
+      <c r="J67" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44027</v>
+      </c>
+      <c r="C68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" t="s">
+        <v>217</v>
+      </c>
+      <c r="G68" t="s">
+        <v>221</v>
+      </c>
+      <c r="H68" t="s">
+        <v>245</v>
+      </c>
+      <c r="I68" t="s">
+        <v>323</v>
+      </c>
+      <c r="J68" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <v>44030</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F69" t="s">
+        <v>217</v>
+      </c>
+      <c r="G69" t="s">
+        <v>221</v>
+      </c>
+      <c r="H69" t="s">
+        <v>254</v>
+      </c>
+      <c r="I69" t="s">
+        <v>324</v>
+      </c>
+      <c r="J69" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <v>44031</v>
+      </c>
+      <c r="C70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70" t="s">
+        <v>217</v>
+      </c>
+      <c r="G70" t="s">
+        <v>219</v>
+      </c>
+      <c r="H70" t="s">
+        <v>231</v>
+      </c>
+      <c r="I70" t="s">
+        <v>325</v>
+      </c>
+      <c r="J70" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>44042</v>
+      </c>
+      <c r="C71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F71" t="s">
+        <v>217</v>
+      </c>
+      <c r="G71" t="s">
+        <v>225</v>
+      </c>
+      <c r="H71" t="s">
+        <v>255</v>
+      </c>
+      <c r="I71" t="s">
+        <v>326</v>
+      </c>
+      <c r="J71" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44052</v>
+      </c>
+      <c r="C72" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F72" t="s">
+        <v>217</v>
+      </c>
+      <c r="G72" t="s">
+        <v>219</v>
+      </c>
+      <c r="H72" t="s">
+        <v>256</v>
+      </c>
+      <c r="I72" t="s">
+        <v>327</v>
+      </c>
+      <c r="J72" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>44057</v>
+      </c>
+      <c r="C73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F73" t="s">
+        <v>217</v>
+      </c>
+      <c r="G73" t="s">
+        <v>221</v>
+      </c>
+      <c r="H73" t="s">
+        <v>228</v>
+      </c>
+      <c r="I73" t="s">
+        <v>328</v>
+      </c>
+      <c r="J73" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="J13" t="s">
-        <v>84</v>
+      <c r="B74" s="2">
+        <v>44061</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F74" t="s">
+        <v>217</v>
+      </c>
+      <c r="G74" t="s">
+        <v>219</v>
+      </c>
+      <c r="H74" t="s">
+        <v>242</v>
+      </c>
+      <c r="I74" t="s">
+        <v>329</v>
+      </c>
+      <c r="J74" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <v>44064</v>
+      </c>
+      <c r="C75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F75" t="s">
+        <v>217</v>
+      </c>
+      <c r="G75" t="s">
+        <v>219</v>
+      </c>
+      <c r="H75" t="s">
+        <v>251</v>
+      </c>
+      <c r="I75" t="s">
+        <v>330</v>
+      </c>
+      <c r="J75" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>44065</v>
+      </c>
+      <c r="C76" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F76" t="s">
+        <v>217</v>
+      </c>
+      <c r="G76" t="s">
+        <v>221</v>
+      </c>
+      <c r="H76" t="s">
+        <v>251</v>
+      </c>
+      <c r="I76" t="s">
+        <v>331</v>
+      </c>
+      <c r="J76" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>44066</v>
+      </c>
+      <c r="C77" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F77" t="s">
+        <v>217</v>
+      </c>
+      <c r="G77" t="s">
+        <v>219</v>
+      </c>
+      <c r="H77" t="s">
+        <v>251</v>
+      </c>
+      <c r="I77" t="s">
+        <v>332</v>
+      </c>
+      <c r="J77" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <v>44067</v>
+      </c>
+      <c r="C78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F78" t="s">
+        <v>217</v>
+      </c>
+      <c r="G78" t="s">
+        <v>219</v>
+      </c>
+      <c r="H78" t="s">
+        <v>251</v>
+      </c>
+      <c r="I78" t="s">
+        <v>333</v>
+      </c>
+      <c r="J78" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <v>44067</v>
+      </c>
+      <c r="C79" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F79" t="s">
+        <v>217</v>
+      </c>
+      <c r="G79" t="s">
+        <v>219</v>
+      </c>
+      <c r="H79" t="s">
+        <v>251</v>
+      </c>
+      <c r="I79" t="s">
+        <v>334</v>
+      </c>
+      <c r="J79" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -1088,6 +4184,138 @@
     <hyperlink ref="E12" r:id="rId22"/>
     <hyperlink ref="D13" r:id="rId23"/>
     <hyperlink ref="E13" r:id="rId24"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="E14" r:id="rId26"/>
+    <hyperlink ref="D15" r:id="rId27"/>
+    <hyperlink ref="E15" r:id="rId28"/>
+    <hyperlink ref="D16" r:id="rId29"/>
+    <hyperlink ref="E16" r:id="rId30"/>
+    <hyperlink ref="D17" r:id="rId31"/>
+    <hyperlink ref="E17" r:id="rId32"/>
+    <hyperlink ref="D18" r:id="rId33"/>
+    <hyperlink ref="E18" r:id="rId34"/>
+    <hyperlink ref="D19" r:id="rId35"/>
+    <hyperlink ref="E19" r:id="rId36"/>
+    <hyperlink ref="D20" r:id="rId37"/>
+    <hyperlink ref="E20" r:id="rId38"/>
+    <hyperlink ref="D21" r:id="rId39"/>
+    <hyperlink ref="E21" r:id="rId40"/>
+    <hyperlink ref="D22" r:id="rId41"/>
+    <hyperlink ref="E22" r:id="rId42"/>
+    <hyperlink ref="D23" r:id="rId43"/>
+    <hyperlink ref="E23" r:id="rId44"/>
+    <hyperlink ref="D24" r:id="rId45"/>
+    <hyperlink ref="E24" r:id="rId46"/>
+    <hyperlink ref="D25" r:id="rId47"/>
+    <hyperlink ref="E25" r:id="rId48"/>
+    <hyperlink ref="D26" r:id="rId49"/>
+    <hyperlink ref="E26" r:id="rId50"/>
+    <hyperlink ref="D27" r:id="rId51"/>
+    <hyperlink ref="E27" r:id="rId52"/>
+    <hyperlink ref="D28" r:id="rId53"/>
+    <hyperlink ref="E28" r:id="rId54"/>
+    <hyperlink ref="D29" r:id="rId55"/>
+    <hyperlink ref="E29" r:id="rId56"/>
+    <hyperlink ref="D30" r:id="rId57"/>
+    <hyperlink ref="E30" r:id="rId58"/>
+    <hyperlink ref="D31" r:id="rId59"/>
+    <hyperlink ref="E31" r:id="rId60"/>
+    <hyperlink ref="D32" r:id="rId61"/>
+    <hyperlink ref="E32" r:id="rId62"/>
+    <hyperlink ref="D33" r:id="rId63"/>
+    <hyperlink ref="E33" r:id="rId64"/>
+    <hyperlink ref="D34" r:id="rId65"/>
+    <hyperlink ref="E34" r:id="rId66"/>
+    <hyperlink ref="D35" r:id="rId67"/>
+    <hyperlink ref="E35" r:id="rId68"/>
+    <hyperlink ref="D36" r:id="rId69"/>
+    <hyperlink ref="E36" r:id="rId70"/>
+    <hyperlink ref="D37" r:id="rId71"/>
+    <hyperlink ref="E37" r:id="rId72"/>
+    <hyperlink ref="D38" r:id="rId73"/>
+    <hyperlink ref="E38" r:id="rId74"/>
+    <hyperlink ref="D39" r:id="rId75"/>
+    <hyperlink ref="E39" r:id="rId76"/>
+    <hyperlink ref="D40" r:id="rId77"/>
+    <hyperlink ref="E40" r:id="rId78"/>
+    <hyperlink ref="D41" r:id="rId79"/>
+    <hyperlink ref="E41" r:id="rId80"/>
+    <hyperlink ref="D42" r:id="rId81"/>
+    <hyperlink ref="E42" r:id="rId82"/>
+    <hyperlink ref="D43" r:id="rId83"/>
+    <hyperlink ref="E43" r:id="rId84"/>
+    <hyperlink ref="D44" r:id="rId85"/>
+    <hyperlink ref="E44" r:id="rId86"/>
+    <hyperlink ref="D45" r:id="rId87"/>
+    <hyperlink ref="E45" r:id="rId88"/>
+    <hyperlink ref="D46" r:id="rId89"/>
+    <hyperlink ref="E46" r:id="rId90"/>
+    <hyperlink ref="D47" r:id="rId91"/>
+    <hyperlink ref="E47" r:id="rId92"/>
+    <hyperlink ref="D48" r:id="rId93"/>
+    <hyperlink ref="E48" r:id="rId94"/>
+    <hyperlink ref="D49" r:id="rId95"/>
+    <hyperlink ref="E49" r:id="rId96"/>
+    <hyperlink ref="D50" r:id="rId97"/>
+    <hyperlink ref="E50" r:id="rId98"/>
+    <hyperlink ref="D51" r:id="rId99"/>
+    <hyperlink ref="E51" r:id="rId100"/>
+    <hyperlink ref="D52" r:id="rId101"/>
+    <hyperlink ref="E52" r:id="rId102"/>
+    <hyperlink ref="D53" r:id="rId103"/>
+    <hyperlink ref="E53" r:id="rId104"/>
+    <hyperlink ref="D54" r:id="rId105"/>
+    <hyperlink ref="E54" r:id="rId106"/>
+    <hyperlink ref="D55" r:id="rId107"/>
+    <hyperlink ref="E55" r:id="rId108"/>
+    <hyperlink ref="D56" r:id="rId109"/>
+    <hyperlink ref="E56" r:id="rId110"/>
+    <hyperlink ref="D57" r:id="rId111"/>
+    <hyperlink ref="E57" r:id="rId112"/>
+    <hyperlink ref="D58" r:id="rId113"/>
+    <hyperlink ref="E58" r:id="rId114"/>
+    <hyperlink ref="D59" r:id="rId115"/>
+    <hyperlink ref="E59" r:id="rId116"/>
+    <hyperlink ref="D60" r:id="rId117"/>
+    <hyperlink ref="E60" r:id="rId118"/>
+    <hyperlink ref="D61" r:id="rId119"/>
+    <hyperlink ref="E61" r:id="rId120"/>
+    <hyperlink ref="D62" r:id="rId121"/>
+    <hyperlink ref="E62" r:id="rId122"/>
+    <hyperlink ref="D63" r:id="rId123"/>
+    <hyperlink ref="E63" r:id="rId124"/>
+    <hyperlink ref="D64" r:id="rId125"/>
+    <hyperlink ref="E64" r:id="rId126"/>
+    <hyperlink ref="D65" r:id="rId127"/>
+    <hyperlink ref="E65" r:id="rId128"/>
+    <hyperlink ref="D66" r:id="rId129"/>
+    <hyperlink ref="E66" r:id="rId130"/>
+    <hyperlink ref="D67" r:id="rId131"/>
+    <hyperlink ref="E67" r:id="rId132"/>
+    <hyperlink ref="D68" r:id="rId133"/>
+    <hyperlink ref="E68" r:id="rId134"/>
+    <hyperlink ref="D69" r:id="rId135"/>
+    <hyperlink ref="E69" r:id="rId136"/>
+    <hyperlink ref="D70" r:id="rId137"/>
+    <hyperlink ref="E70" r:id="rId138"/>
+    <hyperlink ref="D71" r:id="rId139"/>
+    <hyperlink ref="E71" r:id="rId140"/>
+    <hyperlink ref="D72" r:id="rId141"/>
+    <hyperlink ref="E72" r:id="rId142"/>
+    <hyperlink ref="D73" r:id="rId143"/>
+    <hyperlink ref="E73" r:id="rId144"/>
+    <hyperlink ref="D74" r:id="rId145"/>
+    <hyperlink ref="E74" r:id="rId146"/>
+    <hyperlink ref="D75" r:id="rId147"/>
+    <hyperlink ref="E75" r:id="rId148"/>
+    <hyperlink ref="D76" r:id="rId149"/>
+    <hyperlink ref="E76" r:id="rId150"/>
+    <hyperlink ref="D77" r:id="rId151"/>
+    <hyperlink ref="E77" r:id="rId152"/>
+    <hyperlink ref="D78" r:id="rId153"/>
+    <hyperlink ref="E78" r:id="rId154"/>
+    <hyperlink ref="D79" r:id="rId155"/>
+    <hyperlink ref="E79" r:id="rId156"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/szekelyhon_medve.xlsx
+++ b/data/szekelyhon_medve.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\szekelydata\medveterkep\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058617A5-89B0-487B-8967-F3690A141BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="448">
   <si>
     <t>date</t>
   </si>
@@ -49,6 +43,171 @@
     <t>content</t>
   </si>
   <si>
+    <t>2020. január 21.</t>
+  </si>
+  <si>
+    <t>2020. január 26.</t>
+  </si>
+  <si>
+    <t>2020. január 28.</t>
+  </si>
+  <si>
+    <t>2020. február 03.</t>
+  </si>
+  <si>
+    <t>2020. február 23.</t>
+  </si>
+  <si>
+    <t>2020. március 02.</t>
+  </si>
+  <si>
+    <t>2020. március 04.</t>
+  </si>
+  <si>
+    <t>2020. március 10.</t>
+  </si>
+  <si>
+    <t>2020. március 16.</t>
+  </si>
+  <si>
+    <t>2020. április 05.</t>
+  </si>
+  <si>
+    <t>2020. április 15.</t>
+  </si>
+  <si>
+    <t>2020. április 18.</t>
+  </si>
+  <si>
+    <t>2020. április 20.</t>
+  </si>
+  <si>
+    <t>2020. április 27.</t>
+  </si>
+  <si>
+    <t>2020. május 04.</t>
+  </si>
+  <si>
+    <t>2020. május 05.</t>
+  </si>
+  <si>
+    <t>2020. május 08.</t>
+  </si>
+  <si>
+    <t>2020. május 11.</t>
+  </si>
+  <si>
+    <t>2020. május 12.</t>
+  </si>
+  <si>
+    <t>2020. május 13.</t>
+  </si>
+  <si>
+    <t>2020. május 15.</t>
+  </si>
+  <si>
+    <t>2020. május 18.</t>
+  </si>
+  <si>
+    <t>2020. május 25.</t>
+  </si>
+  <si>
+    <t>2020. május 29.</t>
+  </si>
+  <si>
+    <t>2020. május 31.</t>
+  </si>
+  <si>
+    <t>2020. június 01.</t>
+  </si>
+  <si>
+    <t>2020. június 02.</t>
+  </si>
+  <si>
+    <t>2020. június 04.</t>
+  </si>
+  <si>
+    <t>2020. június 08.</t>
+  </si>
+  <si>
+    <t>2020. június 10.</t>
+  </si>
+  <si>
+    <t>2020. június 15.</t>
+  </si>
+  <si>
+    <t>2020. június 18.</t>
+  </si>
+  <si>
+    <t>2020. június 19.</t>
+  </si>
+  <si>
+    <t>2020. június 22.</t>
+  </si>
+  <si>
+    <t>2020. június 24.</t>
+  </si>
+  <si>
+    <t>2020. június 26.</t>
+  </si>
+  <si>
+    <t>2020. június 27.</t>
+  </si>
+  <si>
+    <t>2020. június 29.</t>
+  </si>
+  <si>
+    <t>2020. június 30.</t>
+  </si>
+  <si>
+    <t>2020. július 02.</t>
+  </si>
+  <si>
+    <t>2020. július 06.</t>
+  </si>
+  <si>
+    <t>2020. július 08.</t>
+  </si>
+  <si>
+    <t>2020. július 13.</t>
+  </si>
+  <si>
+    <t>2020. július 14.</t>
+  </si>
+  <si>
+    <t>2020. július 15.</t>
+  </si>
+  <si>
+    <t>2020. július 18.</t>
+  </si>
+  <si>
+    <t>2020. július 19.</t>
+  </si>
+  <si>
+    <t>2020. július 30.</t>
+  </si>
+  <si>
+    <t>2020. augusztus 09.</t>
+  </si>
+  <si>
+    <t>2020. augusztus 14.</t>
+  </si>
+  <si>
+    <t>2020. augusztus 18.</t>
+  </si>
+  <si>
+    <t>2020. augusztus 21.</t>
+  </si>
+  <si>
+    <t>2020. augusztus 22.</t>
+  </si>
+  <si>
+    <t>2020. augusztus 23.</t>
+  </si>
+  <si>
+    <t>2020. augusztus 24.</t>
+  </si>
+  <si>
     <t>2020. augusztus 26.</t>
   </si>
   <si>
@@ -82,6 +241,231 @@
     <t>2020. november 17.</t>
   </si>
   <si>
+    <t>2020. december 05.</t>
+  </si>
+  <si>
+    <t>2020. december 20.</t>
+  </si>
+  <si>
+    <t>2020. december 27.</t>
+  </si>
+  <si>
+    <t>2020. december 30.</t>
+  </si>
+  <si>
+    <t>2021. január 05.</t>
+  </si>
+  <si>
+    <t>2021. január 10.</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/szagra-jonnek-a-medvek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medveradar-zetelakan-es-farkaslakan-voltak-a-legaktivabbak-tavaly-a-nagyvadak</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/gyergyoszentmiklos-utcain-koborolt-egy-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/lakott-teruletektol-tavol-engedtek-szabadon-a-szekelyudvarhelyen-befogott-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/videon-ahogy-szabadon-engedik-a-szekelyudvarhelyen-befogott-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/meg-nem-tudni-hogy-mennyi-medvet-lehet-majd-kiloni</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/bevalt-a-modszer-megijedt-az-emberektol-a-szabadon-engedett-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ujra-garazdalkodnak-a-medvek-maros-megyeben</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kilovesi-engedelyt-kertek-a-maros-megyeben-garazdalkodo-medvere</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ket-medvet-latott-egy-no-a-haza-kozeleben-egyet-talaltak-a-helyszinen-a-csendorok</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/egy-anyamedve-es-a-bocsa-okozott-riadalmat</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/egy-honap-sem-kell-es-megnovekednek-a-medvekarok-a-populacio-tulszaporodasa-miatt</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/juhokat-oltek-es-baranyokat-vittek-el-a-nagyvadak</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/figyelmezteto-lovesekkel-kergettek-el-a-szekelyudvarhelyre-bejaro-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harom-medve-jart-be-egy-ulkei-gazdasagba</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harom-medve-egy-csikbankfalvi-portan</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/elpusztult-egy-medve-eted-hataraban-orvvadaszat-gyanujaval-vizsgalodik-a-rendorseg</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/celkeresztben-a-bmedvetorvenyr-n-a-vadaszok-szerint-a-szaktarca-osszemossa-a-fogalmakat</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harom-juhot-olt-meg-a-medve-egy-farcadi-gazda-udvaran</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tehetetlenek-a-lakok-az-ablakbol-kenytelenek-vegignezni-ahogy-a-medvek-elpusztitjak-a-haszonallataikat</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/athelyezik-egy-masik-teruletre-a-tusnadfurdore-napi-rendszeresseggel-bejaro-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvek-miatt-riasztottak-a-hatosagokat-es-ebresztettek-fel-almukbol-a-kornyeken-eloket</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kulon-megelozesi-kvotat-es-a-medvekarok-kifizeteset-kerik</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/a-kormoran-lekerulhet-a-vedett-fajok-listajarol-a-medve-viszont-mar-nem</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medve-hatolt-be-egy-tusnadfurdoi-portara</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/harombocsos-anyamedve-bukkant-fel-gyergyoszentmikloson</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/boncolas-utan-ugy-velik-auto-uthette-el-az-elpusztult-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/a-villanypasztor-sem-allitotta-meg-a-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tyukokat-olt-a-medve-vaslabon</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/fara-maszott-medvebocsot-mentettek-meg</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ismet-tyukokat-pusztitott-a-medve-vaslabon</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ketbocsos-anyamedvet-zavartak-el-a-csendorok-a-tusnadfurdoi-vonatallomas-kozelebol</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvebocsot-pusztithatott-el-egy-masik-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/fara-menekultek-a-medvebocsok-mikozben-anyjuk-egy-masik-medvevel-verekedett</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/barmely-napszakban-a-varos-barmely-pontjan-felbukkanhatnak-a-medvek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvenagyuzem-tusnadfurdon</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/uzletnel-jart-a-medve-hiaba-kergettek-el-visszatert</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tusnadfurdoi-helyzetkep-keves-turista-sok-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/fenyes-nappal-fogtak-be-egy-serult-medvet-szekelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/visszaengedtek-az-erdobe-a-szekelyudvarhelyen-befogott-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvejaras-tusnadfurdon-marosfon-es-csobotfalvan</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/lakossagi-panasz-hianyaban-semmit-sem-tehetnek-a-csikszeredaban-garazdalkodo-medve-ellen</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/maradj-otthon-ezuttal-medve-miatt</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/jelen-allas-szerint-nem-nyitnak-ki-a-napkozik-es-a-bolcsodek-csikszeredaban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medve-jarkalt-csikszereda-utcain</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/mar-egy-egyszeru-kirandulas-is-veszelyesse-valt-a-medveproblemak-miatt</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/gyarapodo-medvekarok-szekelyudvarhelyen-es-kornyeken</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ket-medve-a-szekelyudvarhelyi-szaszok-taboraban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tejjel-taplaltak-a-magara-hagyott-medvebocsot</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tobb-medve-is-bejar-csikszeredaba-egyikre-mar-kilovesi-engedelyt-kertek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvet-gazoltak-el-csikszereda-kozeleben</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/megbirsagoltatna-a-kornyezetvedelmi-miniszter-azokat-akik-medveket-etetnek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nyilt-levelben-fordult-az-orszag-vezetoihez-a-medvejaras-miatt-tusnadfurdo-polgarmestere</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medveket-kergettek-el-a-hatosagiak-szekelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nagy-volt-a-medvejaras-hetvegen-hargita-megyeben</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/ket-medve-is-bement-szekelyudvarhelyre</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/tobb-mint-tiz-tehenet-oltek-meg-a-medvek-a-gyergyoszentmikloshoz-tartozo-legelokon</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvekerdes-megoldas-helyett-munkacsoportot-iger-a-miniszter</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kerulik-a-lakott-telepuleseket-a-vadonba-visszaengedett-medvek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/kovasznai-gondok-a-medvek-nem-felnek-az-embertol-a-turistak-nem-felnek-a-medvektol</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/erdeigyumolcs-ultetvennyel-tartanak-tavol-az-uduloteleptol-a-gyilkostoi-medveket</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/magyarorszagi-medveotthonba-kerulhet-nehany-a-tusnadfurdoi-medvek-kozul</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medveparkot-hoznanak-letre</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/beperelte-a-miniszteriumot-egy-medvetamadas-serultje-elso-fokon-karteritesre-jogosult</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/masodik-napja-hogy-a-borvizforras-kornyeken-koszalo-medvere-figyelmeztetnek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/iskolaudvarrol-kellett-kiuzni-egy-medvet-csikszeredaban</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/elejtettek-a-csikszeredaban-tobbszor-is-felbukkano-medvet</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/a-foterig-mereszkedett-a-csikszeredaban-felbukkant-ujabb-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/egyik-utan-a-masik-n-miert-latni-gyakran-medvet-csikszeredaban</t>
+  </si>
+  <si>
     <t>https://szekelyhon.ro/aktualis/megtermett-medve-rohangalt-csikpalfalva-utcain</t>
   </si>
   <si>
@@ -115,21 +499,195 @@
     <t>https://szekelyhon.ro/aktualis/medveles-teruletere-tevedtek-olcson-n-mindossze-az-ijedtseggel-n-megusztak</t>
   </si>
   <si>
+    <t>https://szekelyhon.ro/aktualis/balanbanyai-udvarba-hatolt-be-egy-medve</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/medvetamadas-tizenotezer-euro-karteritest-iteltek-meg-a-serultnek</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nem-fuznek-sok-remenyt-a-medvegondok-rendezesehez</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/vilag/egyszer-es-mindenkorra-rendezne-a-medvekerdest-kornyezetvedelmi-miniszterkent-tanczos-barna</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/megsem-szallitjak-el-a-medveket-tusnadfurdorol</t>
+  </si>
+  <si>
+    <t>https://szekelyhon.ro/aktualis/nyugi-van-medvefronton-es-meg-ezutan-johet-bfuvezesr</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-12.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-24.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2013/12_januar/sm_medvek_kr_10.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-78.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-86.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2018/12_januar/01/sm_medvek-pa-12.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-81.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2020/10_marcius/sm_medve3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2020/11_februar/sm_medvezoo_16_hv.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-6.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_kukazomedvek-tusnadfurdo-pnt-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetamadas-ebe-31.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2015/07_junius/sm_kukazo-medvek-vn-022.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/dronfoci/sm_dji-dronfoci-csikszentgyorgy-domokos-pnt-3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetetem-eted-ebe-04.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-90.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/vasarhely/aktualis/2020/11_februar/sm_medvezoo_06_hv.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-89.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/07_junius/02/sm_kukazomedve-tusnadfurdo-pnt-4.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/123rf/2020/sm_alvas-telefon-123rf.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetamadas-ebe-23.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/05_augusztus/sm_medvekiloves-csikszereda-gn_-21.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetetem-eted-ebe-03.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/08-maj/sm_eted-medvetamadas-ebe-64.jpg</t>
+  </si>
+  <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetamadas-ebe-41.jpg</t>
   </si>
   <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/12_kiemelesek/sm_medvebocs1-mentes.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/09-aprilis/sm_medvetamadas-ebe-21.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/05_augusztus/sm_elgazolt_medvebocs_ga-8.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/2019_kepvalogatas/sm_52_kukazomedvek-tusnadfurdo-pnt-13.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medve-tusnadfurdon-junius-pnt-7.jpg</t>
+  </si>
+  <si>
     <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medve-tusnadfurdon-junius-pnt-8.jpg</t>
   </si>
   <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medve-a-fan-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2019/06_julius/sm_tusvanyos-elokeszuletek-szombat-pnt-11.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/07-juni/sm_medvebocs-befogas-ebe-106.jpg</t>
+  </si>
+  <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/07-juni/sm_medvebocs-elengedes-ebe-66.jpg</t>
   </si>
   <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_maci-korhazmellett-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_malom-utca-vn-004.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/12_kiemelesek/sm_roalert-medve-oroszhegy.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2016/07_junius/sm_bolcsode-vn-005.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/12_kiemelesek/sm_medve-fortuna.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medve-tusnadfurdon-junius-pnt-5.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/11-februar/sm_megde-medvecsabda-ebe-53.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medvebocs-tusnadfurdo-hataraban01.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/06_julius/sm_elgazolt-medve-13a-pnt.jpg</t>
+  </si>
+  <si>
     <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_tusnadfurdoi-anyamedve-pnt-4.jpg</t>
   </si>
   <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_tusnadfurdoi-anyamedve-pnt-2.jpg</t>
+  </si>
+  <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/06-juli/sm_medve_udvarhely_belo-5.jpg</t>
   </si>
   <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_tusnadfurdoi-anyamedve-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2019/04_szeptember/02/sm_szentimre_utca_belo-14.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/08_majus/03/sm_medvetamadas-kapolnas-ba-16.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/06-juli/sm_medve_udvarhely_belo-10.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/gyergyo/aktualis/2020/sm_gyilkos-to_vendeglok.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/07-juni/sm_medvebocs-befogas-ebe-112.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/05_augusztus/02/sm_medvehajto-csendorok-nyereg-pnt.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/07_junius/02/sm_medveles-bogoz-ba-87.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2018/05_augusztus/sm_medvekiloves-csikszereda-gn_-26.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/05_augusztus/02/sm_medvegif.gif</t>
+  </si>
+  <si>
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2020/04-szeptember/sm_szentmihaly--ebe-510.jpg</t>
   </si>
   <si>
@@ -148,24 +706,123 @@
     <t>https://media.szekelyhon.ro/pictures/udvarhely/aktualis/2017/06_julius/sm_medveles-pa-94.jpg</t>
   </si>
   <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_tusnadfurdoi-anyamedve-pnt-3.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/csik/aktualis/2020/07_junius/sm_medve-tusnadfurdon-junius-pnt-6.jpg</t>
+  </si>
+  <si>
+    <t>https://media.szekelyhon.ro/pictures/agerpres/kiemelesek/14_kiemelesek/sm_tanczos-barna-miniszter.jpg</t>
+  </si>
+  <si>
     <t>aktualis</t>
   </si>
   <si>
+    <t>vilag</t>
+  </si>
+  <si>
     <t>csik</t>
   </si>
   <si>
     <t>udvarhely</t>
   </si>
   <si>
+    <t>vasarhely</t>
+  </si>
+  <si>
+    <t>agerpres</t>
+  </si>
+  <si>
+    <t>123rf</t>
+  </si>
+  <si>
+    <t>2019_kepvalogatas</t>
+  </si>
+  <si>
+    <t>gyergyo</t>
+  </si>
+  <si>
+    <t>['medve', 'Székelyudvarhely']</t>
+  </si>
+  <si>
+    <t>['Hargita megye', 'medve']</t>
+  </si>
+  <si>
+    <t>['Gyergyószentmiklós', 'medve']</t>
+  </si>
+  <si>
+    <t>['Hargita megye', 'Kovászna megye', 'Maros megye', 'medve']</t>
+  </si>
+  <si>
     <t>['medve', 'Udvarhelyszék']</t>
   </si>
   <si>
-    <t>['Hargita megye', 'medve']</t>
+    <t>['Maros megye', 'medve']</t>
   </si>
   <si>
     <t>['Gyergyószék', 'medve']</t>
   </si>
   <si>
+    <t>['Csíkszentgyörgy', 'medve']</t>
+  </si>
+  <si>
+    <t>['Etéd']</t>
+  </si>
+  <si>
+    <t>['Hargita megye', 'Háromszék', 'Marosszék']</t>
+  </si>
+  <si>
+    <t>['Felsőboldogfalva', 'medve']</t>
+  </si>
+  <si>
+    <t>['Háromszék', 'medve']</t>
+  </si>
+  <si>
+    <t>['medve', 'Tusnádfürdő']</t>
+  </si>
+  <si>
+    <t>['Gyergyószék', 'medve', 'Udvarhelyszék']</t>
+  </si>
+  <si>
+    <t>['Kovászna megye', 'medve']</t>
+  </si>
+  <si>
+    <t>['Belföld', 'medve']</t>
+  </si>
+  <si>
+    <t>['medve', 'Tusnád']</t>
+  </si>
+  <si>
+    <t>['Etéd', 'medve']</t>
+  </si>
+  <si>
+    <t>['Turizmus', 'Tusnádfürdő']</t>
+  </si>
+  <si>
+    <t>['Csíkszereda', 'medve']</t>
+  </si>
+  <si>
+    <t>['medve', 'Oroszhegy']</t>
+  </si>
+  <si>
+    <t>['Csíkszereda']</t>
+  </si>
+  <si>
+    <t>['Hargita megye']</t>
+  </si>
+  <si>
+    <t>['Baleset', 'Csíkszereda', 'medve']</t>
+  </si>
+  <si>
+    <t>['medve']</t>
+  </si>
+  <si>
+    <t>['Gyergyószék', 'medve', 'Turizmus']</t>
+  </si>
+  <si>
+    <t>['Magyarország', 'medve', 'Tusnádfürdő']</t>
+  </si>
+  <si>
     <t>['Csíkpálfalva', 'medve']</t>
   </si>
   <si>
@@ -181,6 +838,219 @@
     <t>['Hargita megye', 'Háromszék', 'Marosszék', 'medve']</t>
   </si>
   <si>
+    <t>['Balánbánya', 'medve', 'Rendőrség']</t>
+  </si>
+  <si>
+    <t>['Belföld', 'Környezetvédelem']</t>
+  </si>
+  <si>
+    <t>Amíg elérhető közelségben van az ételmaradék, addig a medvék jelenlétére is számítani kell</t>
+  </si>
+  <si>
+    <t>Medveradar: Zetelakán és Farkaslakán voltak a legaktívabbak tavaly a nagyvadak</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklós utcáin kóborolt egy medve</t>
+  </si>
+  <si>
+    <t>Lakott területektől távol engedték szabadon a Székelyudvarhelyen befogott medvét</t>
+  </si>
+  <si>
+    <t>Videón, ahogy szabadon engedik a Székelyudvarhelyen befogott medvét</t>
+  </si>
+  <si>
+    <t>Még nem tudni, hogy mennyi medvét lehet majd kilőni</t>
+  </si>
+  <si>
+    <t>Bevált a módszer, megijedt az emberektől a szabadon engedett medve</t>
+  </si>
+  <si>
+    <t>Újra garázdálkodnak a medvék Maros megyében</t>
+  </si>
+  <si>
+    <t>Kilövési engedélyt kértek a Maros megyében garázdálkodó medvére</t>
+  </si>
+  <si>
+    <t>Két medvét látott egy nő a háza közelében, egyet találtak a helyszínen a csendőrök</t>
+  </si>
+  <si>
+    <t>Egy anyamedve és a bocsa okozott riadalmat</t>
+  </si>
+  <si>
+    <t>Egy hónap sem kell, és megnövekednek a medvekárok a populáció túlszaporodása miatt</t>
+  </si>
+  <si>
+    <t>Juhokat öltek és bárányokat vittek el a nagyvadak</t>
+  </si>
+  <si>
+    <t>Figyelmeztető lövésekkel kergették el a Székelyudvarhelyre betérő medvét</t>
+  </si>
+  <si>
+    <t>Három medve járt be egy ülkei gazdaságba</t>
+  </si>
+  <si>
+    <t>Három medve egy csíkbánkfalvi portán</t>
+  </si>
+  <si>
+    <t>Elpusztult egy medve Etéd határában, orvvadászat gyanújával vizsgálódik a rendőrség</t>
+  </si>
+  <si>
+    <t>Célkeresztben a „medvetörvény” – a vadászok szerint a szaktárca összemossa a fogalmakat</t>
+  </si>
+  <si>
+    <t>Három juhot ölt meg a medve egy farcádi gazda udvarán</t>
+  </si>
+  <si>
+    <t>Tehetetlenek a lakók, az ablakból kénytelenek végignézni, ahogy a medvék elpusztítják a haszonállataikat</t>
+  </si>
+  <si>
+    <t>Áthelyezik egy másik területre a Tusnádfürdőre napi rendszerességgel bejáró medvét</t>
+  </si>
+  <si>
+    <t>Medvék miatt riasztották a hatóságokat és ébresztették fel álmukból a környéken élőket</t>
+  </si>
+  <si>
+    <t>Külön megelőzési kvótát és a medvekárok kifizetését kérik</t>
+  </si>
+  <si>
+    <t>A kormorán lekerülhet a védett fajok listájáról, a medve viszont már nem?</t>
+  </si>
+  <si>
+    <t>Medve hatolt be egy tusnádfürdői portára</t>
+  </si>
+  <si>
+    <t>Hárombocsos anyamedve bukkant fel Gyergyószentmiklósnál</t>
+  </si>
+  <si>
+    <t>Boncolás után úgy vélik, autó üthette el az elpusztult medvét</t>
+  </si>
+  <si>
+    <t>A villanypásztor sem állította meg a medvét</t>
+  </si>
+  <si>
+    <t>Tyúkokat ölt a medve Vaslábon</t>
+  </si>
+  <si>
+    <t>Fára mászott medvebocsot mentettek meg</t>
+  </si>
+  <si>
+    <t>Ismét tyúkokat pusztított a medve Vaslábon</t>
+  </si>
+  <si>
+    <t>Kétbocsos anyamedvét zavartak el a csendőrök a tusnádfürdői vonatállomás közeléből</t>
+  </si>
+  <si>
+    <t>Medvebocsot pusztíthatott el egy másik medve</t>
+  </si>
+  <si>
+    <t>Két anyamedve verekedett össze Tusnádfürdőn, egy bocs áldozatul esett</t>
+  </si>
+  <si>
+    <t>Bármely napszakban, a város bármely pontján felbukkanhatnak a medvék</t>
+  </si>
+  <si>
+    <t>Medvenagyüzem Tusnádfürdőn</t>
+  </si>
+  <si>
+    <t>Üzletnél járt a medve, hiába kergették el, visszatért</t>
+  </si>
+  <si>
+    <t>Tusnádfürdői helyzetkép: kevés turista, sok medve</t>
+  </si>
+  <si>
+    <t>Fényes nappal fogtak be egy sérült medvét Székelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>Visszaengedték az erdőbe a Székelyudvarhelyen befogott medvét</t>
+  </si>
+  <si>
+    <t>Medvejárás Tusnádfürdőn, Marosfőn és Csobotfalván</t>
+  </si>
+  <si>
+    <t>Lakossági panasz hiányában semmit sem tehetnek a Csíkszeredában garázdálkodó medve ellen</t>
+  </si>
+  <si>
+    <t>Maradj otthon, ezúttal medve miatt</t>
+  </si>
+  <si>
+    <t>Jelen állás szerint nem nyitnak ki a napközik és a bölcsődék Csíkszeredában</t>
+  </si>
+  <si>
+    <t>Medve járkált Csíkszereda utcáin</t>
+  </si>
+  <si>
+    <t>Már egy egyszerű kirándulás is veszélyessé vált a medveproblémák miatt</t>
+  </si>
+  <si>
+    <t>Gyarapodó medvekárok Székelyudvarhelyen és környékén</t>
+  </si>
+  <si>
+    <t>Két medve a székelyudvarhelyi Szászok táborában</t>
+  </si>
+  <si>
+    <t>Tejjel táplálták a magára hagyott medvebocsot</t>
+  </si>
+  <si>
+    <t>Több medve is bejár Csíkszeredába, egyikre már kilövési engedélyt kértek</t>
+  </si>
+  <si>
+    <t>Medvét gázoltak el Csíkszereda közelében</t>
+  </si>
+  <si>
+    <t>Megbírságoltatná a környezetvédelmi miniszter azokat, akik medvéket etetnek</t>
+  </si>
+  <si>
+    <t>Nyílt levélben fordult az ország vezetőihez a medvejárás miatt Tusnádfürdő polgármestere</t>
+  </si>
+  <si>
+    <t>Medvéket kergettek el a hatóságiak Székelyudvarhelyen</t>
+  </si>
+  <si>
+    <t>Nagy volt a medvejárás hétvégén Hargita megyében</t>
+  </si>
+  <si>
+    <t>Két medve is bement Székelyudvarhelyre</t>
+  </si>
+  <si>
+    <t>Több mint tíz tehenet öltek meg a medvék a Gyergyószentmiklóshoz tartozó legelőkön</t>
+  </si>
+  <si>
+    <t>Medvekérdés: megoldás helyett munkacsoportot ígér a miniszter</t>
+  </si>
+  <si>
+    <t>Kerülik a lakott településeket a vadonba visszaengedett medvék</t>
+  </si>
+  <si>
+    <t>Kovásznai gondok: a medvék nem félnek az embertől, a turisták nem félnek a medvéktől</t>
+  </si>
+  <si>
+    <t>Erdeigyümölcs-ültetvénnyel tartanák távol az üdülőteleptől a gyilkostói medvéket</t>
+  </si>
+  <si>
+    <t>Magyarországi medveotthonba kerülhet néhány a tusnádfürdői medvék közül</t>
+  </si>
+  <si>
+    <t>Medveparkot hoznának létre</t>
+  </si>
+  <si>
+    <t>Beperelte a minisztériumot egy medvetámadás sérültje, első fokon kártérítésre jogosult</t>
+  </si>
+  <si>
+    <t>Második napja, hogy a borvízforrás környékén kószáló medvére figyelmeztetnek</t>
+  </si>
+  <si>
+    <t>Iskolaudvarról kellett kiűzni egy medvét Csíkszeredában</t>
+  </si>
+  <si>
+    <t>Elejtették a Csíkszeredában többször is felbukkanó medvét</t>
+  </si>
+  <si>
+    <t>A főtérig merészkedett a Csíkszeredában felbukkant újabb medve</t>
+  </si>
+  <si>
+    <t>Egyik a másik után – miért látni gyakran medvét Csíkszeredában?</t>
+  </si>
+  <si>
     <t>Megtermett medve rohangált Csíkpálfalva utcáin</t>
   </si>
   <si>
@@ -214,6 +1084,231 @@
     <t>Medveles területére tévedtek, olcsón – mindössze az ijedtséggel – megúszták</t>
   </si>
   <si>
+    <t>Balánbányai udvarba hatolt be egy medve</t>
+  </si>
+  <si>
+    <t>Medvetámadás: tizenötezer euró kártérítést ítéltek meg a sérültnek</t>
+  </si>
+  <si>
+    <t>Nem fűznek sok reményt a medvegondok rendezéséhez</t>
+  </si>
+  <si>
+    <t>Egyszer s mindenkorra rendezné a medvekérdést környezetvédelmi miniszterként Tánczos Barna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mégsem szállítják el a medvéket Tusnádfürdőről</t>
+  </si>
+  <si>
+    <t>Nyugi van medvefronton, és még ezután jöhet a „füvezés”</t>
+  </si>
+  <si>
+    <t>A szeméttárolók vonzzák a székelyudvarhelyi Cserehát lakónegyedbe az aktív nagyvadakat, ezért a Nagy-Küküllő Vadász- és Sporthorgász Egyesület medvebiztos kukákat rendelt, amelyeket a szemételszállító vállalattal egyeztetve helyezne ki. A medvék befogásával is próbálkoznak.</t>
+  </si>
+  <si>
+    <t>A kezdeti fellendülés után kissé lankadt az aktivitás a székelyföldi medveradar és -térkép néven emlegetett medveészlelő portálon, amelyet tavaly márciusban hozott létre Csala Dénes adatblogger. Ettől eltekintve a több mint 700 bejegyzést számláló medvetérkép a legszerteágazóbb adatbázisnak számít.</t>
+  </si>
+  <si>
+    <t>Egy városszéli üzemanyagtöltő állomásnál felbukkant medve miatt riasztották keddre virradóan a hatóságokat Gyergyószentmiklóson. Míg a csendőrök a nagyvadat kutatták, a vészhelyzeti felügyelőség a Ro-Alert rendszeren figyelmeztette a lakókat a veszélyre. A medvét végül megtalálták és elűzték.</t>
+  </si>
+  <si>
+    <t>Medvét fogott a székelyudvarhelyi Cserehát lakótelep közelében a Nagy-Küküllő Vadász- és Sporthorgász Egyesület az ebből a célból megépített csapdájával. A vadat a Hargita-hegység lábához szállították, majd szabadon engedték. A cél az volt, hogy a kilövés helyett új esélyt adjanak a fiatal nagyvadnak.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Hargita-hegység lábához szállították, majd szabadon engedték azt a medvét, amelyet a székelyudvarhelyi Cserehát lakótelep közelében a Nagy-Küküllő Vadász- és Sporthorgász Egyesület az ebből a célból megépített csapdájával fogott el. </t>
+  </si>
+  <si>
+    <t>A vadászok számításai szerint országszerte legalább ötszáz medve kilövésére ad jóváhagyást idén a környezetvédelmi minisztérium a vadszámfelmérések eredménye alapján. A medvevadászat 2016-ban elrendelt teljes betiltása óta először hagyhatja jóvá idén a kilövési kereteket a szaktárca.</t>
+  </si>
+  <si>
+    <t>Nem ment a lakott területek közelébe a székelyudvarhelyi Cserehát-negyed környékén befogott, majd a Madarasi Hargitán szabadon engedett medve. A vadászok szerint a csapda ugyan bevált, de mindenképp szükség van a kilövési kvótákra is.</t>
+  </si>
+  <si>
+    <t>Hétvégén több Maros megyei településéről is jelezték, hogy medve járt a gazdaságokban, állatokat pusztított el.</t>
+  </si>
+  <si>
+    <t>Az elmúlt néhány nap alatt immár nyolc helyen okozott kárt a medve Maros megyében. Szerdán a prefektus összehívta a sürgősségi esetek parancsnokságát, és elhatározták, hogy kilövési engedélyt kérnek egy nagyvadra.</t>
+  </si>
+  <si>
+    <t>Csendőröket mozgósítottak és Ro-Alert vészhelyzeti üzenetet küldtek hétfőn éjfélkor Vaslábon, miután egy nő két medvét látott lakóháza udvarának közelében.</t>
+  </si>
+  <si>
+    <t>Csendőrségi beavatkozásra volt szükség hétfőre virradóan Vaslábon, ahol anyamedve jelent meg a bocsával – számol be az Agerpres.</t>
+  </si>
+  <si>
+    <t>Gyergyó-, Csík- és Udvarhelyszéken is aktívak már a medvék – van olyan település is, ahol háziállatokra támadtak, de egyelőre ez nem jellemző. A vadásztársulatok vezetői szerint a későbbiekben azonban a tavalyinál is több probléma lesz.</t>
+  </si>
+  <si>
+    <t>Két bocs és egy anyamedve garázdálkodott szerdán hajnalban egy székelyszenttamási gazdaságban, ahol több juhot és bárányt is megölt. A gazda maga is látta a támadókat, reflektorokkal és kiabálással próbálta elriasztani, de azok csak a pusztítás után távoztak.</t>
+  </si>
+  <si>
+    <t>Egy nagyjából hároméves medve kóborolt szerda éjjel a székelyudvarhelyi II. Rákóczi Ferenc utcában – az esetet a Ro-Alert telefonos riasztórendszer is jelezte.</t>
+  </si>
+  <si>
+    <t>Három medve járt be péntek éjszaka egy, az Oroszhegyhez tartozó ülkei háztartásba, feltételezhetően egy anyamedve, két bocsával – tájékoztat közleményben a Hargita Megyei Csendőr-felügyelőség.</t>
+  </si>
+  <si>
+    <t>Három medve járt be hétfőn koraeste egy csíkbánkfalvi portára. A medvék jelenlétét egy helyi lakos jelentette a 112-es egységes hívószámon 19 óra 37 perckor.</t>
+  </si>
+  <si>
+    <t>Sérült medve miatt riasztották a hatóságokat Etéd határába hétfőn. Különleges intézkedésre nem volt szükség, az állat ugyanis időközben kimúlt.</t>
+  </si>
+  <si>
+    <t>A többéves tiltás után tavaly ugyan megszületett a törvény a medvekilövési kvóták jóváhagyásáról, ám úgy tűnik, a gyakorlatban ez nem történik meg. A beavatkozás és megelőzés fogalmakat összemosva alkotott rendelet-tervezetet a környezetvédelmi minisztérium a medvekilövések szabályozására.</t>
+  </si>
+  <si>
+    <t>Három juhot ölt meg a medve a hétfőről keddre virradó éjszaka a Hargita megyei Farcádon, egy gazda udvarán. A helybélieket a Ro-Alert rendszeren figyelmeztették a veszélyről.</t>
+  </si>
+  <si>
+    <t>Nemcsak éjszaka, hanem nappal is több medve jár be a háromszéki Zágon község falvaiba. Az emberek rettegnek, az életüket féltik, miközben a vadak számos háziállatot elpusztítottak már. Állandó a csendőri jelenlét, a Ro-Alert rendszeren keresztül egymás érik a vészhelyzeti riasztások.</t>
+  </si>
+  <si>
+    <t>A hatóságok kérésére át fogják helyezni egy másik területre azt a medvét, amely majdnem minden nap lelátogat a nappali órákban Tusnádfürdőre és a település utcáin kószál élelmet keresve. A helyi hatóságok várják a környezetvédelmi minisztérium ilyen irányú engedélyét.</t>
+  </si>
+  <si>
+    <t>Vaslábon egy ház udvarára, míg a Székelyudvarhelyhez tartozó Szejkefürdőn szintén egy háztartás udvarára járt be a medve vasárnap este. Mindkét esetben riasztották a hatóságokat, valamint figyelmeztetést küldtek a környéken élőknek a RO-Alert rendszeren keresztül.</t>
+  </si>
+  <si>
+    <t>A környezetvédelmi minisztérium a közvitára bocsátott rendelettervezetében összemossa a barnamedve kilövésére vonatkozó beavatkozási és megelőzési kvótát, és a vadkárok kifizetése is késik. Fejér László Ödön háromszéki szenátor levélben fordult Costel Alexe környezetvédelmi miniszterhez.</t>
+  </si>
+  <si>
+    <t>Képmutatásnak tartja Benkő Erika RMDSZ parlamenti képviselő, hogy a kormorán lekerülhet a védett fajok listájáról, a medve pedig nem. A parlamentbe benyújtott tervezet alapján levennék a kormoránt a szigorúan védett fajok listájáról, mert a madár túl sok halat eszik.</t>
+  </si>
+  <si>
+    <t>Egy tusnádfürdői portára ment be egy medve csütörtökön késő este negyed tizenegy körül. Behatolt a pincébe, és betört egy kis ablakot a ház hátsó részén.</t>
+  </si>
+  <si>
+    <t>Gyergyószentmiklós közelébe „tévedt” medvék miatt riasztották a hatóságokat péntek este. A lakókat a Ro-Alert rendszeren figyelmeztették a veszélyre.</t>
+  </si>
+  <si>
+    <t>A tetemen elvégzett boncolás eredményei szerint szinte biztosan egy autó üthette el azt a medvét, amelyet két hete találtak meg Kőrispatak határában a megyei úttól nem messze. A rendőrség még nyomoz az ügyben.</t>
+  </si>
+  <si>
+    <t>Nem először tört be medve az etédi Kelemen család portájára, ahol ezúttal egy bárányt ölt meg. A községben egyébként csak ebben az esztendőben már közel húsz hasonló eset történt, egyelőre azonban nincs megoldás a problémára. A vadászok kérni fogják a problémás egyed kilövését.</t>
+  </si>
+  <si>
+    <t>Betört egy vaslábi portára és több tyúkot pusztított el egy medve péntekre virradóan – tájékoztatott a Hargita Megyei Csendőr-felügyelőség.</t>
+  </si>
+  <si>
+    <t>Fára mászott és az ágakról lejönni nem tudó medvebocsnak segítettek szombaton késő délután a Maros megyei Libánfalván.</t>
+  </si>
+  <si>
+    <t>Ismét medvéhez riasztották a csendőröket a vasárnapra virradóan Hargita megyében. Ezúttal egy vaslábi gazdaságot környékezett meg a medve, betört az udvarra és több tyúkot is elpusztított – írja az Agerpres hírügynökség.</t>
+  </si>
+  <si>
+    <t>Kétbocsos anyamedvét zavartak el hétfő délután a csendőrök a tusnádfürdői állomás közeléből – tájékoztat közleményben a Hargita megyei csendőr-felügyelőség. A hatóságokat a 112-es egységes segélyhívószámon értesítették az állatok jelenlétéről.</t>
+  </si>
+  <si>
+    <t>Rendőrök találtak rá egy elpusztult medvebocsra az erdővidéki Bardóc közelében, a patakparton. A környezetőrséget értesítették, a felügyelők pedig azt állapították meg, hogy az állat halálát egy másik, nagyobb medve okozhatta.</t>
+  </si>
+  <si>
+    <t>Két anyamedve verekedett össze Tusnádfürdő egyik sétányán, mindkét állatnak három-három bocsa volt, amelyek mind felmenekültek a fákra. Egyikük azonban lemászott vagy leesett a fáról, és a másik anyamedve megölte.</t>
+  </si>
+  <si>
+    <t>Egyre több medve jár be napi rendszerességgel Tusnádfürdőre, az évek óta fennálló probléma pedig súlyosbodni látszik, mivel a szeméttárolóknál kihelyezett villanypásztorok miatt kiszámíthatatlanná vált, hol és mikor bukkannak fel a nagyvadak.</t>
+  </si>
+  <si>
+    <t>Több medve-észlelés miatt is riasztották a Hargita megyei csendőröket Tusnádfürdőről kedden este. A hatóságiak több medvét is elűztek a lakott területekről.</t>
+  </si>
+  <si>
+    <t>Öt esetben is közbe kellett lépniük a csendőröknek Tusnádfürdőn a medvék miatt vasárnap este és hétfőre virradóan.</t>
+  </si>
+  <si>
+    <t>A lakosság és a helyi önkormányzat is nagyban függ a turizmustól Tusnádfürdőn, ami idén elég lesújtóan alakult. Március közepe óta a látogatók száma majdnem egyenlő a nullával, s ha ezt még lehet tetőzni, azt a medvék állandó jelenléte meg is teszi.</t>
+  </si>
+  <si>
+    <t>Sérült fiatal medve tört be csütörtökön délelőtt egy székelyudvarhelyi háztartásba, majd egy magas fán keresett menedéket. A Nagy-Küküllő Vadász- és Sporthorgász Egyesület tagjai altatólövedékkel vették célba a vadat, hogy megvizsgálhassák a sérülését.</t>
+  </si>
+  <si>
+    <t>A szükséges kezelések után vadászterületük egy másik részén engedték szabadon a csütörtökön Székelyudvarhelyen befogott sérült medvét a Nagy-Küküllő Vadász- és Sporthorgász Egyesület szakemberei.</t>
+  </si>
+  <si>
+    <t>Többször riasztották a hétvégén a Hargita megyei csendőröket a települések utcáin kószáló medvék miatt – tájékoztatott a Hargita Megyei Csendőr-felügyelőség hétfőn.</t>
+  </si>
+  <si>
+    <t>Megrongálta egy lakóház kerítését a Malom utcában a napok óta Csíkszereda környékén garázdálkodó medve. A területileg illetékes vadásztársaság kérni fogja a naponta felbukkanó nagyvad kilövését, ehhez azonban lakossági panaszokra van szükség.</t>
+  </si>
+  <si>
+    <t>Medvét láttak Oroszhegyben, a 73-as házszám közelében – értesítették a környéken élőket, sőt még a székelyudvarhelyieket is a Ro-Alert révén.</t>
+  </si>
+  <si>
+    <t>Huszonöt virtuális sajtótájékoztatót követően személyes formában, a városházán ismertette Ráduly Róbert Kálmán csíkszeredai polgármester a helyi katasztrófavédelmi bizottság napirendi pontjainak döntéseit. Az elmúlt napok medveügyei is terítékre kerültek.</t>
+  </si>
+  <si>
+    <t>Egy medvét kaptak lencsevégre kedden kora este a csíkszeredai Fenyő utcában, a Fortuna-park közelében. A videót a Vadkárok Székelyföldön Facebook-oldalon tették közzé.</t>
+  </si>
+  <si>
+    <t>Bűnügyi keresetet nyújtott be a környezetvédelmi tárca vezetője és egyik államtitkára ellen a Zetelaki Területtulajdonosi Társulás. Az indok: nem hagyta jóvá a szakminisztérium a prevenciós célú kilövési kvótát, amellyel orvosolható lenne a medvevadászat betiltása óta fokozódó probléma.</t>
+  </si>
+  <si>
+    <t>Legalább tíz medve okoz folyamatosan gondokat a székelyudvarhelyi portákon: kecskéket, juhokat és tyúkokat pusztítanak el, de a környéken már emberre is támadott egy nagyvad. A Nagy-Küküllő Vadász- és Sporthorgász Egyesület egyelőre a medvék befogására és áthelyezésére fekteti a hangsúlyt.</t>
+  </si>
+  <si>
+    <t>Két medvét észleltek Székelyudvarhelyen, a Szászok táborában – erről értesíti a helyieket a Ro-Alert alkalmazáson keresztül a vészhelyzeti felügyelőség.</t>
+  </si>
+  <si>
+    <t>Tusnádfürdő határában, az út szélén magára hagyott medvebocs miatt riasztották a csendőröket vasárnap reggel. A vadállatot a hatóságiak „látták el”, míg a helyszínre érkezett egy állatorvos, illetve a balánbányai medve-visszavadító központ illetékese.</t>
+  </si>
+  <si>
+    <t>Kilövési engedélyt kért a területileg illetékes vadásztársaság a Csíkszeredában egyre gyakrabban felbukkanó fiatal medvére. A megfigyeléseik során az is kiderült, hogy egy bocsos anyamedve is él a körkényen, vasárnap este pedig már lakott terület közelébe merészkedtek.</t>
+  </si>
+  <si>
+    <t>Medvét gázolt el egy autó Csíkszereda közelében, a 13A jelzésű országúton, a Domb-kanyar előtt csütörtök este. A balesetben a medve elpusztult, az autóban pedig anyagi kár keletkezett, senki nem sérült meg.</t>
+  </si>
+  <si>
+    <t>A medvéket etető személyek megbírságolását helyezte kilátásba Costel Alexe környezetvédelmi miniszter.</t>
+  </si>
+  <si>
+    <t>Az élethez és testi épséghez, illetve a tulajdonhoz való jogot veszélyeztetik a medvék Tusnádfürdőn – értékel az önkormányzati képviselő-testület nevében írt nyílt levelében Albert Tibor tusnádfürdői polgármester, aki a levelet az államelnöknek, a miniszterelnöknek, a szenátusnak és a képviselőháznak is.</t>
+  </si>
+  <si>
+    <t>Két, a Szentimre, illetve a Rózsa utcákban feltűnt fiatal medvét kellett elkergessenek a Székelyudvarhelyi Helyi Rendőrség, illetve a Nagy-Küküllő Vadász- és Sporthorgász Egyesület munkatársai hétfőn kora este.</t>
+  </si>
+  <si>
+    <t>A hétvége során hatszor riasztották a hatóságokat Hargita megye különböző településein medvék felbukkanása miatt.</t>
+  </si>
+  <si>
+    <t>Két medvére figyelmeztető RO-Alert jelzést küldtek a hatóságok a székelyudvarhelyieknek hétfőn koraeste.</t>
+  </si>
+  <si>
+    <t>Május közepe óta már legalább 11 szarvasmarha esett medvék támadásának áldozatul a Gyergyószentmiklóshoz tartozó legelőkön. Ezek azonban csak azok az esetek, melyeket a gazdák kártérítés reményében be is jelentettek.</t>
+  </si>
+  <si>
+    <t>Bár a módosított vadászati törvény értelmében május 15-ig kellett volna kiadja a környezetvédelmi minisztérium a medvekilövési kvótákat – beavatkozási és megelőzési kvótát egyaránt – ez nem történt meg.</t>
+  </si>
+  <si>
+    <t>Életben maradtak, ugyanakkor kerülik a településeket a Nagy-Küküllő Vadász- és Sporthorgász Egyesület által Székelyudvarhelyen befogott, majd a máshol szabadon engedett medvék. Más térségekben vagy nem végeztek hasonló áthelyezést, vagy távolabb vitték a nagyvadakat, így nem tudnak a további sorsukról.</t>
+  </si>
+  <si>
+    <t>Átiratokkal bombázza a hatóságokat Kovászna város önkormányzata, mert már tarthatatlanná vált a sok medve jelenléte a fürdővárosban. A másik probléma, hogy a turisták nem tartanak a vadállatoktól és a RO-Alert jelzés nyomán keresik őket a városban.</t>
+  </si>
+  <si>
+    <t>Elkerülik a medvék a Gyilkostó üdülőtelepet, javulnak a halak és denevérek életkörülményei, és új erdő is létesül – főbb pontokban ezt tervezi megvalósítani a Békás-szoros-Nagyhagymás Nemzeti Park. A közel három millió eurós pályázat előkészítése folyamatban van.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Tusnádfürdőre rendszeresen bejáró és garázdálkodó medvék közül többet is befogadna a magyarországi Veresegyházán működő medveotthon. Az ajánlatot a Környezetvédelmi Minisztériumnak is elküldték, engedélyezésre várnak.</t>
+  </si>
+  <si>
+    <t>A háztáji gazdaságokban garázdálkodó, az emberek közelében táplálékot kereső medvék számára több száz hektáros medveparkot szeretne létrehozni a Hargita megyei önkormányzat, a szükséges területet a közbirtokosságoktól bérelnék.</t>
+  </si>
+  <si>
+    <t>A Csíkszeredai Bíróság első fokon 24 ezer lejes összegű kártérítés kifizetésére kötelezte a környezetvédelmi minisztériumot egy sértett számára, akit két éve medve sebesített meg Tusnádfürdőn. Az elsőfokú ítélet ellen fellebbezést nyújtottak be, ezt még nem tárgyalták.</t>
+  </si>
+  <si>
+    <t>Akárcsak csütörtök este, péntek délután is felbukkant egy medve a csíksomlyói borvízforrás közelében. A környéken lévőket a Ro-Alert rendszeren figyelmeztették a veszélyre.</t>
+  </si>
+  <si>
+    <t>Medvét vett észre a csíkszeredai Márton Áron Főgimnázium udvarán egy férfi, és riasztotta a hatóságokat a 112-n szombat éjjel negyed egykor.</t>
+  </si>
+  <si>
+    <t>A Márton Áron Főgimnázium udvarán ejtették el szombaton késő este a Csíkszeredába napok óta bejáró medvét. A fiatal egyedre kilövési engedélyt kapott az illetékes vadásztársulat a környezetvédelmi minisztériumtól.</t>
+  </si>
+  <si>
+    <t>Miután szombat este kilőtték a múlt héten Csíkszereda és Csíksomlyó több pontján is felbukkant kis termetű medvét, egy másik egyed tűnt fel hétfőre virradóan a város utcáin. A nagyvad ezúttal a városközpontig, a Szabadság térre is bemerészkedett.</t>
+  </si>
+  <si>
+    <t>A fiatal medvék a területhiány miatt kénytelenek új élőhelyet keresni, ezért közelítik meg egyre gyakrabban a lakott területeket – véli a szakember azok után, hogy bebizonyosodott, Csíkszeredában nemcsak egy medve kószált az elmúlt napokban.</t>
+  </si>
+  <si>
     <t>Csíkpálfalva utcáin rohanó nagytestű medvét filmeztek le kedd éjjel.</t>
   </si>
   <si>
@@ -245,16 +1340,34 @@
   </si>
   <si>
     <t>Tragédiába is torkolhatott volna az eset, de egy hatalmas ijedtséggel megúszták vasárnap délelőtti sétájukat azok a marosvásárhelyi turisták, akik a Borzont melletti Baricz kanyar közelében egy medveles udvarára tévedtek. Mások okulására is elmesélték a történteket.</t>
+  </si>
+  <si>
+    <t>A háza udvarán ólálkodó medve miatt riasztotta a hatóságokat Balánbányán egy nő szombaton nem sokkal éjfél után – tájékoztat közleményben a Hargita megyei csendőr-felügyelőség.</t>
+  </si>
+  <si>
+    <t>A Hargita Megyei Törvényszék másodfokú határozata a korábbinál nagyobb összegű kártérítés kifizetésére kötelezte a környezetvédelmi minisztériumot egy Tusnádfürdőn történt medvetámadás sérültje számára. Ez az ítélet sem végleges, további fellebbezésre van lehetőség.</t>
+  </si>
+  <si>
+    <t>Mindeddig nem ért el eredményt a környezetvédelmi minisztérium ellen benyújtott bűnügyi kereset ügyében a Zetelaki Területtulajdonosi Társulás. Az ügyészség nemrég elutasította a prevenciós célú medvekilövési kvóta jóváhagyásának az elmulasztása miatt kezdeményezett keresetet.</t>
+  </si>
+  <si>
+    <t>Egyebek mellett a medveprobléma rendezését, a kártérítések kifizetését és a törvénytelen fakitermelés visszaszorítását tartja fő feladatainak Tánczos Barna frissen kinevezett környezetvédelmi miniszter, aki emellett szenátori munkáját is ellátja a továbbiakban.</t>
+  </si>
+  <si>
+    <t>Nem fogják be és nem szállítják el Magyarországra a Tusnádfürdőre rendszeresen bejáró medvéket, ahogy ezt tavaly szerették volna. Szigorú eljárásoknak, karanténkötelezettségnek kellene megfelelni, amely a gyakorlatban nehezen alkalmazható – tudtuk meg.</t>
+  </si>
+  <si>
+    <t>Noha a medvék jó része nem alszik téli álmot, az utóbbi időszakban mégsem okoztak károkat. Volt elég élelem az erdőn, sőt még most is van, illetve a szakember szerint tavasszal a nagyvadak rendszerint zöld füvet legelnek, megtisztítva a szervezetüket a tél lejártával.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,14 +1444,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -385,7 +1490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,27 +1522,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,24 +1556,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,16 +1731,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,382 +1767,2932 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44069</v>
+        <v>43851</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>242</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44070</v>
+        <v>43856</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44078</v>
+        <v>43858</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44091</v>
+        <v>43864</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I5" t="s">
+        <v>279</v>
+      </c>
+      <c r="J5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43864</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" t="s">
+        <v>280</v>
+      </c>
+      <c r="J6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43884</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43892</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43892</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" t="s">
+        <v>247</v>
+      </c>
+      <c r="I9" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43894</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" t="s">
+        <v>284</v>
+      </c>
+      <c r="J10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43900</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I11" t="s">
+        <v>285</v>
+      </c>
+      <c r="J11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43906</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I12" t="s">
+        <v>286</v>
+      </c>
+      <c r="J12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H13" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" t="s">
+        <v>287</v>
+      </c>
+      <c r="J13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" t="s">
+        <v>236</v>
+      </c>
+      <c r="H14" t="s">
+        <v>246</v>
+      </c>
+      <c r="I14" t="s">
+        <v>288</v>
+      </c>
+      <c r="J14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G15" t="s">
+        <v>235</v>
+      </c>
+      <c r="H15" t="s">
+        <v>242</v>
+      </c>
+      <c r="I15" t="s">
+        <v>289</v>
+      </c>
+      <c r="J15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43939</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" t="s">
+        <v>246</v>
+      </c>
+      <c r="I16" t="s">
+        <v>290</v>
+      </c>
+      <c r="J16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" t="s">
+        <v>233</v>
+      </c>
+      <c r="G17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17" t="s">
+        <v>249</v>
+      </c>
+      <c r="I17" t="s">
+        <v>291</v>
+      </c>
+      <c r="J17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" t="s">
+        <v>233</v>
+      </c>
+      <c r="G18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" t="s">
+        <v>250</v>
+      </c>
+      <c r="I18" t="s">
+        <v>292</v>
+      </c>
+      <c r="J18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" t="s">
+        <v>251</v>
+      </c>
+      <c r="I19" t="s">
+        <v>293</v>
+      </c>
+      <c r="J19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43956</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" t="s">
+        <v>233</v>
+      </c>
+      <c r="G20" t="s">
+        <v>237</v>
+      </c>
+      <c r="H20" t="s">
+        <v>252</v>
+      </c>
+      <c r="I20" t="s">
+        <v>294</v>
+      </c>
+      <c r="J20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>43956</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" t="s">
+        <v>233</v>
+      </c>
+      <c r="G21" t="s">
+        <v>236</v>
+      </c>
+      <c r="H21" t="s">
+        <v>253</v>
+      </c>
+      <c r="I21" t="s">
+        <v>295</v>
+      </c>
+      <c r="J21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43959</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" t="s">
+        <v>233</v>
+      </c>
+      <c r="G22" t="s">
+        <v>235</v>
+      </c>
+      <c r="H22" t="s">
+        <v>254</v>
+      </c>
+      <c r="I22" t="s">
+        <v>296</v>
+      </c>
+      <c r="J22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43962</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H23" t="s">
+        <v>255</v>
+      </c>
+      <c r="I23" t="s">
+        <v>297</v>
+      </c>
+      <c r="J23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43963</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>236</v>
+      </c>
+      <c r="H24" t="s">
+        <v>256</v>
+      </c>
+      <c r="I24" t="s">
+        <v>298</v>
+      </c>
+      <c r="J24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43964</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25" t="s">
+        <v>257</v>
+      </c>
+      <c r="I25" t="s">
+        <v>299</v>
+      </c>
+      <c r="J25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>43966</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" t="s">
+        <v>235</v>
+      </c>
+      <c r="H26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I26" t="s">
+        <v>300</v>
+      </c>
+      <c r="J26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>43966</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>235</v>
+      </c>
+      <c r="H27" t="s">
+        <v>244</v>
+      </c>
+      <c r="I27" t="s">
+        <v>301</v>
+      </c>
+      <c r="J27" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43969</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" t="s">
+        <v>246</v>
+      </c>
+      <c r="I28" t="s">
+        <v>302</v>
+      </c>
+      <c r="J28" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>43976</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
+        <v>236</v>
+      </c>
+      <c r="H29" t="s">
+        <v>259</v>
+      </c>
+      <c r="I29" t="s">
+        <v>303</v>
+      </c>
+      <c r="J29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43980</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" t="s">
+        <v>236</v>
+      </c>
+      <c r="H30" t="s">
+        <v>248</v>
+      </c>
+      <c r="I30" t="s">
+        <v>304</v>
+      </c>
+      <c r="J30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43982</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" t="s">
+        <v>247</v>
+      </c>
+      <c r="I31" t="s">
+        <v>305</v>
+      </c>
+      <c r="J31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>43982</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>236</v>
+      </c>
+      <c r="H32" t="s">
+        <v>248</v>
+      </c>
+      <c r="I32" t="s">
+        <v>306</v>
+      </c>
+      <c r="J32" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" t="s">
+        <v>233</v>
+      </c>
+      <c r="G33" t="s">
+        <v>235</v>
+      </c>
+      <c r="H33" t="s">
+        <v>254</v>
+      </c>
+      <c r="I33" t="s">
+        <v>307</v>
+      </c>
+      <c r="J33" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43984</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" t="s">
+        <v>253</v>
+      </c>
+      <c r="I34" t="s">
+        <v>308</v>
+      </c>
+      <c r="J34" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43986</v>
+      </c>
+      <c r="C35" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" t="s">
+        <v>240</v>
+      </c>
+      <c r="H35" t="s">
+        <v>254</v>
+      </c>
+      <c r="I35" t="s">
+        <v>309</v>
+      </c>
+      <c r="J35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43990</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F36" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" t="s">
+        <v>235</v>
+      </c>
+      <c r="H36" t="s">
+        <v>254</v>
+      </c>
+      <c r="I36" t="s">
+        <v>310</v>
+      </c>
+      <c r="J36" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43992</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" t="s">
+        <v>233</v>
+      </c>
+      <c r="G37" t="s">
+        <v>235</v>
+      </c>
+      <c r="H37" t="s">
+        <v>254</v>
+      </c>
+      <c r="I37" t="s">
+        <v>311</v>
+      </c>
+      <c r="J37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43997</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" t="s">
+        <v>235</v>
+      </c>
+      <c r="H38" t="s">
+        <v>254</v>
+      </c>
+      <c r="I38" t="s">
+        <v>312</v>
+      </c>
+      <c r="J38" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" t="s">
+        <v>235</v>
+      </c>
+      <c r="H39" t="s">
+        <v>260</v>
+      </c>
+      <c r="I39" t="s">
+        <v>313</v>
+      </c>
+      <c r="J39" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" t="s">
+        <v>233</v>
+      </c>
+      <c r="G40" t="s">
+        <v>236</v>
+      </c>
+      <c r="H40" t="s">
+        <v>242</v>
+      </c>
+      <c r="I40" t="s">
+        <v>314</v>
+      </c>
+      <c r="J40" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44001</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F41" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" t="s">
+        <v>236</v>
+      </c>
+      <c r="H41" t="s">
+        <v>242</v>
+      </c>
+      <c r="I41" t="s">
+        <v>315</v>
+      </c>
+      <c r="J41" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44004</v>
+      </c>
+      <c r="C42" t="s">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" t="s">
+        <v>233</v>
+      </c>
+      <c r="G42" t="s">
+        <v>235</v>
+      </c>
+      <c r="H42" t="s">
+        <v>243</v>
+      </c>
+      <c r="I42" t="s">
+        <v>316</v>
+      </c>
+      <c r="J42" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44004</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" t="s">
+        <v>233</v>
+      </c>
+      <c r="G43" t="s">
+        <v>235</v>
+      </c>
+      <c r="H43" t="s">
+        <v>261</v>
+      </c>
+      <c r="I43" t="s">
+        <v>317</v>
+      </c>
+      <c r="J43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44004</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F44" t="s">
+        <v>233</v>
+      </c>
+      <c r="G44" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44" t="s">
+        <v>262</v>
+      </c>
+      <c r="I44" t="s">
+        <v>318</v>
+      </c>
+      <c r="J44" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44004</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F45" t="s">
+        <v>233</v>
+      </c>
+      <c r="G45" t="s">
+        <v>235</v>
+      </c>
+      <c r="H45" t="s">
+        <v>263</v>
+      </c>
+      <c r="I45" t="s">
+        <v>319</v>
+      </c>
+      <c r="J45" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B46" s="2">
+        <v>44006</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46" t="s">
+        <v>233</v>
+      </c>
+      <c r="G46" t="s">
+        <v>238</v>
+      </c>
+      <c r="H46" t="s">
+        <v>261</v>
+      </c>
+      <c r="I46" t="s">
+        <v>320</v>
+      </c>
+      <c r="J46" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
+      <c r="B47" s="2">
+        <v>44006</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47" t="s">
+        <v>233</v>
+      </c>
+      <c r="G47" t="s">
+        <v>235</v>
+      </c>
+      <c r="H47" t="s">
+        <v>264</v>
+      </c>
+      <c r="I47" t="s">
+        <v>321</v>
+      </c>
+      <c r="J47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44008</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" t="s">
+        <v>233</v>
+      </c>
+      <c r="G48" t="s">
+        <v>236</v>
+      </c>
+      <c r="H48" t="s">
+        <v>246</v>
+      </c>
+      <c r="I48" t="s">
+        <v>322</v>
+      </c>
+      <c r="J48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44009</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" t="s">
+        <v>233</v>
+      </c>
+      <c r="G49" t="s">
+        <v>236</v>
+      </c>
+      <c r="H49" t="s">
+        <v>242</v>
+      </c>
+      <c r="I49" t="s">
+        <v>323</v>
+      </c>
+      <c r="J49" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44011</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F50" t="s">
+        <v>233</v>
+      </c>
+      <c r="G50" t="s">
+        <v>235</v>
+      </c>
+      <c r="H50" t="s">
+        <v>254</v>
+      </c>
+      <c r="I50" t="s">
+        <v>324</v>
+      </c>
+      <c r="J50" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F51" t="s">
+        <v>233</v>
+      </c>
+      <c r="G51" t="s">
+        <v>235</v>
+      </c>
+      <c r="H51" t="s">
+        <v>261</v>
+      </c>
+      <c r="I51" t="s">
+        <v>325</v>
+      </c>
+      <c r="J51" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44014</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F52" t="s">
+        <v>233</v>
+      </c>
+      <c r="G52" t="s">
+        <v>235</v>
+      </c>
+      <c r="H52" t="s">
+        <v>265</v>
+      </c>
+      <c r="I52" t="s">
+        <v>326</v>
+      </c>
+      <c r="J52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44018</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" t="s">
+        <v>234</v>
+      </c>
+      <c r="G53" t="s">
+        <v>235</v>
+      </c>
+      <c r="H53" t="s">
+        <v>257</v>
+      </c>
+      <c r="I53" t="s">
+        <v>327</v>
+      </c>
+      <c r="J53" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44020</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F54" t="s">
+        <v>233</v>
+      </c>
+      <c r="G54" t="s">
+        <v>235</v>
+      </c>
+      <c r="H54" t="s">
+        <v>254</v>
+      </c>
+      <c r="I54" t="s">
+        <v>328</v>
+      </c>
+      <c r="J54" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44025</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F55" t="s">
+        <v>233</v>
+      </c>
+      <c r="G55" t="s">
+        <v>236</v>
+      </c>
+      <c r="H55" t="s">
+        <v>242</v>
+      </c>
+      <c r="I55" t="s">
+        <v>329</v>
+      </c>
+      <c r="J55" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44025</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F56" t="s">
+        <v>233</v>
+      </c>
+      <c r="G56" t="s">
+        <v>235</v>
+      </c>
+      <c r="H56" t="s">
+        <v>243</v>
+      </c>
+      <c r="I56" t="s">
+        <v>330</v>
+      </c>
+      <c r="J56" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44025</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F57" t="s">
+        <v>233</v>
+      </c>
+      <c r="G57" t="s">
+        <v>236</v>
+      </c>
+      <c r="H57" t="s">
+        <v>242</v>
+      </c>
+      <c r="I57" t="s">
+        <v>331</v>
+      </c>
+      <c r="J57" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="J5" t="s">
+      <c r="B58" s="2">
+        <v>44026</v>
+      </c>
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F58" t="s">
+        <v>233</v>
+      </c>
+      <c r="G58" t="s">
+        <v>236</v>
+      </c>
+      <c r="H58" t="s">
+        <v>244</v>
+      </c>
+      <c r="I58" t="s">
+        <v>332</v>
+      </c>
+      <c r="J58" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44027</v>
+      </c>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F59" t="s">
+        <v>233</v>
+      </c>
+      <c r="G59" t="s">
+        <v>236</v>
+      </c>
+      <c r="H59" t="s">
+        <v>257</v>
+      </c>
+      <c r="I59" t="s">
+        <v>333</v>
+      </c>
+      <c r="J59" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44030</v>
+      </c>
+      <c r="C60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" t="s">
+        <v>233</v>
+      </c>
+      <c r="G60" t="s">
+        <v>236</v>
+      </c>
+      <c r="H60" t="s">
+        <v>266</v>
+      </c>
+      <c r="I60" t="s">
+        <v>334</v>
+      </c>
+      <c r="J60" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44031</v>
+      </c>
+      <c r="C61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F61" t="s">
+        <v>233</v>
+      </c>
+      <c r="G61" t="s">
+        <v>235</v>
+      </c>
+      <c r="H61" t="s">
+        <v>253</v>
+      </c>
+      <c r="I61" t="s">
+        <v>335</v>
+      </c>
+      <c r="J61" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44042</v>
+      </c>
+      <c r="C62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" t="s">
+        <v>241</v>
+      </c>
+      <c r="H62" t="s">
+        <v>267</v>
+      </c>
+      <c r="I62" t="s">
+        <v>336</v>
+      </c>
+      <c r="J62" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44052</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63" t="s">
+        <v>233</v>
+      </c>
+      <c r="G63" t="s">
+        <v>235</v>
+      </c>
+      <c r="H63" t="s">
+        <v>268</v>
+      </c>
+      <c r="I63" t="s">
+        <v>337</v>
+      </c>
+      <c r="J63" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44057</v>
+      </c>
+      <c r="C64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F64" t="s">
+        <v>233</v>
+      </c>
+      <c r="G64" t="s">
+        <v>236</v>
+      </c>
+      <c r="H64" t="s">
+        <v>243</v>
+      </c>
+      <c r="I64" t="s">
+        <v>338</v>
+      </c>
+      <c r="J64" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44061</v>
+      </c>
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" t="s">
+        <v>233</v>
+      </c>
+      <c r="G65" t="s">
+        <v>235</v>
+      </c>
+      <c r="H65" t="s">
+        <v>254</v>
+      </c>
+      <c r="I65" t="s">
+        <v>339</v>
+      </c>
+      <c r="J65" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44064</v>
+      </c>
+      <c r="C66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F66" t="s">
+        <v>233</v>
+      </c>
+      <c r="G66" t="s">
+        <v>235</v>
+      </c>
+      <c r="H66" t="s">
+        <v>261</v>
+      </c>
+      <c r="I66" t="s">
+        <v>340</v>
+      </c>
+      <c r="J66" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44065</v>
+      </c>
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F67" t="s">
+        <v>233</v>
+      </c>
+      <c r="G67" t="s">
+        <v>236</v>
+      </c>
+      <c r="H67" t="s">
+        <v>261</v>
+      </c>
+      <c r="I67" t="s">
+        <v>341</v>
+      </c>
+      <c r="J67" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44066</v>
+      </c>
+      <c r="C68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F68" t="s">
+        <v>233</v>
+      </c>
+      <c r="G68" t="s">
+        <v>235</v>
+      </c>
+      <c r="H68" t="s">
+        <v>261</v>
+      </c>
+      <c r="I68" t="s">
+        <v>342</v>
+      </c>
+      <c r="J68" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B69" s="2">
+        <v>44067</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F69" t="s">
+        <v>233</v>
+      </c>
+      <c r="G69" t="s">
+        <v>235</v>
+      </c>
+      <c r="H69" t="s">
+        <v>261</v>
+      </c>
+      <c r="I69" t="s">
+        <v>343</v>
+      </c>
+      <c r="J69" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <v>44067</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F70" t="s">
+        <v>233</v>
+      </c>
+      <c r="G70" t="s">
+        <v>235</v>
+      </c>
+      <c r="H70" t="s">
+        <v>261</v>
+      </c>
+      <c r="I70" t="s">
+        <v>344</v>
+      </c>
+      <c r="J70" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>44069</v>
+      </c>
+      <c r="C71" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" t="s">
+        <v>233</v>
+      </c>
+      <c r="G71" t="s">
+        <v>235</v>
+      </c>
+      <c r="H71" t="s">
+        <v>269</v>
+      </c>
+      <c r="I71" t="s">
+        <v>345</v>
+      </c>
+      <c r="J71" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44070</v>
+      </c>
+      <c r="C72" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" t="s">
+        <v>233</v>
+      </c>
+      <c r="G72" t="s">
+        <v>236</v>
+      </c>
+      <c r="H72" t="s">
+        <v>270</v>
+      </c>
+      <c r="I72" t="s">
+        <v>346</v>
+      </c>
+      <c r="J72" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>44078</v>
+      </c>
+      <c r="C73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F73" t="s">
+        <v>233</v>
+      </c>
+      <c r="G73" t="s">
+        <v>236</v>
+      </c>
+      <c r="H73" t="s">
+        <v>271</v>
+      </c>
+      <c r="I73" t="s">
+        <v>347</v>
+      </c>
+      <c r="J73" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <v>44091</v>
+      </c>
+      <c r="C74" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F74" t="s">
+        <v>233</v>
+      </c>
+      <c r="G74" t="s">
+        <v>236</v>
+      </c>
+      <c r="H74" t="s">
+        <v>246</v>
+      </c>
+      <c r="I74" t="s">
+        <v>348</v>
+      </c>
+      <c r="J74" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <v>44093</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F75" t="s">
+        <v>233</v>
+      </c>
+      <c r="G75" t="s">
+        <v>236</v>
+      </c>
+      <c r="H75" t="s">
+        <v>270</v>
+      </c>
+      <c r="I75" t="s">
+        <v>349</v>
+      </c>
+      <c r="J75" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>44100</v>
+      </c>
+      <c r="C76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F76" t="s">
+        <v>233</v>
+      </c>
+      <c r="G76" t="s">
+        <v>235</v>
+      </c>
+      <c r="H76" t="s">
+        <v>272</v>
+      </c>
+      <c r="I76" t="s">
+        <v>350</v>
+      </c>
+      <c r="J76" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>44110</v>
+      </c>
+      <c r="C77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F77" t="s">
+        <v>233</v>
+      </c>
+      <c r="G77" t="s">
+        <v>236</v>
+      </c>
+      <c r="H77" t="s">
+        <v>273</v>
+      </c>
+      <c r="I77" t="s">
+        <v>351</v>
+      </c>
+      <c r="J77" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <v>44111</v>
+      </c>
+      <c r="C78" t="s">
+        <v>71</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F78" t="s">
+        <v>233</v>
+      </c>
+      <c r="G78" t="s">
+        <v>236</v>
+      </c>
+      <c r="H78" t="s">
+        <v>246</v>
+      </c>
+      <c r="I78" t="s">
+        <v>352</v>
+      </c>
+      <c r="J78" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <v>44118</v>
+      </c>
+      <c r="C79" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F79" t="s">
+        <v>233</v>
+      </c>
+      <c r="G79" t="s">
+        <v>235</v>
+      </c>
+      <c r="H79" t="s">
+        <v>243</v>
+      </c>
+      <c r="I79" t="s">
+        <v>353</v>
+      </c>
+      <c r="J79" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <v>44147</v>
+      </c>
+      <c r="C80" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F80" t="s">
+        <v>233</v>
+      </c>
+      <c r="G80" t="s">
+        <v>236</v>
+      </c>
+      <c r="H80" t="s">
+        <v>243</v>
+      </c>
+      <c r="I80" t="s">
+        <v>354</v>
+      </c>
+      <c r="J80" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B6" s="2">
-        <v>44093</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B81" s="2">
+        <v>44152</v>
+      </c>
+      <c r="C81" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F81" t="s">
+        <v>233</v>
+      </c>
+      <c r="G81" t="s">
+        <v>236</v>
+      </c>
+      <c r="H81" t="s">
+        <v>248</v>
+      </c>
+      <c r="I81" t="s">
+        <v>355</v>
+      </c>
+      <c r="J81" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B7" s="2">
-        <v>44100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B82" s="2">
+        <v>44170</v>
+      </c>
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F82" t="s">
+        <v>233</v>
+      </c>
+      <c r="G82" t="s">
+        <v>235</v>
+      </c>
+      <c r="H82" t="s">
+        <v>274</v>
+      </c>
+      <c r="I82" t="s">
+        <v>356</v>
+      </c>
+      <c r="J82" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B8" s="2">
-        <v>44110</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B83" s="2">
+        <v>44185</v>
+      </c>
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F83" t="s">
+        <v>233</v>
+      </c>
+      <c r="G83" t="s">
+        <v>235</v>
+      </c>
+      <c r="H83" t="s">
+        <v>254</v>
+      </c>
+      <c r="I83" t="s">
+        <v>357</v>
+      </c>
+      <c r="J83" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B9" s="2">
-        <v>44111</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B84" s="2">
+        <v>44192</v>
+      </c>
+      <c r="C84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F84" t="s">
+        <v>233</v>
+      </c>
+      <c r="G84" t="s">
+        <v>235</v>
+      </c>
+      <c r="H84" t="s">
+        <v>243</v>
+      </c>
+      <c r="I84" t="s">
+        <v>358</v>
+      </c>
+      <c r="J84" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B10" s="2">
-        <v>44118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B85" s="2">
+        <v>44195</v>
+      </c>
+      <c r="C85" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F85" t="s">
+        <v>234</v>
+      </c>
+      <c r="G85" t="s">
+        <v>238</v>
+      </c>
+      <c r="H85" t="s">
+        <v>275</v>
+      </c>
+      <c r="I85" t="s">
+        <v>359</v>
+      </c>
+      <c r="J85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B11" s="2">
-        <v>44147</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B86" s="2">
+        <v>44201</v>
+      </c>
+      <c r="C86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" t="s">
+        <v>233</v>
+      </c>
+      <c r="G86" t="s">
+        <v>235</v>
+      </c>
+      <c r="H86" t="s">
+        <v>254</v>
+      </c>
+      <c r="I86" t="s">
+        <v>360</v>
+      </c>
+      <c r="J86" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B12" s="2">
-        <v>44152</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" t="s">
-        <v>74</v>
+      <c r="B87" s="2">
+        <v>44206</v>
+      </c>
+      <c r="C87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F87" t="s">
+        <v>233</v>
+      </c>
+      <c r="G87" t="s">
+        <v>236</v>
+      </c>
+      <c r="H87" t="s">
+        <v>243</v>
+      </c>
+      <c r="I87" t="s">
+        <v>361</v>
+      </c>
+      <c r="J87" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="D12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="E6" r:id="rId10"/>
+    <hyperlink ref="D7" r:id="rId11"/>
+    <hyperlink ref="E7" r:id="rId12"/>
+    <hyperlink ref="D8" r:id="rId13"/>
+    <hyperlink ref="E8" r:id="rId14"/>
+    <hyperlink ref="D9" r:id="rId15"/>
+    <hyperlink ref="E9" r:id="rId16"/>
+    <hyperlink ref="D10" r:id="rId17"/>
+    <hyperlink ref="E10" r:id="rId18"/>
+    <hyperlink ref="D11" r:id="rId19"/>
+    <hyperlink ref="E11" r:id="rId20"/>
+    <hyperlink ref="D12" r:id="rId21"/>
+    <hyperlink ref="E12" r:id="rId22"/>
+    <hyperlink ref="D13" r:id="rId23"/>
+    <hyperlink ref="E13" r:id="rId24"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="E14" r:id="rId26"/>
+    <hyperlink ref="D15" r:id="rId27"/>
+    <hyperlink ref="E15" r:id="rId28"/>
+    <hyperlink ref="D16" r:id="rId29"/>
+    <hyperlink ref="E16" r:id="rId30"/>
+    <hyperlink ref="D17" r:id="rId31"/>
+    <hyperlink ref="E17" r:id="rId32"/>
+    <hyperlink ref="D18" r:id="rId33"/>
+    <hyperlink ref="E18" r:id="rId34"/>
+    <hyperlink ref="D19" r:id="rId35"/>
+    <hyperlink ref="E19" r:id="rId36"/>
+    <hyperlink ref="D20" r:id="rId37"/>
+    <hyperlink ref="E20" r:id="rId38"/>
+    <hyperlink ref="D21" r:id="rId39"/>
+    <hyperlink ref="E21" r:id="rId40"/>
+    <hyperlink ref="D22" r:id="rId41"/>
+    <hyperlink ref="E22" r:id="rId42"/>
+    <hyperlink ref="D23" r:id="rId43"/>
+    <hyperlink ref="E23" r:id="rId44"/>
+    <hyperlink ref="D24" r:id="rId45"/>
+    <hyperlink ref="E24" r:id="rId46"/>
+    <hyperlink ref="D25" r:id="rId47"/>
+    <hyperlink ref="E25" r:id="rId48"/>
+    <hyperlink ref="D26" r:id="rId49"/>
+    <hyperlink ref="E26" r:id="rId50"/>
+    <hyperlink ref="D27" r:id="rId51"/>
+    <hyperlink ref="E27" r:id="rId52"/>
+    <hyperlink ref="D28" r:id="rId53"/>
+    <hyperlink ref="E28" r:id="rId54"/>
+    <hyperlink ref="D29" r:id="rId55"/>
+    <hyperlink ref="E29" r:id="rId56"/>
+    <hyperlink ref="D30" r:id="rId57"/>
+    <hyperlink ref="E30" r:id="rId58"/>
+    <hyperlink ref="D31" r:id="rId59"/>
+    <hyperlink ref="E31" r:id="rId60"/>
+    <hyperlink ref="D32" r:id="rId61"/>
+    <hyperlink ref="E32" r:id="rId62"/>
+    <hyperlink ref="D33" r:id="rId63"/>
+    <hyperlink ref="E33" r:id="rId64"/>
+    <hyperlink ref="D34" r:id="rId65"/>
+    <hyperlink ref="E34" r:id="rId66"/>
+    <hyperlink ref="D35" r:id="rId67"/>
+    <hyperlink ref="E35" r:id="rId68"/>
+    <hyperlink ref="D36" r:id="rId69"/>
+    <hyperlink ref="E36" r:id="rId70"/>
+    <hyperlink ref="D37" r:id="rId71"/>
+    <hyperlink ref="E37" r:id="rId72"/>
+    <hyperlink ref="D38" r:id="rId73"/>
+    <hyperlink ref="E38" r:id="rId74"/>
+    <hyperlink ref="D39" r:id="rId75"/>
+    <hyperlink ref="E39" r:id="rId76"/>
+    <hyperlink ref="D40" r:id="rId77"/>
+    <hyperlink ref="E40" r:id="rId78"/>
+    <hyperlink ref="D41" r:id="rId79"/>
+    <hyperlink ref="E41" r:id="rId80"/>
+    <hyperlink ref="D42" r:id="rId81"/>
+    <hyperlink ref="E42" r:id="rId82"/>
+    <hyperlink ref="D43" r:id="rId83"/>
+    <hyperlink ref="E43" r:id="rId84"/>
+    <hyperlink ref="D44" r:id="rId85"/>
+    <hyperlink ref="E44" r:id="rId86"/>
+    <hyperlink ref="D45" r:id="rId87"/>
+    <hyperlink ref="E45" r:id="rId88"/>
+    <hyperlink ref="D46" r:id="rId89"/>
+    <hyperlink ref="E46" r:id="rId90"/>
+    <hyperlink ref="D47" r:id="rId91"/>
+    <hyperlink ref="E47" r:id="rId92"/>
+    <hyperlink ref="D48" r:id="rId93"/>
+    <hyperlink ref="E48" r:id="rId94"/>
+    <hyperlink ref="D49" r:id="rId95"/>
+    <hyperlink ref="E49" r:id="rId96"/>
+    <hyperlink ref="D50" r:id="rId97"/>
+    <hyperlink ref="E50" r:id="rId98"/>
+    <hyperlink ref="D51" r:id="rId99"/>
+    <hyperlink ref="E51" r:id="rId100"/>
+    <hyperlink ref="D52" r:id="rId101"/>
+    <hyperlink ref="E52" r:id="rId102"/>
+    <hyperlink ref="D53" r:id="rId103"/>
+    <hyperlink ref="E53" r:id="rId104"/>
+    <hyperlink ref="D54" r:id="rId105"/>
+    <hyperlink ref="E54" r:id="rId106"/>
+    <hyperlink ref="D55" r:id="rId107"/>
+    <hyperlink ref="E55" r:id="rId108"/>
+    <hyperlink ref="D56" r:id="rId109"/>
+    <hyperlink ref="E56" r:id="rId110"/>
+    <hyperlink ref="D57" r:id="rId111"/>
+    <hyperlink ref="E57" r:id="rId112"/>
+    <hyperlink ref="D58" r:id="rId113"/>
+    <hyperlink ref="E58" r:id="rId114"/>
+    <hyperlink ref="D59" r:id="rId115"/>
+    <hyperlink ref="E59" r:id="rId116"/>
+    <hyperlink ref="D60" r:id="rId117"/>
+    <hyperlink ref="E60" r:id="rId118"/>
+    <hyperlink ref="D61" r:id="rId119"/>
+    <hyperlink ref="E61" r:id="rId120"/>
+    <hyperlink ref="D62" r:id="rId121"/>
+    <hyperlink ref="E62" r:id="rId122"/>
+    <hyperlink ref="D63" r:id="rId123"/>
+    <hyperlink ref="E63" r:id="rId124"/>
+    <hyperlink ref="D64" r:id="rId125"/>
+    <hyperlink ref="E64" r:id="rId126"/>
+    <hyperlink ref="D65" r:id="rId127"/>
+    <hyperlink ref="E65" r:id="rId128"/>
+    <hyperlink ref="D66" r:id="rId129"/>
+    <hyperlink ref="E66" r:id="rId130"/>
+    <hyperlink ref="D67" r:id="rId131"/>
+    <hyperlink ref="E67" r:id="rId132"/>
+    <hyperlink ref="D68" r:id="rId133"/>
+    <hyperlink ref="E68" r:id="rId134"/>
+    <hyperlink ref="D69" r:id="rId135"/>
+    <hyperlink ref="E69" r:id="rId136"/>
+    <hyperlink ref="D70" r:id="rId137"/>
+    <hyperlink ref="E70" r:id="rId138"/>
+    <hyperlink ref="D71" r:id="rId139"/>
+    <hyperlink ref="E71" r:id="rId140"/>
+    <hyperlink ref="D72" r:id="rId141"/>
+    <hyperlink ref="E72" r:id="rId142"/>
+    <hyperlink ref="D73" r:id="rId143"/>
+    <hyperlink ref="E73" r:id="rId144"/>
+    <hyperlink ref="D74" r:id="rId145"/>
+    <hyperlink ref="E74" r:id="rId146"/>
+    <hyperlink ref="D75" r:id="rId147"/>
+    <hyperlink ref="E75" r:id="rId148"/>
+    <hyperlink ref="D76" r:id="rId149"/>
+    <hyperlink ref="E76" r:id="rId150"/>
+    <hyperlink ref="D77" r:id="rId151"/>
+    <hyperlink ref="E77" r:id="rId152"/>
+    <hyperlink ref="D78" r:id="rId153"/>
+    <hyperlink ref="E78" r:id="rId154"/>
+    <hyperlink ref="D79" r:id="rId155"/>
+    <hyperlink ref="E79" r:id="rId156"/>
+    <hyperlink ref="D80" r:id="rId157"/>
+    <hyperlink ref="E80" r:id="rId158"/>
+    <hyperlink ref="D81" r:id="rId159"/>
+    <hyperlink ref="E81" r:id="rId160"/>
+    <hyperlink ref="D82" r:id="rId161"/>
+    <hyperlink ref="E82" r:id="rId162"/>
+    <hyperlink ref="D83" r:id="rId163"/>
+    <hyperlink ref="E83" r:id="rId164"/>
+    <hyperlink ref="D84" r:id="rId165"/>
+    <hyperlink ref="E84" r:id="rId166"/>
+    <hyperlink ref="D85" r:id="rId167"/>
+    <hyperlink ref="E85" r:id="rId168"/>
+    <hyperlink ref="D86" r:id="rId169"/>
+    <hyperlink ref="E86" r:id="rId170"/>
+    <hyperlink ref="D87" r:id="rId171"/>
+    <hyperlink ref="E87" r:id="rId172"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
